--- a/2 четверть_3_Программист_Java.xlsx
+++ b/2 четверть_3_Программист_Java.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user0\Desktop\Homework-repo\GB_Developer_Workbook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Desktop\Homework-repo\GB_Developer_Workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73E07C6-27A8-468E-86FD-5C6B62CB9A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6B2CB3-488B-46F1-822A-C61B46EC635A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Java 1-6" sheetId="12" r:id="rId1"/>
@@ -21429,8 +21429,8 @@
   </sheetPr>
   <dimension ref="A1:AC530"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D389" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F388" sqref="F388"/>
+    <sheetView tabSelected="1" topLeftCell="A431" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C454" sqref="A453:C454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/2 четверть_3_Программист_Java.xlsx
+++ b/2 четверть_3_Программист_Java.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user0\Desktop\Homework-repo\GB_Developer_Workbook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Machenike\Desktop\Homework_repo\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB24A923-7FF2-434D-B0EB-E29323A494F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6252325-C049-46A2-8676-9A8AA1C67773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="680" yWindow="2380" windowWidth="16570" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Java 1-6" sheetId="12" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3330" uniqueCount="2202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3334" uniqueCount="2208">
   <si>
     <t>Функции</t>
   </si>
@@ -13838,11 +13838,6 @@
     </r>
   </si>
   <si>
-    <t>3 допускаются только уникальные ключи, значения 
-4 могут повторяться;
-5 помните про null значения*;</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -16342,47 +16337,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">`https://docs.oracle.com/javase/10/docs/api/java/util/ArrayList.html
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Важно!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Когда создается ArrayList без указанного размера, то его размер по умолчанию равен 10 (0 - 9), далее при превышении указаного размера, его размер автоматически увеличивается на 50%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-копирование всех элементов и сдвиг элементов осуществляет специальная внутренняя функция — System.arrayCopy()</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">`https://javarush.ru/groups/posts/isklyucheniya-java
 try {
   Код, в котором может появиться ошибка
@@ -17228,220 +17182,6 @@
   </si>
   <si>
     <t>add, addAll, clear, contains, containsAll, equals, hashCode, isEmpty, iterator, remove, removeAll, retainAll, size, toArray, toArray</t>
-  </si>
-  <si>
-    <r>
-      <t>Коллекция</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-ArrayList, LinkedList (Vector, Stack – устаревшие)
-ArrayList&lt;Integer&gt; list3 = new ArrayList&lt;&gt;(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Size/Array/List</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">);
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Разные способы создания</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ArrayList&lt;Integer&gt; list1 = new ArrayList&lt;Integer&gt;();
-ArrayList&lt;Integer&gt; list2 = new ArrayList&lt;&gt;();
-ArrayList&lt;Integer&gt; list3 = new ArrayList&lt;&gt;(10); </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>//однако size будет равен 0 пока не будет добавлен хотя 1 или более элементов</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Из массива в список</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-ArrayList&lt;Integer&gt; list4 = new ArrayList&lt;&gt;(List.of(someArray "массив")); </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>//mutable</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-ArrayList&lt;Integer&gt; list4 = List.of(someArray); </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>//immutable</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-ArrayList&lt;Integer&gt; list4 = Arrays.asList(someArray)); </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>//immutable</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Collections.addAll(taskList,someArray); </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>//mutable</t>
-    </r>
   </si>
   <si>
     <t>LinkedHashMap
@@ -18199,17 +17939,416 @@
 или sout+tab
 или psvm - public static void main(String[] args){</t>
   </si>
+  <si>
+    <r>
+      <t>Коллекция</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ArrayList, LinkedList (Vector, Stack – устаревшие)
+ArrayList&lt;Integer&gt; list3 = new ArrayList&lt;&gt;(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Size/Array/List</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Разные способы создания</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ArrayList&lt;Integer&gt; list1 = new ArrayList&lt;Integer&gt;();
+ArrayList&lt;Integer&gt; list2 = new ArrayList&lt;&gt;();
+ArrayList&lt;Integer&gt; list3 = new ArrayList&lt;&gt;(10); </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//capacity будет равна 10, однако size будет равен 0 пока не будет добавлен хотя 1 или более элементов</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Из массива в список</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ArrayList&lt;Integer&gt; list4 = new ArrayList&lt;&gt;(List.of(someArray "массив")); </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//mutable</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ArrayList&lt;Integer&gt; list4 = List.of(someArray); </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//immutable</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ArrayList&lt;Integer&gt; list4 = Arrays.asList(someArray)); </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//immutable</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Collections.addAll(taskList,someArray); </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//mutable</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">`https://docs.oracle.com/javase/10/docs/api/java/util/ArrayList.html
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно! Автоматическое определение capacity массива</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Когда создается ArrayList без указанного размера, то его размер по умолчанию равен 10 (0 - 9), далее при превышении указаного размера, его размер автоматически увеличивается на 50%
+копирование всех элементов и сдвиг элементов осуществляет специальная внутренняя функция — System.arrayCopy()</t>
+    </r>
+  </si>
+  <si>
+    <t>Семинар 2 Алгоритмы</t>
+  </si>
+  <si>
+    <t>00 30 00</t>
+  </si>
+  <si>
+    <t>Ссылочный тип данных и примитивы</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">В Java все объекты делятся на ссылочные и примитивы. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Ссылочный тип данных </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">это объекты, которые создаются в отдельном месте памяти, на которые ведут ссылки от переменных.
+К ссылочным объектам относятся классы-обертки, массивы и тп.
+Если поместить такие объекты в метод в качестве параметра, то данный объект может быть изменен без необходимости вывода результат в return
+Таким образом массивы могут хранить как ссылочные, так и примитивные объекты.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Примитивный тип данных</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> хранится в стэке оперативной памяти в виде конкретных значений. Переменные примитивного типа не создают новых объектов, а лишь изменяют ссылки на кэш значений, хранимый в стэке
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>В случае ссылочных, массив хранит только ссылки</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> на объекты, которые где-то расположены в памяти (как папки/директории с файлами)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>В случае примитвов, массив хранит ссылки на примитивы.</t>
+    </r>
+  </si>
+  <si>
+    <t>3 допускаются только уникальные ключи, значения 
+4 могут повторяться;
+5 помните про null значения*; В Java (в отличии от других языков программирования), дополнение hashmap элементом с ключем null не вызовет ошибки - операция добавления такого элемента с null ключем пройдет успешно</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HashMap&lt;Integer, String&gt; mp = new HashMap&lt;&gt;();
+        mp.put(1,"AAA");
+        mp.put(2,"AAA");
+        mp.put(3,"AAA");
+        mp.put(4,"AAA");        
+for (Map.Entry&lt;Integer,String&gt; items: mp.entrySet()){
+            System.out.printf("%d - %s \n",items.getKey(), items.getValue());
+        }
+1 - AAA 
+2 - AAA 
+3 - AAA 
+4 - AAA </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="63" x14ac:knownFonts="1">
+  <fonts count="67" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -19132,9 +19271,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="294">
+  <cellXfs count="296">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -19154,32 +19293,32 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="36" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="40" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -19203,16 +19342,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -19224,13 +19363,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -19245,10 +19384,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -19260,28 +19399,28 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="46" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -19290,13 +19429,13 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -19308,43 +19447,43 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="35" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="35" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -19353,31 +19492,31 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -19385,7 +19524,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -19409,13 +19548,13 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -19427,7 +19566,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -19436,13 +19575,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="46" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="50" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="54" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -19451,13 +19590,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -19476,7 +19615,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="37" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -19494,7 +19633,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -19509,16 +19648,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="46" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -19530,16 +19669,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -19557,13 +19696,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -19572,7 +19711,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="39" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -19593,22 +19732,22 @@
     <xf numFmtId="49" fontId="0" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="37" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="37" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -19623,22 +19762,22 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -19676,82 +19815,82 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="33" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="39" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="39" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="39" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="39" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="39" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -19766,55 +19905,55 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="36" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="40" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="36" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="40" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -19829,7 +19968,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -19841,153 +19980,159 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="11" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="39" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="66" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="11" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="62" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -20443,13 +20588,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>177802</xdr:colOff>
-      <xdr:row>341</xdr:row>
+      <xdr:row>349</xdr:row>
       <xdr:rowOff>520701</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>69962</xdr:colOff>
-      <xdr:row>341</xdr:row>
+      <xdr:row>349</xdr:row>
       <xdr:rowOff>1397000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -20473,8 +20618,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3556002" y="118148101"/>
-          <a:ext cx="3702160" cy="876299"/>
+          <a:off x="54914802" y="154381201"/>
+          <a:ext cx="3686285" cy="876299"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20487,13 +20632,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>990440</xdr:colOff>
-      <xdr:row>340</xdr:row>
+      <xdr:row>348</xdr:row>
       <xdr:rowOff>680356</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>4435930</xdr:colOff>
-      <xdr:row>340</xdr:row>
+      <xdr:row>348</xdr:row>
       <xdr:rowOff>2009209</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -20531,13 +20676,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>99582</xdr:colOff>
-      <xdr:row>390</xdr:row>
+      <xdr:row>398</xdr:row>
       <xdr:rowOff>339148</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>4308886</xdr:colOff>
-      <xdr:row>390</xdr:row>
+      <xdr:row>398</xdr:row>
       <xdr:rowOff>2047875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -20575,13 +20720,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>390</xdr:row>
+      <xdr:row>398</xdr:row>
       <xdr:rowOff>571500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>3175000</xdr:colOff>
-      <xdr:row>390</xdr:row>
+      <xdr:row>398</xdr:row>
       <xdr:rowOff>2193376</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -20619,13 +20764,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>126999</xdr:colOff>
-      <xdr:row>392</xdr:row>
+      <xdr:row>400</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>1945248</xdr:colOff>
-      <xdr:row>392</xdr:row>
+      <xdr:row>400</xdr:row>
       <xdr:rowOff>1778000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -20663,13 +20808,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>391</xdr:row>
+      <xdr:row>399</xdr:row>
       <xdr:rowOff>190501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>2841625</xdr:colOff>
-      <xdr:row>391</xdr:row>
+      <xdr:row>399</xdr:row>
       <xdr:rowOff>676903</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -20795,13 +20940,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>308883</xdr:colOff>
-      <xdr:row>341</xdr:row>
+      <xdr:row>349</xdr:row>
       <xdr:rowOff>1466396</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>4036528</xdr:colOff>
-      <xdr:row>341</xdr:row>
+      <xdr:row>349</xdr:row>
       <xdr:rowOff>1727200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -20839,13 +20984,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>362857</xdr:colOff>
-      <xdr:row>340</xdr:row>
+      <xdr:row>348</xdr:row>
       <xdr:rowOff>1484085</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3728531</xdr:colOff>
-      <xdr:row>340</xdr:row>
+      <xdr:row>348</xdr:row>
       <xdr:rowOff>2684297</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -20883,13 +21028,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1061357</xdr:colOff>
-      <xdr:row>377</xdr:row>
+      <xdr:row>385</xdr:row>
       <xdr:rowOff>63502</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2721428</xdr:colOff>
-      <xdr:row>377</xdr:row>
+      <xdr:row>385</xdr:row>
       <xdr:rowOff>657574</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -20927,13 +21072,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>115454</xdr:colOff>
-      <xdr:row>448</xdr:row>
+      <xdr:row>456</xdr:row>
       <xdr:rowOff>92362</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3013364</xdr:colOff>
-      <xdr:row>448</xdr:row>
+      <xdr:row>456</xdr:row>
       <xdr:rowOff>1744911</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -20971,13 +21116,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>349249</xdr:colOff>
-      <xdr:row>448</xdr:row>
+      <xdr:row>456</xdr:row>
       <xdr:rowOff>504249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2738672</xdr:colOff>
-      <xdr:row>448</xdr:row>
+      <xdr:row>456</xdr:row>
       <xdr:rowOff>1708151</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -21015,13 +21160,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1627910</xdr:colOff>
-      <xdr:row>448</xdr:row>
+      <xdr:row>456</xdr:row>
       <xdr:rowOff>600365</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>3659909</xdr:colOff>
-      <xdr:row>448</xdr:row>
+      <xdr:row>456</xdr:row>
       <xdr:rowOff>1635985</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -21059,13 +21204,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>280010</xdr:colOff>
-      <xdr:row>490</xdr:row>
+      <xdr:row>498</xdr:row>
       <xdr:rowOff>91907</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>917863</xdr:colOff>
-      <xdr:row>490</xdr:row>
+      <xdr:row>498</xdr:row>
       <xdr:rowOff>624921</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -21399,6 +21544,50 @@
         <a:xfrm>
           <a:off x="20354637" y="118179272"/>
           <a:ext cx="2586182" cy="1228981"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>184726</xdr:colOff>
+      <xdr:row>349</xdr:row>
+      <xdr:rowOff>153349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3834412</xdr:colOff>
+      <xdr:row>349</xdr:row>
+      <xdr:rowOff>1119909</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Рисунок 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1947F2B9-0DDD-3E9F-78E5-21856553CFE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12838544" y="149563076"/>
+          <a:ext cx="3649686" cy="966560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21798,10 +21987,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AC532"/>
+  <dimension ref="A1:AC540"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A469" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B476" sqref="B476"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21893,7 +22082,7 @@
         <v>323</v>
       </c>
       <c r="B5" s="103" t="s">
-        <v>2201</v>
+        <v>2198</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>17</v>
@@ -21974,11 +22163,11 @@
       </c>
       <c r="I7" s="20"/>
       <c r="K7" s="19" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="N7" s="20"/>
       <c r="P7" s="135"/>
@@ -22081,7 +22270,7 @@
         <v>172</v>
       </c>
       <c r="M10" s="24" t="s">
-        <v>2173</v>
+        <v>2170</v>
       </c>
       <c r="N10" s="37" t="s">
         <v>44</v>
@@ -22272,10 +22461,10 @@
         <v>31</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="I15" s="254" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="K15" s="19" t="s">
         <v>605</v>
@@ -22536,13 +22725,13 @@
         <v>802</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="I21" s="255" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="K21" s="34" t="s">
         <v>957</v>
@@ -22584,10 +22773,10 @@
         <v>224</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="I22" s="256" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="K22" s="93" t="s">
         <v>959</v>
@@ -22631,10 +22820,10 @@
         <v>401</v>
       </c>
       <c r="H23" s="58" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="I23" s="257" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="K23" s="34" t="s">
         <v>961</v>
@@ -22673,13 +22862,13 @@
         <v>805</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>2172</v>
+        <v>2169</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>2170</v>
+        <v>2167</v>
       </c>
       <c r="I24" s="278" t="s">
-        <v>2171</v>
+        <v>2168</v>
       </c>
       <c r="K24" s="34" t="s">
         <v>475</v>
@@ -22764,10 +22953,10 @@
         <v>35</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="I26" s="254" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="K26" s="34" t="s">
         <v>477</v>
@@ -22808,13 +22997,13 @@
         <v>808</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="I27" s="255" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="K27" s="34" t="s">
         <v>966</v>
@@ -22853,13 +23042,13 @@
         <v>809</v>
       </c>
       <c r="G28" s="22" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="H28" s="42" t="s">
         <v>810</v>
       </c>
       <c r="I28" s="256" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="K28" s="34" t="s">
         <v>967</v>
@@ -22902,10 +23091,10 @@
         <v>35</v>
       </c>
       <c r="H29" s="58" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="I29" s="257" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="K29" s="34" t="s">
         <v>968</v>
@@ -22992,10 +23181,10 @@
         <v>35</v>
       </c>
       <c r="H31" s="22" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="I31" s="256" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="K31" s="34" t="s">
         <v>969</v>
@@ -23606,13 +23795,13 @@
         <v>429</v>
       </c>
       <c r="G45" s="58" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="H45" s="58" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="I45" s="257" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="K45" s="34" t="s">
         <v>987</v>
@@ -23964,10 +24153,10 @@
         <v>224</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="I53" s="254" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="K53" s="19" t="s">
         <v>997</v>
@@ -24411,7 +24600,7 @@
         <v>503</v>
       </c>
       <c r="N63" s="35" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="P63" s="19" t="s">
         <v>1071</v>
@@ -24505,7 +24694,7 @@
         <v>505</v>
       </c>
       <c r="N65" s="37" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="P65" s="19" t="s">
         <v>1073</v>
@@ -24577,10 +24766,10 @@
         <v>401</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="I67" s="254" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="K67"/>
       <c r="L67"/>
@@ -24655,10 +24844,10 @@
         <v>449</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="I69" s="254" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="K69"/>
       <c r="L69"/>
@@ -24880,10 +25069,10 @@
         <v>401</v>
       </c>
       <c r="H75" s="2" t="s">
+        <v>2067</v>
+      </c>
+      <c r="I75" s="254" t="s">
         <v>2068</v>
-      </c>
-      <c r="I75" s="254" t="s">
-        <v>2069</v>
       </c>
       <c r="K75"/>
       <c r="L75"/>
@@ -25704,7 +25893,7 @@
         <v>94</v>
       </c>
       <c r="P107" s="90" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="Q107" s="128" t="s">
         <v>741</v>
@@ -25770,7 +25959,7 @@
         <v>746</v>
       </c>
       <c r="R108" s="253" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="S108" s="20" t="s">
         <v>743</v>
@@ -25790,13 +25979,13 @@
     </row>
     <row r="109" spans="1:24" ht="203" x14ac:dyDescent="0.35">
       <c r="A109" s="167" t="s">
-        <v>2197</v>
+        <v>2194</v>
       </c>
       <c r="B109" s="32" t="s">
-        <v>2196</v>
+        <v>2193</v>
       </c>
       <c r="C109" s="292" t="s">
-        <v>2195</v>
+        <v>2192</v>
       </c>
       <c r="D109" s="107" t="s">
         <v>124</v>
@@ -25824,20 +26013,20 @@
         <v>101</v>
       </c>
       <c r="P109" s="19" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="S109" s="35"/>
       <c r="U109" s="1"/>
     </row>
     <row r="110" spans="1:24" ht="319.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A110" s="293" t="s">
-        <v>2198</v>
+      <c r="A110" s="118" t="s">
+        <v>2195</v>
       </c>
       <c r="B110" s="32" t="s">
-        <v>2200</v>
+        <v>2197</v>
       </c>
       <c r="C110" s="292" t="s">
-        <v>2199</v>
+        <v>2196</v>
       </c>
       <c r="D110" s="107" t="s">
         <v>125</v>
@@ -25862,13 +26051,13 @@
         <v>106</v>
       </c>
       <c r="P110" s="21" t="s">
-        <v>2192</v>
+        <v>2189</v>
       </c>
       <c r="Q110" s="291" t="s">
-        <v>2193</v>
+        <v>2190</v>
       </c>
       <c r="R110" s="22" t="s">
-        <v>2194</v>
+        <v>2191</v>
       </c>
       <c r="S110" s="37"/>
       <c r="U110" s="1"/>
@@ -25888,7 +26077,7 @@
         <v>90</v>
       </c>
       <c r="I111" s="23" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="K111" s="34" t="s">
         <v>689</v>
@@ -25958,7 +26147,7 @@
         <v>789</v>
       </c>
       <c r="R113" s="289" t="s">
-        <v>2191</v>
+        <v>2188</v>
       </c>
       <c r="S113" s="23" t="s">
         <v>790</v>
@@ -26042,22 +26231,22 @@
         <v>1405</v>
       </c>
       <c r="C116" s="250" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D116" s="18" t="s">
         <v>715</v>
       </c>
       <c r="F116" s="90" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="G116" s="17" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="H116" s="250" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="I116" s="18" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="K116" s="90" t="s">
         <v>716</v>
@@ -26107,11 +26296,11 @@
       </c>
       <c r="D117" s="45"/>
       <c r="F117" s="91" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="G117" s="129"/>
       <c r="H117" s="250" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="I117" s="45"/>
       <c r="K117" s="93" t="s">
@@ -26207,13 +26396,13 @@
       </c>
       <c r="D119" s="35"/>
       <c r="F119" s="34" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>207</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="I119" s="35"/>
       <c r="K119" s="34" t="s">
@@ -26258,7 +26447,7 @@
       </c>
       <c r="D120" s="35"/>
       <c r="F120" s="34" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>207</v>
@@ -26309,7 +26498,7 @@
       </c>
       <c r="D121" s="35"/>
       <c r="F121" s="34" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>207</v>
@@ -26360,13 +26549,13 @@
       </c>
       <c r="D122" s="35"/>
       <c r="F122" s="36" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="G122" s="42" t="s">
         <v>207</v>
       </c>
       <c r="H122" s="42" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="I122" s="37"/>
       <c r="K122" s="34" t="s">
@@ -26672,7 +26861,7 @@
         <v>155</v>
       </c>
       <c r="B132" s="264" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>1873</v>
@@ -26710,16 +26899,16 @@
     </row>
     <row r="133" spans="1:21" ht="58" x14ac:dyDescent="0.35">
       <c r="A133" s="91" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="B133" s="271" t="s">
+        <v>2063</v>
+      </c>
+      <c r="C133" s="272" t="s">
+        <v>2083</v>
+      </c>
+      <c r="D133" s="18" t="s">
         <v>2064</v>
-      </c>
-      <c r="C133" s="272" t="s">
-        <v>2084</v>
-      </c>
-      <c r="D133" s="18" t="s">
-        <v>2065</v>
       </c>
       <c r="F133" s="163" t="s">
         <v>1242</v>
@@ -26755,11 +26944,11 @@
     </row>
     <row r="134" spans="1:21" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A134" s="36" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="B134" s="42"/>
       <c r="C134" s="22" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="D134" s="37"/>
       <c r="F134" s="149" t="s">
@@ -26802,7 +26991,7 @@
         <v>687</v>
       </c>
       <c r="C135" s="253" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="D135" s="20" t="s">
         <v>683</v>
@@ -26847,7 +27036,7 @@
         <v>688</v>
       </c>
       <c r="C136" s="253" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="D136" s="20" t="s">
         <v>686</v>
@@ -29949,7 +30138,7 @@
     </row>
     <row r="249" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A249" s="1" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="P249" s="1"/>
       <c r="U249" s="1"/>
@@ -29960,7 +30149,7 @@
         <v>0</v>
       </c>
       <c r="C250" s="7" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="F250" s="4" t="s">
         <v>1</v>
@@ -29980,13 +30169,13 @@
     </row>
     <row r="251" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A251" s="1" t="s">
+        <v>1993</v>
+      </c>
+      <c r="B251" s="248" t="s">
         <v>1994</v>
       </c>
-      <c r="B251" s="248" t="s">
+      <c r="C251" s="248" t="s">
         <v>1995</v>
-      </c>
-      <c r="C251" s="248" t="s">
-        <v>1996</v>
       </c>
       <c r="F251" s="25"/>
       <c r="G251" s="25"/>
@@ -29999,16 +30188,16 @@
     </row>
     <row r="252" spans="1:22" ht="203" x14ac:dyDescent="0.35">
       <c r="A252" s="1" t="s">
+        <v>1996</v>
+      </c>
+      <c r="B252" s="248" t="s">
+        <v>1999</v>
+      </c>
+      <c r="C252" s="248" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D252" s="2" t="s">
         <v>1997</v>
-      </c>
-      <c r="B252" s="248" t="s">
-        <v>2000</v>
-      </c>
-      <c r="C252" s="248" t="s">
-        <v>1999</v>
-      </c>
-      <c r="D252" s="2" t="s">
-        <v>1998</v>
       </c>
       <c r="F252" s="25"/>
       <c r="G252" s="25"/>
@@ -30021,16 +30210,16 @@
     </row>
     <row r="253" spans="1:22" ht="261" x14ac:dyDescent="0.35">
       <c r="A253" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="B253" s="248" t="s">
+        <v>2004</v>
+      </c>
+      <c r="C253" s="248" t="s">
+        <v>2003</v>
+      </c>
+      <c r="D253" s="2" t="s">
         <v>2002</v>
-      </c>
-      <c r="B253" s="248" t="s">
-        <v>2005</v>
-      </c>
-      <c r="C253" s="248" t="s">
-        <v>2004</v>
-      </c>
-      <c r="D253" s="2" t="s">
-        <v>2003</v>
       </c>
       <c r="F253" s="25"/>
       <c r="G253" s="25"/>
@@ -30186,17 +30375,11 @@
       <c r="V264" s="2"/>
     </row>
     <row r="265" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A265" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="F265" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G265" s="1"/>
       <c r="H265" s="2"/>
-      <c r="K265" s="5" t="s">
-        <v>2</v>
-      </c>
       <c r="P265" s="15" t="s">
         <v>5</v>
       </c>
@@ -30263,10 +30446,10 @@
         <v>108</v>
       </c>
       <c r="G267" s="17" t="s">
+        <v>2088</v>
+      </c>
+      <c r="H267" s="130" t="s">
         <v>2090</v>
-      </c>
-      <c r="H267" s="130" t="s">
-        <v>2092</v>
       </c>
       <c r="I267" s="18" t="s">
         <v>143</v>
@@ -30301,7 +30484,7 @@
       <c r="C268" s="1"/>
       <c r="F268" s="34"/>
       <c r="H268" s="288" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="I268" s="35"/>
       <c r="K268" s="136"/>
@@ -30344,7 +30527,7 @@
         <v>171</v>
       </c>
       <c r="H269" s="273" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
       <c r="I269" s="190" t="s">
         <v>1795</v>
@@ -32934,245 +33117,146 @@
     </row>
     <row r="339" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A339" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B339" s="2" t="s">
-        <v>150</v>
+        <v>2201</v>
       </c>
       <c r="P339" s="1"/>
       <c r="U339" s="1"/>
       <c r="V339" s="2"/>
     </row>
-    <row r="340" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B340" s="1"/>
-      <c r="F340" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="G340" s="1"/>
-      <c r="H340" s="2"/>
-      <c r="K340" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="P340" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="U340" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="V340" s="2"/>
-    </row>
-    <row r="341" spans="1:25" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A341" s="192" t="s">
-        <v>160</v>
-      </c>
-      <c r="B341" s="193" t="s">
-        <v>161</v>
-      </c>
-      <c r="C341" s="130" t="s">
-        <v>2168</v>
-      </c>
-      <c r="D341" s="194" t="s">
-        <v>162</v>
-      </c>
-      <c r="F341" s="90" t="s">
-        <v>169</v>
-      </c>
-      <c r="G341" s="214" t="s">
-        <v>1872</v>
-      </c>
-      <c r="H341" s="203" t="s">
-        <v>1849</v>
-      </c>
-      <c r="I341" s="204" t="s">
-        <v>1830</v>
-      </c>
-      <c r="K341" s="91" t="s">
-        <v>151</v>
-      </c>
-      <c r="L341" s="41" t="s">
-        <v>1869</v>
-      </c>
-      <c r="M341" s="203" t="s">
-        <v>1850</v>
-      </c>
-      <c r="N341" s="194" t="s">
-        <v>152</v>
-      </c>
-      <c r="P341" s="90" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q341" s="17"/>
-      <c r="R341" s="210" t="s">
-        <v>166</v>
-      </c>
-      <c r="S341" s="194" t="s">
-        <v>167</v>
-      </c>
-      <c r="U341" s="218" t="s">
-        <v>158</v>
-      </c>
-      <c r="V341" s="58"/>
-      <c r="W341" s="219" t="s">
-        <v>164</v>
-      </c>
-      <c r="X341" s="220"/>
+    <row r="340" spans="1:25" ht="174" x14ac:dyDescent="0.35">
+      <c r="A340" s="2" t="s">
+        <v>2203</v>
+      </c>
+      <c r="C340" s="294" t="s">
+        <v>2204</v>
+      </c>
+      <c r="D340" s="294" t="s">
+        <v>2202</v>
+      </c>
+      <c r="F340" s="10"/>
+      <c r="G340" s="10"/>
+      <c r="H340" s="10"/>
+      <c r="I340" s="10"/>
+      <c r="K340" s="10"/>
+      <c r="L340" s="10"/>
+      <c r="M340" s="10"/>
+      <c r="N340" s="10"/>
+      <c r="P340" s="10"/>
+      <c r="Q340" s="10"/>
+      <c r="R340" s="10"/>
+      <c r="S340" s="10"/>
+      <c r="U340" s="10"/>
+      <c r="V340" s="10"/>
+      <c r="W340" s="10"/>
+      <c r="X340" s="10"/>
+      <c r="Y340" s="10"/>
+    </row>
+    <row r="341" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A341" s="2"/>
+      <c r="C341" s="294" t="s">
+        <v>2205</v>
+      </c>
+      <c r="D341" s="10"/>
+      <c r="F341" s="10"/>
+      <c r="G341" s="10"/>
+      <c r="H341" s="10"/>
+      <c r="I341" s="10"/>
+      <c r="K341" s="10"/>
+      <c r="L341" s="10"/>
+      <c r="M341" s="10"/>
+      <c r="N341" s="10"/>
+      <c r="P341" s="10"/>
+      <c r="Q341" s="10"/>
+      <c r="R341" s="10"/>
+      <c r="S341" s="10"/>
+      <c r="U341" s="10"/>
+      <c r="V341" s="10"/>
+      <c r="W341" s="10"/>
+      <c r="X341" s="10"/>
       <c r="Y341" s="10"/>
     </row>
-    <row r="342" spans="1:25" ht="203" x14ac:dyDescent="0.35">
-      <c r="A342" s="223" t="s">
-        <v>1875</v>
-      </c>
-      <c r="B342" s="267" t="s">
-        <v>2089</v>
-      </c>
-      <c r="C342" s="221" t="s">
-        <v>1876</v>
-      </c>
-      <c r="D342" s="71"/>
-      <c r="F342" s="91" t="s">
-        <v>165</v>
-      </c>
-      <c r="G342" s="17" t="s">
-        <v>1831</v>
-      </c>
-      <c r="H342" s="203" t="s">
-        <v>1848</v>
-      </c>
-      <c r="I342" s="194" t="s">
-        <v>168</v>
-      </c>
-      <c r="K342" s="34"/>
-      <c r="M342" s="191" t="s">
-        <v>1851</v>
-      </c>
-      <c r="N342" s="212" t="s">
-        <v>153</v>
-      </c>
-      <c r="P342" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="R342" s="74" t="s">
-        <v>159</v>
-      </c>
-      <c r="S342" s="211" t="s">
-        <v>1796</v>
-      </c>
-      <c r="U342" s="1"/>
+    <row r="342" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A342" s="2"/>
+      <c r="C342" s="10"/>
+      <c r="D342" s="10"/>
+      <c r="F342" s="10"/>
+      <c r="G342" s="10"/>
+      <c r="H342" s="10"/>
+      <c r="I342" s="10"/>
+      <c r="K342" s="10"/>
+      <c r="L342" s="10"/>
+      <c r="M342" s="10"/>
+      <c r="N342" s="10"/>
+      <c r="P342" s="10"/>
+      <c r="Q342" s="10"/>
+      <c r="R342" s="10"/>
+      <c r="S342" s="10"/>
+      <c r="U342" s="10"/>
+      <c r="V342" s="10"/>
+      <c r="W342" s="10"/>
+      <c r="X342" s="10"/>
       <c r="Y342" s="10"/>
     </row>
-    <row r="343" spans="1:25" ht="102" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A343" s="132" t="s">
-        <v>1515</v>
-      </c>
-      <c r="B343" s="73" t="s">
-        <v>207</v>
-      </c>
-      <c r="C343" s="26" t="s">
-        <v>1818</v>
-      </c>
-      <c r="D343" s="115"/>
-      <c r="F343" s="206" t="s">
-        <v>1516</v>
-      </c>
-      <c r="G343" s="205" t="s">
-        <v>207</v>
-      </c>
-      <c r="H343" s="205" t="s">
-        <v>1832</v>
-      </c>
-      <c r="I343" s="207"/>
-      <c r="K343" s="148" t="s">
-        <v>214</v>
-      </c>
-      <c r="L343" s="10" t="s">
-        <v>1852</v>
-      </c>
-      <c r="M343" s="1" t="s">
-        <v>1853</v>
-      </c>
-      <c r="N343" s="71"/>
-      <c r="P343" s="36"/>
-      <c r="Q343" s="42"/>
-      <c r="R343" s="209" t="s">
-        <v>163</v>
-      </c>
-      <c r="S343" s="68"/>
-      <c r="U343" s="1"/>
+    <row r="343" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A343" s="2"/>
+      <c r="C343" s="10"/>
+      <c r="D343" s="10"/>
+      <c r="F343" s="10"/>
+      <c r="G343" s="10"/>
+      <c r="H343" s="10"/>
+      <c r="I343" s="10"/>
+      <c r="K343" s="10"/>
+      <c r="L343" s="10"/>
+      <c r="M343" s="10"/>
+      <c r="N343" s="10"/>
+      <c r="P343" s="10"/>
+      <c r="Q343" s="10"/>
+      <c r="R343" s="10"/>
+      <c r="S343" s="10"/>
+      <c r="U343" s="10"/>
+      <c r="V343" s="10"/>
+      <c r="W343" s="10"/>
+      <c r="X343" s="10"/>
       <c r="Y343" s="10"/>
     </row>
-    <row r="344" spans="1:25" ht="29" x14ac:dyDescent="0.35">
-      <c r="A344" s="266" t="s">
-        <v>1516</v>
-      </c>
-      <c r="B344" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C344" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D344" s="71"/>
-      <c r="F344" s="200" t="s">
-        <v>1833</v>
-      </c>
-      <c r="G344" s="196" t="s">
-        <v>35</v>
-      </c>
-      <c r="H344" s="196" t="s">
-        <v>1834</v>
-      </c>
-      <c r="I344" s="201"/>
-      <c r="K344" s="148" t="s">
-        <v>964</v>
-      </c>
-      <c r="L344" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="M344" s="1" t="s">
-        <v>1854</v>
-      </c>
-      <c r="N344" s="71"/>
-      <c r="P344" s="1"/>
-      <c r="Q344" s="1"/>
-      <c r="R344" s="1"/>
-      <c r="U344" s="1"/>
+    <row r="344" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A344" s="2"/>
+      <c r="C344" s="10"/>
+      <c r="D344" s="10"/>
+      <c r="F344" s="10"/>
+      <c r="G344" s="10"/>
+      <c r="H344" s="10"/>
+      <c r="I344" s="10"/>
+      <c r="K344" s="10"/>
+      <c r="L344" s="10"/>
+      <c r="M344" s="10"/>
+      <c r="N344" s="10"/>
+      <c r="P344" s="10"/>
+      <c r="Q344" s="10"/>
+      <c r="R344" s="10"/>
+      <c r="S344" s="10"/>
+      <c r="U344" s="10"/>
+      <c r="V344" s="10"/>
+      <c r="W344" s="10"/>
+      <c r="X344" s="10"/>
       <c r="Y344" s="10"/>
     </row>
-    <row r="345" spans="1:25" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A345" s="266" t="s">
-        <v>1517</v>
-      </c>
-      <c r="B345" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C345" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D345" s="265" t="s">
-        <v>2071</v>
-      </c>
-      <c r="F345" s="198" t="s">
-        <v>1835</v>
-      </c>
-      <c r="G345" s="75" t="s">
-        <v>35</v>
-      </c>
-      <c r="H345" s="75" t="s">
-        <v>1836</v>
-      </c>
-      <c r="I345" s="199"/>
-      <c r="K345" s="148" t="s">
-        <v>1856</v>
-      </c>
-      <c r="L345" s="10" t="s">
-        <v>1855</v>
-      </c>
-      <c r="M345" s="1" t="s">
-        <v>1857</v>
-      </c>
-      <c r="N345" s="71"/>
-      <c r="P345" s="1"/>
-      <c r="Q345" s="1"/>
-      <c r="R345" s="1"/>
+    <row r="345" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A345" s="2"/>
+      <c r="C345" s="10"/>
+      <c r="D345" s="10"/>
+      <c r="F345" s="10"/>
+      <c r="G345" s="10"/>
+      <c r="H345" s="10"/>
+      <c r="I345" s="10"/>
+      <c r="K345" s="10"/>
+      <c r="L345" s="10"/>
+      <c r="M345" s="10"/>
+      <c r="N345" s="10"/>
+      <c r="P345" s="10"/>
+      <c r="Q345" s="10"/>
+      <c r="R345" s="10"/>
+      <c r="S345" s="10"/>
       <c r="U345" s="10"/>
       <c r="V345" s="10"/>
       <c r="W345" s="10"/>
@@ -33180,288 +33264,262 @@
       <c r="Y345" s="10"/>
     </row>
     <row r="346" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A346" s="198" t="s">
-        <v>1518</v>
-      </c>
-      <c r="B346" s="75" t="s">
+      <c r="A346" s="6"/>
+      <c r="B346" s="8"/>
+      <c r="C346" s="9"/>
+      <c r="D346" s="6"/>
+      <c r="F346" s="6"/>
+      <c r="G346" s="8"/>
+      <c r="H346" s="6"/>
+      <c r="I346" s="6"/>
+      <c r="K346" s="6"/>
+      <c r="L346" s="6"/>
+      <c r="M346" s="6"/>
+      <c r="N346" s="6"/>
+      <c r="P346" s="8"/>
+      <c r="Q346" s="8"/>
+      <c r="R346" s="8"/>
+      <c r="S346" s="8"/>
+      <c r="U346" s="8"/>
+    </row>
+    <row r="347" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A347" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="P347" s="1"/>
+      <c r="U347" s="1"/>
+      <c r="V347" s="2"/>
+    </row>
+    <row r="348" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B348" s="1"/>
+      <c r="F348" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G348" s="1"/>
+      <c r="H348" s="2"/>
+      <c r="K348" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="P348" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="U348" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="V348" s="2"/>
+    </row>
+    <row r="349" spans="1:25" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A349" s="192" t="s">
+        <v>160</v>
+      </c>
+      <c r="B349" s="193" t="s">
+        <v>161</v>
+      </c>
+      <c r="C349" s="130" t="s">
+        <v>2199</v>
+      </c>
+      <c r="D349" s="194" t="s">
+        <v>162</v>
+      </c>
+      <c r="F349" s="90" t="s">
+        <v>169</v>
+      </c>
+      <c r="G349" s="214" t="s">
+        <v>1872</v>
+      </c>
+      <c r="H349" s="203" t="s">
+        <v>1849</v>
+      </c>
+      <c r="I349" s="204" t="s">
+        <v>1830</v>
+      </c>
+      <c r="K349" s="91" t="s">
+        <v>151</v>
+      </c>
+      <c r="L349" s="41" t="s">
+        <v>1869</v>
+      </c>
+      <c r="M349" s="203" t="s">
+        <v>1850</v>
+      </c>
+      <c r="N349" s="194" t="s">
+        <v>152</v>
+      </c>
+      <c r="P349" s="90" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q349" s="17"/>
+      <c r="R349" s="210" t="s">
+        <v>166</v>
+      </c>
+      <c r="S349" s="194" t="s">
+        <v>167</v>
+      </c>
+      <c r="U349" s="218" t="s">
+        <v>158</v>
+      </c>
+      <c r="V349" s="58"/>
+      <c r="W349" s="219" t="s">
+        <v>164</v>
+      </c>
+      <c r="X349" s="220"/>
+      <c r="Y349" s="10"/>
+    </row>
+    <row r="350" spans="1:25" ht="203" x14ac:dyDescent="0.35">
+      <c r="A350" s="223" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B350" s="293" t="s">
+        <v>2200</v>
+      </c>
+      <c r="C350" s="221" t="s">
+        <v>1876</v>
+      </c>
+      <c r="D350" s="71"/>
+      <c r="F350" s="91" t="s">
+        <v>165</v>
+      </c>
+      <c r="G350" s="17" t="s">
+        <v>1831</v>
+      </c>
+      <c r="H350" s="203" t="s">
+        <v>1848</v>
+      </c>
+      <c r="I350" s="194" t="s">
+        <v>168</v>
+      </c>
+      <c r="K350" s="34"/>
+      <c r="M350" s="191" t="s">
+        <v>1851</v>
+      </c>
+      <c r="N350" s="212" t="s">
+        <v>153</v>
+      </c>
+      <c r="P350" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="R350" s="74" t="s">
+        <v>159</v>
+      </c>
+      <c r="S350" s="211" t="s">
+        <v>1796</v>
+      </c>
+      <c r="U350" s="1"/>
+      <c r="Y350" s="10"/>
+    </row>
+    <row r="351" spans="1:25" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A351" s="132" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B351" s="73" t="s">
+        <v>207</v>
+      </c>
+      <c r="C351" s="26" t="s">
+        <v>1818</v>
+      </c>
+      <c r="D351" s="115"/>
+      <c r="F351" s="206" t="s">
+        <v>1516</v>
+      </c>
+      <c r="G351" s="205" t="s">
+        <v>207</v>
+      </c>
+      <c r="H351" s="205" t="s">
+        <v>1832</v>
+      </c>
+      <c r="I351" s="207"/>
+      <c r="K351" s="148" t="s">
+        <v>214</v>
+      </c>
+      <c r="L351" s="10" t="s">
+        <v>1852</v>
+      </c>
+      <c r="M351" s="1" t="s">
+        <v>1853</v>
+      </c>
+      <c r="N351" s="71"/>
+      <c r="P351" s="36"/>
+      <c r="Q351" s="42"/>
+      <c r="R351" s="209" t="s">
+        <v>163</v>
+      </c>
+      <c r="S351" s="68"/>
+      <c r="U351" s="1"/>
+      <c r="Y351" s="10"/>
+    </row>
+    <row r="352" spans="1:25" ht="29" x14ac:dyDescent="0.35">
+      <c r="A352" s="266" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B352" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C346" s="72" t="s">
-        <v>1797</v>
-      </c>
-      <c r="D346" s="199"/>
-      <c r="F346" s="208" t="s">
-        <v>1837</v>
-      </c>
-      <c r="G346" s="196" t="s">
-        <v>217</v>
-      </c>
-      <c r="H346" s="196" t="s">
-        <v>1838</v>
-      </c>
-      <c r="I346" s="201"/>
-      <c r="K346" s="148" t="s">
-        <v>423</v>
-      </c>
-      <c r="L346" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="M346" s="1" t="s">
-        <v>1858</v>
-      </c>
-      <c r="N346" s="71"/>
-      <c r="P346" s="1"/>
-      <c r="Q346" s="1"/>
-      <c r="R346" s="1"/>
-      <c r="U346" s="10"/>
-      <c r="V346" s="10"/>
-      <c r="W346" s="10"/>
-      <c r="X346" s="10"/>
-      <c r="Y346" s="10"/>
-    </row>
-    <row r="347" spans="1:25" ht="29" x14ac:dyDescent="0.35">
-      <c r="A347" s="266" t="s">
-        <v>212</v>
-      </c>
-      <c r="B347" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="C347" s="2" t="s">
-        <v>1824</v>
-      </c>
-      <c r="D347" s="71"/>
-      <c r="F347" s="148" t="s">
-        <v>1839</v>
-      </c>
-      <c r="G347" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="H347" s="10" t="s">
-        <v>1840</v>
-      </c>
-      <c r="I347" s="71"/>
-      <c r="K347" s="148" t="s">
-        <v>1859</v>
-      </c>
-      <c r="L347" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="M347" s="1" t="s">
-        <v>1860</v>
-      </c>
-      <c r="N347" s="71"/>
-      <c r="P347" s="1"/>
-      <c r="Q347" s="1"/>
-      <c r="R347" s="1"/>
-      <c r="U347" s="10"/>
-      <c r="V347" s="10"/>
-      <c r="W347" s="10"/>
-      <c r="X347" s="10"/>
-      <c r="Y347" s="10"/>
-    </row>
-    <row r="348" spans="1:25" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A348" s="266" t="s">
-        <v>214</v>
-      </c>
-      <c r="B348" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="C348" s="2" t="s">
-        <v>2082</v>
-      </c>
-      <c r="D348" s="265" t="s">
-        <v>2083</v>
-      </c>
-      <c r="F348" s="148" t="s">
-        <v>1841</v>
-      </c>
-      <c r="G348" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="H348" s="10" t="s">
-        <v>1842</v>
-      </c>
-      <c r="I348" s="71"/>
-      <c r="K348" s="148" t="s">
-        <v>1861</v>
-      </c>
-      <c r="L348" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="M348" s="1" t="s">
-        <v>1862</v>
-      </c>
-      <c r="N348" s="71"/>
-      <c r="P348" s="1"/>
-      <c r="Q348" s="1"/>
-      <c r="R348" s="1"/>
-      <c r="U348" s="10"/>
-      <c r="V348" s="10"/>
-      <c r="W348" s="10"/>
-      <c r="X348" s="10"/>
-      <c r="Y348" s="10"/>
-    </row>
-    <row r="349" spans="1:25" ht="29" x14ac:dyDescent="0.35">
-      <c r="A349" s="195" t="s">
-        <v>1522</v>
-      </c>
-      <c r="B349" s="10" t="s">
+      <c r="C352" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D352" s="71"/>
+      <c r="F352" s="200" t="s">
+        <v>1833</v>
+      </c>
+      <c r="G352" s="196" t="s">
         <v>35</v>
       </c>
-      <c r="C349" s="1" t="s">
-        <v>1523</v>
-      </c>
-      <c r="D349" s="71"/>
-      <c r="F349" s="202" t="s">
-        <v>1843</v>
-      </c>
-      <c r="G349" s="75" t="s">
-        <v>224</v>
-      </c>
-      <c r="H349" s="75" t="s">
-        <v>1844</v>
-      </c>
-      <c r="I349" s="199"/>
-      <c r="K349" s="197" t="s">
-        <v>454</v>
-      </c>
-      <c r="L349" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="M349" s="1" t="s">
-        <v>1863</v>
-      </c>
-      <c r="N349" s="71"/>
-      <c r="P349" s="1"/>
-      <c r="Q349" s="1"/>
-      <c r="R349" s="1"/>
-      <c r="U349" s="10"/>
-      <c r="V349" s="10"/>
-      <c r="W349" s="10"/>
-      <c r="X349" s="10"/>
-      <c r="Y349" s="10"/>
-    </row>
-    <row r="350" spans="1:25" ht="29" x14ac:dyDescent="0.35">
-      <c r="A350" s="34" t="s">
-        <v>1827</v>
-      </c>
-      <c r="B350" s="1"/>
-      <c r="C350" s="1" t="s">
-        <v>1826</v>
-      </c>
-      <c r="D350" s="35"/>
-      <c r="F350" s="148" t="s">
-        <v>241</v>
-      </c>
-      <c r="G350" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="H350" s="10" t="s">
-        <v>1845</v>
-      </c>
-      <c r="I350" s="71"/>
-      <c r="K350" s="148" t="s">
-        <v>1864</v>
-      </c>
-      <c r="L350" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="M350" s="1" t="s">
-        <v>1865</v>
-      </c>
-      <c r="N350" s="71"/>
-      <c r="P350" s="1"/>
-      <c r="Q350" s="1"/>
-      <c r="R350" s="1"/>
-      <c r="U350" s="10"/>
-      <c r="V350" s="10"/>
-      <c r="W350" s="10"/>
-      <c r="X350" s="10"/>
-      <c r="Y350" s="10"/>
-    </row>
-    <row r="351" spans="1:25" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A351" s="148" t="s">
-        <v>1798</v>
-      </c>
-      <c r="B351" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="C351" s="1" t="s">
-        <v>1799</v>
-      </c>
-      <c r="D351" s="71"/>
-      <c r="F351" s="151" t="s">
-        <v>1846</v>
-      </c>
-      <c r="G351" s="62" t="s">
-        <v>207</v>
-      </c>
-      <c r="H351" s="62" t="s">
-        <v>1847</v>
-      </c>
-      <c r="I351" s="68"/>
-      <c r="K351" s="148" t="s">
-        <v>1866</v>
-      </c>
-      <c r="L351" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="M351" s="1" t="s">
-        <v>1867</v>
-      </c>
-      <c r="N351" s="71"/>
-      <c r="P351" s="1"/>
-      <c r="Q351" s="1"/>
-      <c r="R351" s="1"/>
-      <c r="U351" s="10"/>
-      <c r="V351" s="10"/>
-      <c r="W351" s="10"/>
-      <c r="X351" s="10"/>
-      <c r="Y351" s="10"/>
-    </row>
-    <row r="352" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A352" s="148" t="s">
-        <v>1800</v>
-      </c>
-      <c r="B352" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="C352" s="1" t="s">
-        <v>1801</v>
-      </c>
-      <c r="D352" s="71"/>
-      <c r="G352" s="1"/>
-      <c r="K352" s="67" t="s">
-        <v>1868</v>
-      </c>
-      <c r="L352" s="62" t="s">
-        <v>207</v>
-      </c>
-      <c r="M352" s="42" t="s">
-        <v>1867</v>
-      </c>
-      <c r="N352" s="68"/>
+      <c r="H352" s="196" t="s">
+        <v>1834</v>
+      </c>
+      <c r="I352" s="201"/>
+      <c r="K352" s="148" t="s">
+        <v>964</v>
+      </c>
+      <c r="L352" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M352" s="1" t="s">
+        <v>1854</v>
+      </c>
+      <c r="N352" s="71"/>
       <c r="P352" s="1"/>
       <c r="Q352" s="1"/>
       <c r="R352" s="1"/>
-      <c r="U352" s="10"/>
-      <c r="V352" s="10"/>
-      <c r="W352" s="10"/>
-      <c r="X352" s="10"/>
+      <c r="U352" s="1"/>
       <c r="Y352" s="10"/>
     </row>
-    <row r="353" spans="1:25" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:25" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A353" s="266" t="s">
-        <v>1524</v>
+        <v>1517</v>
       </c>
       <c r="B353" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="C353" s="2" t="s">
-        <v>1817</v>
-      </c>
-      <c r="D353" s="71"/>
-      <c r="G353" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D353" s="265" t="s">
+        <v>2070</v>
+      </c>
+      <c r="F353" s="198" t="s">
+        <v>1835</v>
+      </c>
+      <c r="G353" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="H353" s="75" t="s">
+        <v>1836</v>
+      </c>
+      <c r="I353" s="199"/>
+      <c r="K353" s="148" t="s">
+        <v>1856</v>
+      </c>
+      <c r="L353" s="10" t="s">
+        <v>1855</v>
+      </c>
+      <c r="M353" s="1" t="s">
+        <v>1857</v>
+      </c>
+      <c r="N353" s="71"/>
       <c r="P353" s="1"/>
       <c r="Q353" s="1"/>
       <c r="R353" s="1"/>
@@ -33471,31 +33529,37 @@
       <c r="X353" s="10"/>
       <c r="Y353" s="10"/>
     </row>
-    <row r="354" spans="1:25" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A354" s="266" t="s">
-        <v>1525</v>
-      </c>
-      <c r="B354" s="10" t="s">
+    <row r="354" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A354" s="198" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B354" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="C354" s="72" t="s">
+        <v>1797</v>
+      </c>
+      <c r="D354" s="199"/>
+      <c r="F354" s="208" t="s">
+        <v>1837</v>
+      </c>
+      <c r="G354" s="196" t="s">
+        <v>217</v>
+      </c>
+      <c r="H354" s="196" t="s">
+        <v>1838</v>
+      </c>
+      <c r="I354" s="201"/>
+      <c r="K354" s="148" t="s">
+        <v>423</v>
+      </c>
+      <c r="L354" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="C354" s="2" t="s">
-        <v>1819</v>
-      </c>
-      <c r="D354" s="265" t="s">
-        <v>2081</v>
-      </c>
-      <c r="F354" s="283" t="s">
-        <v>2174</v>
-      </c>
-      <c r="G354" s="58" t="s">
-        <v>2190</v>
-      </c>
-      <c r="H354" s="58" t="s">
-        <v>2189</v>
-      </c>
-      <c r="I354" s="56" t="s">
-        <v>2075</v>
-      </c>
+      <c r="M354" s="1" t="s">
+        <v>1858</v>
+      </c>
+      <c r="N354" s="71"/>
       <c r="P354" s="1"/>
       <c r="Q354" s="1"/>
       <c r="R354" s="1"/>
@@ -33505,20 +33569,37 @@
       <c r="X354" s="10"/>
       <c r="Y354" s="10"/>
     </row>
-    <row r="355" spans="1:25" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A355" s="266" t="s">
-        <v>430</v>
+        <v>212</v>
       </c>
       <c r="B355" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C355" s="1" t="s">
-        <v>1802</v>
-      </c>
-      <c r="D355" s="265" t="s">
-        <v>2080</v>
-      </c>
-      <c r="G355" s="17"/>
+        <v>207</v>
+      </c>
+      <c r="C355" s="2" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D355" s="71"/>
+      <c r="F355" s="148" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G355" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="H355" s="10" t="s">
+        <v>1840</v>
+      </c>
+      <c r="I355" s="71"/>
+      <c r="K355" s="148" t="s">
+        <v>1859</v>
+      </c>
+      <c r="L355" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="M355" s="1" t="s">
+        <v>1860</v>
+      </c>
+      <c r="N355" s="71"/>
       <c r="P355" s="1"/>
       <c r="Q355" s="1"/>
       <c r="R355" s="1"/>
@@ -33528,18 +33609,39 @@
       <c r="X355" s="10"/>
       <c r="Y355" s="10"/>
     </row>
-    <row r="356" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A356" s="148" t="s">
-        <v>264</v>
+    <row r="356" spans="1:25" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A356" s="266" t="s">
+        <v>214</v>
       </c>
       <c r="B356" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="C356" s="1" t="s">
-        <v>1803</v>
-      </c>
-      <c r="D356" s="71"/>
-      <c r="G356" s="1"/>
+        <v>151</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>2081</v>
+      </c>
+      <c r="D356" s="265" t="s">
+        <v>2082</v>
+      </c>
+      <c r="F356" s="148" t="s">
+        <v>1841</v>
+      </c>
+      <c r="G356" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="H356" s="10" t="s">
+        <v>1842</v>
+      </c>
+      <c r="I356" s="71"/>
+      <c r="K356" s="148" t="s">
+        <v>1861</v>
+      </c>
+      <c r="L356" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="M356" s="1" t="s">
+        <v>1862</v>
+      </c>
+      <c r="N356" s="71"/>
       <c r="P356" s="1"/>
       <c r="Q356" s="1"/>
       <c r="R356" s="1"/>
@@ -33549,188 +33651,227 @@
       <c r="X356" s="10"/>
       <c r="Y356" s="10"/>
     </row>
-    <row r="357" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A357" s="195" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
       <c r="B357" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>1523</v>
+      </c>
+      <c r="D357" s="71"/>
+      <c r="F357" s="202" t="s">
+        <v>1843</v>
+      </c>
+      <c r="G357" s="75" t="s">
         <v>224</v>
       </c>
-      <c r="C357" s="2" t="s">
-        <v>1820</v>
-      </c>
-      <c r="D357" s="71"/>
-      <c r="G357" s="1"/>
-      <c r="K357" s="10"/>
-      <c r="L357" s="10"/>
-      <c r="M357" s="10"/>
-      <c r="N357" s="10"/>
-      <c r="P357" s="10"/>
-      <c r="Q357" s="10"/>
-      <c r="R357" s="10"/>
-      <c r="S357" s="10"/>
+      <c r="H357" s="75" t="s">
+        <v>1844</v>
+      </c>
+      <c r="I357" s="199"/>
+      <c r="K357" s="197" t="s">
+        <v>454</v>
+      </c>
+      <c r="L357" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="M357" s="1" t="s">
+        <v>1863</v>
+      </c>
+      <c r="N357" s="71"/>
+      <c r="P357" s="1"/>
+      <c r="Q357" s="1"/>
+      <c r="R357" s="1"/>
       <c r="U357" s="10"/>
       <c r="V357" s="10"/>
       <c r="W357" s="10"/>
       <c r="X357" s="10"/>
       <c r="Y357" s="10"/>
     </row>
-    <row r="358" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A358" s="148" t="s">
-        <v>1804</v>
-      </c>
-      <c r="B358" s="10" t="s">
-        <v>165</v>
-      </c>
+    <row r="358" spans="1:25" ht="29" x14ac:dyDescent="0.35">
+      <c r="A358" s="34" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B358" s="1"/>
       <c r="C358" s="1" t="s">
-        <v>1805</v>
-      </c>
-      <c r="D358" s="71"/>
-      <c r="G358" s="1"/>
-      <c r="K358" s="10"/>
-      <c r="L358" s="10"/>
-      <c r="M358" s="10"/>
-      <c r="N358" s="10"/>
-      <c r="P358" s="10"/>
-      <c r="Q358" s="10"/>
-      <c r="R358" s="10"/>
-      <c r="S358" s="10"/>
+        <v>1826</v>
+      </c>
+      <c r="D358" s="35"/>
+      <c r="F358" s="148" t="s">
+        <v>241</v>
+      </c>
+      <c r="G358" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="H358" s="10" t="s">
+        <v>1845</v>
+      </c>
+      <c r="I358" s="71"/>
+      <c r="K358" s="148" t="s">
+        <v>1864</v>
+      </c>
+      <c r="L358" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="M358" s="1" t="s">
+        <v>1865</v>
+      </c>
+      <c r="N358" s="71"/>
+      <c r="P358" s="1"/>
+      <c r="Q358" s="1"/>
+      <c r="R358" s="1"/>
       <c r="U358" s="10"/>
       <c r="V358" s="10"/>
       <c r="W358" s="10"/>
       <c r="X358" s="10"/>
       <c r="Y358" s="10"/>
     </row>
-    <row r="359" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:25" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A359" s="148" t="s">
-        <v>1527</v>
+        <v>1798</v>
       </c>
       <c r="B359" s="10" t="s">
-        <v>165</v>
+        <v>207</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>1806</v>
+        <v>1799</v>
       </c>
       <c r="D359" s="71"/>
-      <c r="G359" s="1"/>
-      <c r="K359" s="10"/>
-      <c r="L359" s="10"/>
-      <c r="M359" s="10"/>
-      <c r="N359" s="10"/>
-      <c r="P359" s="10"/>
-      <c r="Q359" s="10"/>
-      <c r="R359" s="10"/>
-      <c r="S359" s="10"/>
+      <c r="F359" s="151" t="s">
+        <v>1846</v>
+      </c>
+      <c r="G359" s="62" t="s">
+        <v>207</v>
+      </c>
+      <c r="H359" s="62" t="s">
+        <v>1847</v>
+      </c>
+      <c r="I359" s="68"/>
+      <c r="K359" s="148" t="s">
+        <v>1866</v>
+      </c>
+      <c r="L359" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="M359" s="1" t="s">
+        <v>1867</v>
+      </c>
+      <c r="N359" s="71"/>
+      <c r="P359" s="1"/>
+      <c r="Q359" s="1"/>
+      <c r="R359" s="1"/>
       <c r="U359" s="10"/>
       <c r="V359" s="10"/>
       <c r="W359" s="10"/>
       <c r="X359" s="10"/>
       <c r="Y359" s="10"/>
     </row>
-    <row r="360" spans="1:25" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A360" s="269" t="s">
-        <v>1536</v>
-      </c>
-      <c r="B360" s="196" t="s">
-        <v>217</v>
-      </c>
-      <c r="C360" s="26" t="s">
-        <v>1821</v>
-      </c>
-      <c r="D360" s="268" t="s">
-        <v>2073</v>
-      </c>
+    <row r="360" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A360" s="148" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B360" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D360" s="71"/>
       <c r="G360" s="1"/>
-      <c r="K360" s="10"/>
-      <c r="L360" s="10"/>
-      <c r="M360" s="10"/>
-      <c r="N360" s="10"/>
-      <c r="P360" s="10"/>
-      <c r="Q360" s="10"/>
-      <c r="R360" s="10"/>
-      <c r="S360" s="10"/>
+      <c r="K360" s="67" t="s">
+        <v>1868</v>
+      </c>
+      <c r="L360" s="62" t="s">
+        <v>207</v>
+      </c>
+      <c r="M360" s="42" t="s">
+        <v>1867</v>
+      </c>
+      <c r="N360" s="68"/>
+      <c r="P360" s="1"/>
+      <c r="Q360" s="1"/>
+      <c r="R360" s="1"/>
       <c r="U360" s="10"/>
       <c r="V360" s="10"/>
       <c r="W360" s="10"/>
       <c r="X360" s="10"/>
       <c r="Y360" s="10"/>
     </row>
-    <row r="361" spans="1:25" ht="29" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:25" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A361" s="266" t="s">
-        <v>1537</v>
+        <v>1524</v>
       </c>
       <c r="B361" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C361" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D361" s="270" t="s">
-        <v>2072</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>1817</v>
+      </c>
+      <c r="D361" s="71"/>
       <c r="G361" s="1"/>
-      <c r="K361" s="10"/>
-      <c r="L361" s="10"/>
-      <c r="M361" s="10"/>
-      <c r="N361" s="10"/>
-      <c r="P361" s="10"/>
-      <c r="Q361" s="10"/>
-      <c r="R361" s="10"/>
-      <c r="S361" s="10"/>
+      <c r="P361" s="1"/>
+      <c r="Q361" s="1"/>
+      <c r="R361" s="1"/>
       <c r="U361" s="10"/>
       <c r="V361" s="10"/>
       <c r="W361" s="10"/>
       <c r="X361" s="10"/>
       <c r="Y361" s="10"/>
     </row>
-    <row r="362" spans="1:25" ht="145" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:25" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A362" s="266" t="s">
-        <v>1807</v>
+        <v>1525</v>
       </c>
       <c r="B362" s="10" t="s">
-        <v>35</v>
+        <v>224</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>1828</v>
+        <v>1819</v>
       </c>
       <c r="D362" s="265" t="s">
+        <v>2080</v>
+      </c>
+      <c r="F362" s="283" t="s">
+        <v>2171</v>
+      </c>
+      <c r="G362" s="58" t="s">
+        <v>2187</v>
+      </c>
+      <c r="H362" s="58" t="s">
+        <v>2186</v>
+      </c>
+      <c r="I362" s="56" t="s">
         <v>2074</v>
       </c>
-      <c r="G362" s="1"/>
-      <c r="K362" s="10"/>
-      <c r="L362" s="10"/>
-      <c r="M362" s="10"/>
-      <c r="N362" s="10"/>
-      <c r="P362" s="10"/>
-      <c r="Q362" s="10"/>
-      <c r="R362" s="10"/>
-      <c r="S362" s="10"/>
+      <c r="P362" s="1"/>
+      <c r="Q362" s="1"/>
+      <c r="R362" s="1"/>
       <c r="U362" s="10"/>
       <c r="V362" s="10"/>
       <c r="W362" s="10"/>
       <c r="X362" s="10"/>
       <c r="Y362" s="10"/>
     </row>
-    <row r="363" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A363" s="148" t="s">
-        <v>1808</v>
+    <row r="363" spans="1:25" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A363" s="266" t="s">
+        <v>430</v>
       </c>
       <c r="B363" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="D363" s="71"/>
-      <c r="G363" s="1"/>
-      <c r="K363" s="10"/>
-      <c r="L363" s="10"/>
-      <c r="M363" s="10"/>
-      <c r="N363" s="10"/>
-      <c r="P363" s="10"/>
-      <c r="Q363" s="10"/>
-      <c r="R363" s="10"/>
-      <c r="S363" s="10"/>
+        <v>1802</v>
+      </c>
+      <c r="D363" s="265" t="s">
+        <v>2079</v>
+      </c>
+      <c r="G363" s="17"/>
+      <c r="P363" s="1"/>
+      <c r="Q363" s="1"/>
+      <c r="R363" s="1"/>
       <c r="U363" s="10"/>
       <c r="V363" s="10"/>
       <c r="W363" s="10"/>
@@ -33738,40 +33879,35 @@
       <c r="Y363" s="10"/>
     </row>
     <row r="364" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A364" s="202" t="s">
-        <v>1811</v>
-      </c>
-      <c r="B364" s="75" t="s">
-        <v>1810</v>
-      </c>
-      <c r="C364" s="72" t="s">
-        <v>1812</v>
-      </c>
-      <c r="D364" s="199"/>
+      <c r="A364" s="148" t="s">
+        <v>264</v>
+      </c>
+      <c r="B364" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>1803</v>
+      </c>
+      <c r="D364" s="71"/>
       <c r="G364" s="1"/>
-      <c r="K364" s="10"/>
-      <c r="L364" s="10"/>
-      <c r="M364" s="10"/>
-      <c r="N364" s="10"/>
-      <c r="P364" s="10"/>
-      <c r="Q364" s="10"/>
-      <c r="R364" s="10"/>
-      <c r="S364" s="10"/>
+      <c r="P364" s="1"/>
+      <c r="Q364" s="1"/>
+      <c r="R364" s="1"/>
       <c r="U364" s="10"/>
       <c r="V364" s="10"/>
       <c r="W364" s="10"/>
       <c r="X364" s="10"/>
       <c r="Y364" s="10"/>
     </row>
-    <row r="365" spans="1:25" ht="29" x14ac:dyDescent="0.35">
-      <c r="A365" s="148" t="s">
-        <v>1813</v>
+    <row r="365" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A365" s="195" t="s">
+        <v>1526</v>
       </c>
       <c r="B365" s="10" t="s">
-        <v>35</v>
+        <v>224</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>1829</v>
+        <v>1820</v>
       </c>
       <c r="D365" s="71"/>
       <c r="G365" s="1"/>
@@ -33789,15 +33925,15 @@
       <c r="X365" s="10"/>
       <c r="Y365" s="10"/>
     </row>
-    <row r="366" spans="1:25" ht="29" x14ac:dyDescent="0.35">
-      <c r="A366" s="195" t="s">
-        <v>1540</v>
+    <row r="366" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A366" s="148" t="s">
+        <v>1804</v>
       </c>
       <c r="B366" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="C366" s="2" t="s">
-        <v>1822</v>
+        <v>165</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>1805</v>
       </c>
       <c r="D366" s="71"/>
       <c r="G366" s="1"/>
@@ -33816,14 +33952,14 @@
       <c r="Y366" s="10"/>
     </row>
     <row r="367" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A367" s="195" t="s">
-        <v>251</v>
+      <c r="A367" s="148" t="s">
+        <v>1527</v>
       </c>
       <c r="B367" s="10" t="s">
-        <v>224</v>
+        <v>165</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>252</v>
+        <v>1806</v>
       </c>
       <c r="D367" s="71"/>
       <c r="G367" s="1"/>
@@ -33841,17 +33977,19 @@
       <c r="X367" s="10"/>
       <c r="Y367" s="10"/>
     </row>
-    <row r="368" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A368" s="148" t="s">
-        <v>1542</v>
-      </c>
-      <c r="B368" s="10" t="s">
-        <v>1541</v>
-      </c>
-      <c r="C368" s="1" t="s">
-        <v>1543</v>
-      </c>
-      <c r="D368" s="71"/>
+    <row r="368" spans="1:25" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A368" s="269" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B368" s="196" t="s">
+        <v>217</v>
+      </c>
+      <c r="C368" s="26" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D368" s="268" t="s">
+        <v>2072</v>
+      </c>
       <c r="G368" s="1"/>
       <c r="K368" s="10"/>
       <c r="L368" s="10"/>
@@ -33867,17 +34005,19 @@
       <c r="X368" s="10"/>
       <c r="Y368" s="10"/>
     </row>
-    <row r="369" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A369" s="195" t="s">
-        <v>1815</v>
+    <row r="369" spans="1:25" ht="29" x14ac:dyDescent="0.35">
+      <c r="A369" s="266" t="s">
+        <v>1537</v>
       </c>
       <c r="B369" s="10" t="s">
-        <v>1814</v>
-      </c>
-      <c r="C369" s="2" t="s">
-        <v>1823</v>
-      </c>
-      <c r="D369" s="71"/>
+        <v>35</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D369" s="270" t="s">
+        <v>2071</v>
+      </c>
       <c r="G369" s="1"/>
       <c r="K369" s="10"/>
       <c r="L369" s="10"/>
@@ -33893,18 +34033,18 @@
       <c r="X369" s="10"/>
       <c r="Y369" s="10"/>
     </row>
-    <row r="370" spans="1:25" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:25" ht="145" x14ac:dyDescent="0.35">
       <c r="A370" s="266" t="s">
-        <v>254</v>
+        <v>1807</v>
       </c>
       <c r="B370" s="10" t="s">
-        <v>253</v>
+        <v>35</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>2078</v>
+        <v>1828</v>
       </c>
       <c r="D370" s="265" t="s">
-        <v>2076</v>
+        <v>2073</v>
       </c>
       <c r="G370" s="1"/>
       <c r="K370" s="10"/>
@@ -33921,19 +34061,17 @@
       <c r="X370" s="10"/>
       <c r="Y370" s="10"/>
     </row>
-    <row r="371" spans="1:25" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A371" s="266" t="s">
-        <v>1544</v>
+    <row r="371" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A371" s="148" t="s">
+        <v>1808</v>
       </c>
       <c r="B371" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="C371" s="2" t="s">
-        <v>2079</v>
-      </c>
-      <c r="D371" s="265" t="s">
-        <v>2077</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>1809</v>
+      </c>
+      <c r="D371" s="71"/>
       <c r="G371" s="1"/>
       <c r="K371" s="10"/>
       <c r="L371" s="10"/>
@@ -33950,14 +34088,16 @@
       <c r="Y371" s="10"/>
     </row>
     <row r="372" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A372" s="93" t="s">
-        <v>454</v>
-      </c>
-      <c r="B372" s="1"/>
-      <c r="C372" s="1" t="s">
-        <v>1825</v>
-      </c>
-      <c r="D372" s="35"/>
+      <c r="A372" s="202" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B372" s="75" t="s">
+        <v>1810</v>
+      </c>
+      <c r="C372" s="72" t="s">
+        <v>1812</v>
+      </c>
+      <c r="D372" s="199"/>
       <c r="G372" s="1"/>
       <c r="K372" s="10"/>
       <c r="L372" s="10"/>
@@ -33973,17 +34113,17 @@
       <c r="X372" s="10"/>
       <c r="Y372" s="10"/>
     </row>
-    <row r="373" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A373" s="67" t="s">
-        <v>1506</v>
-      </c>
-      <c r="B373" s="62" t="s">
-        <v>207</v>
-      </c>
-      <c r="C373" s="42" t="s">
-        <v>1816</v>
-      </c>
-      <c r="D373" s="68"/>
+    <row r="373" spans="1:25" ht="29" x14ac:dyDescent="0.35">
+      <c r="A373" s="148" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B373" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C373" s="2" t="s">
+        <v>1829</v>
+      </c>
+      <c r="D373" s="71"/>
       <c r="G373" s="1"/>
       <c r="K373" s="10"/>
       <c r="L373" s="10"/>
@@ -33999,9 +34139,17 @@
       <c r="X373" s="10"/>
       <c r="Y373" s="10"/>
     </row>
-    <row r="374" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="C374" s="10"/>
-      <c r="D374" s="10"/>
+    <row r="374" spans="1:25" ht="29" x14ac:dyDescent="0.35">
+      <c r="A374" s="195" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B374" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="C374" s="2" t="s">
+        <v>1822</v>
+      </c>
+      <c r="D374" s="71"/>
       <c r="G374" s="1"/>
       <c r="K374" s="10"/>
       <c r="L374" s="10"/>
@@ -34018,42 +34166,68 @@
       <c r="Y374" s="10"/>
     </row>
     <row r="375" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A375" s="6"/>
-      <c r="B375" s="8"/>
-      <c r="C375" s="9"/>
-      <c r="D375" s="6"/>
-      <c r="F375" s="6"/>
-      <c r="G375" s="8"/>
-      <c r="H375" s="6"/>
-      <c r="I375" s="6"/>
-      <c r="K375" s="6"/>
-      <c r="L375" s="6"/>
-      <c r="M375" s="6"/>
-      <c r="N375" s="6"/>
-      <c r="P375" s="8"/>
-      <c r="Q375" s="8"/>
-      <c r="R375" s="8"/>
-      <c r="S375" s="8"/>
-      <c r="U375" s="8"/>
+      <c r="A375" s="195" t="s">
+        <v>251</v>
+      </c>
+      <c r="B375" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D375" s="71"/>
+      <c r="G375" s="1"/>
+      <c r="K375" s="10"/>
+      <c r="L375" s="10"/>
+      <c r="M375" s="10"/>
+      <c r="N375" s="10"/>
+      <c r="P375" s="10"/>
+      <c r="Q375" s="10"/>
+      <c r="R375" s="10"/>
+      <c r="S375" s="10"/>
+      <c r="U375" s="10"/>
+      <c r="V375" s="10"/>
+      <c r="W375" s="10"/>
+      <c r="X375" s="10"/>
+      <c r="Y375" s="10"/>
     </row>
     <row r="376" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A376" s="1" t="s">
-        <v>1877</v>
-      </c>
-      <c r="P376" s="1"/>
-      <c r="U376" s="1"/>
-      <c r="V376" s="2"/>
-    </row>
-    <row r="377" spans="1:25" ht="29" x14ac:dyDescent="0.35">
-      <c r="A377" s="4" t="s">
-        <v>1878</v>
-      </c>
-      <c r="C377" s="224" t="s">
-        <v>1891</v>
-      </c>
-      <c r="D377" s="224" t="s">
-        <v>1879</v>
-      </c>
+      <c r="A376" s="148" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B376" s="10" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D376" s="71"/>
+      <c r="G376" s="1"/>
+      <c r="K376" s="10"/>
+      <c r="L376" s="10"/>
+      <c r="M376" s="10"/>
+      <c r="N376" s="10"/>
+      <c r="P376" s="10"/>
+      <c r="Q376" s="10"/>
+      <c r="R376" s="10"/>
+      <c r="S376" s="10"/>
+      <c r="U376" s="10"/>
+      <c r="V376" s="10"/>
+      <c r="W376" s="10"/>
+      <c r="X376" s="10"/>
+      <c r="Y376" s="10"/>
+    </row>
+    <row r="377" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A377" s="195" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B377" s="10" t="s">
+        <v>1814</v>
+      </c>
+      <c r="C377" s="2" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D377" s="71"/>
       <c r="G377" s="1"/>
       <c r="K377" s="10"/>
       <c r="L377" s="10"/>
@@ -34069,17 +34243,19 @@
       <c r="X377" s="10"/>
       <c r="Y377" s="10"/>
     </row>
-    <row r="378" spans="1:25" ht="58" x14ac:dyDescent="0.35">
-      <c r="A378" s="1" t="s">
-        <v>1880</v>
-      </c>
-      <c r="B378" s="2" t="s">
-        <v>1881</v>
-      </c>
-      <c r="C378" s="224" t="s">
-        <v>1890</v>
-      </c>
-      <c r="D378" s="10"/>
+    <row r="378" spans="1:25" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A378" s="266" t="s">
+        <v>254</v>
+      </c>
+      <c r="B378" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="C378" s="2" t="s">
+        <v>2077</v>
+      </c>
+      <c r="D378" s="265" t="s">
+        <v>2075</v>
+      </c>
       <c r="G378" s="1"/>
       <c r="K378" s="10"/>
       <c r="L378" s="10"/>
@@ -34095,17 +34271,19 @@
       <c r="X378" s="10"/>
       <c r="Y378" s="10"/>
     </row>
-    <row r="379" spans="1:25" ht="116" x14ac:dyDescent="0.35">
-      <c r="A379" s="1" t="s">
-        <v>1882</v>
-      </c>
-      <c r="B379" s="2" t="s">
-        <v>1883</v>
-      </c>
-      <c r="C379" s="224" t="s">
-        <v>1885</v>
-      </c>
-      <c r="D379" s="10"/>
+    <row r="379" spans="1:25" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A379" s="266" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B379" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C379" s="2" t="s">
+        <v>2078</v>
+      </c>
+      <c r="D379" s="265" t="s">
+        <v>2076</v>
+      </c>
       <c r="G379" s="1"/>
       <c r="K379" s="10"/>
       <c r="L379" s="10"/>
@@ -34121,19 +34299,15 @@
       <c r="X379" s="10"/>
       <c r="Y379" s="10"/>
     </row>
-    <row r="380" spans="1:25" ht="87" x14ac:dyDescent="0.35">
-      <c r="A380" s="1" t="s">
-        <v>1884</v>
-      </c>
-      <c r="B380" s="2" t="s">
-        <v>1886</v>
-      </c>
-      <c r="C380" s="224" t="s">
-        <v>1887</v>
-      </c>
-      <c r="D380" s="224" t="s">
-        <v>1888</v>
-      </c>
+    <row r="380" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A380" s="93" t="s">
+        <v>454</v>
+      </c>
+      <c r="B380" s="1"/>
+      <c r="C380" s="1" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D380" s="35"/>
       <c r="G380" s="1"/>
       <c r="K380" s="10"/>
       <c r="L380" s="10"/>
@@ -34149,17 +34323,17 @@
       <c r="X380" s="10"/>
       <c r="Y380" s="10"/>
     </row>
-    <row r="381" spans="1:25" ht="174" x14ac:dyDescent="0.35">
-      <c r="A381" s="2" t="s">
-        <v>2010</v>
-      </c>
-      <c r="B381" s="2" t="s">
-        <v>1889</v>
-      </c>
-      <c r="C381" s="245" t="s">
-        <v>1892</v>
-      </c>
-      <c r="D381" s="10"/>
+    <row r="381" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A381" s="67" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B381" s="62" t="s">
+        <v>207</v>
+      </c>
+      <c r="C381" s="42" t="s">
+        <v>1816</v>
+      </c>
+      <c r="D381" s="68"/>
       <c r="G381" s="1"/>
       <c r="K381" s="10"/>
       <c r="L381" s="10"/>
@@ -34176,12 +34350,7 @@
       <c r="Y381" s="10"/>
     </row>
     <row r="382" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A382" s="1" t="s">
-        <v>1966</v>
-      </c>
-      <c r="C382" s="249" t="s">
-        <v>2006</v>
-      </c>
+      <c r="C382" s="10"/>
       <c r="D382" s="10"/>
       <c r="G382" s="1"/>
       <c r="K382" s="10"/>
@@ -34198,68 +34367,44 @@
       <c r="X382" s="10"/>
       <c r="Y382" s="10"/>
     </row>
-    <row r="383" spans="1:25" ht="58" x14ac:dyDescent="0.35">
-      <c r="A383" s="1" t="s">
-        <v>1964</v>
-      </c>
-      <c r="C383" s="245" t="s">
-        <v>1965</v>
-      </c>
-      <c r="D383" s="245" t="s">
-        <v>1963</v>
-      </c>
-      <c r="G383" s="1"/>
-      <c r="K383" s="10"/>
-      <c r="L383" s="10"/>
-      <c r="M383" s="10"/>
-      <c r="N383" s="10"/>
-      <c r="P383" s="10"/>
-      <c r="Q383" s="10"/>
-      <c r="R383" s="10"/>
-      <c r="S383" s="10"/>
-      <c r="U383" s="10"/>
-      <c r="V383" s="10"/>
-      <c r="W383" s="10"/>
-      <c r="X383" s="10"/>
-      <c r="Y383" s="10"/>
-    </row>
-    <row r="384" spans="1:25" ht="116" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A383" s="6"/>
+      <c r="B383" s="8"/>
+      <c r="C383" s="9"/>
+      <c r="D383" s="6"/>
+      <c r="F383" s="6"/>
+      <c r="G383" s="8"/>
+      <c r="H383" s="6"/>
+      <c r="I383" s="6"/>
+      <c r="K383" s="6"/>
+      <c r="L383" s="6"/>
+      <c r="M383" s="6"/>
+      <c r="N383" s="6"/>
+      <c r="P383" s="8"/>
+      <c r="Q383" s="8"/>
+      <c r="R383" s="8"/>
+      <c r="S383" s="8"/>
+      <c r="U383" s="8"/>
+    </row>
+    <row r="384" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A384" s="1" t="s">
-        <v>2009</v>
-      </c>
-      <c r="C384" s="249" t="s">
-        <v>2007</v>
-      </c>
-      <c r="D384" s="249" t="s">
-        <v>2008</v>
-      </c>
-      <c r="G384" s="1"/>
-      <c r="K384" s="10"/>
-      <c r="L384" s="10"/>
-      <c r="M384" s="10"/>
-      <c r="N384" s="10"/>
-      <c r="P384" s="10"/>
-      <c r="Q384" s="10"/>
-      <c r="R384" s="10"/>
-      <c r="S384" s="10"/>
-      <c r="U384" s="10"/>
-      <c r="V384" s="10"/>
-      <c r="W384" s="10"/>
-      <c r="X384" s="10"/>
-      <c r="Y384" s="10"/>
-    </row>
-    <row r="385" spans="1:25" ht="87" x14ac:dyDescent="0.35">
-      <c r="A385" s="1" t="s">
-        <v>2011</v>
-      </c>
-      <c r="C385" s="249"/>
-      <c r="D385" s="249" t="s">
-        <v>2012</v>
-      </c>
-      <c r="F385" s="10"/>
-      <c r="G385" s="10"/>
-      <c r="H385" s="10"/>
-      <c r="I385" s="10"/>
+        <v>1877</v>
+      </c>
+      <c r="P384" s="1"/>
+      <c r="U384" s="1"/>
+      <c r="V384" s="2"/>
+    </row>
+    <row r="385" spans="1:25" ht="29" x14ac:dyDescent="0.35">
+      <c r="A385" s="4" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C385" s="224" t="s">
+        <v>1891</v>
+      </c>
+      <c r="D385" s="224" t="s">
+        <v>1879</v>
+      </c>
+      <c r="G385" s="1"/>
       <c r="K385" s="10"/>
       <c r="L385" s="10"/>
       <c r="M385" s="10"/>
@@ -34274,13 +34419,18 @@
       <c r="X385" s="10"/>
       <c r="Y385" s="10"/>
     </row>
-    <row r="386" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="C386" s="249"/>
+    <row r="386" spans="1:25" ht="58" x14ac:dyDescent="0.35">
+      <c r="A386" s="1" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B386" s="2" t="s">
+        <v>1881</v>
+      </c>
+      <c r="C386" s="224" t="s">
+        <v>1890</v>
+      </c>
       <c r="D386" s="10"/>
-      <c r="F386" s="10"/>
-      <c r="G386" s="10"/>
-      <c r="H386" s="10"/>
-      <c r="I386" s="10"/>
+      <c r="G386" s="1"/>
       <c r="K386" s="10"/>
       <c r="L386" s="10"/>
       <c r="M386" s="10"/>
@@ -34295,87 +34445,99 @@
       <c r="X386" s="10"/>
       <c r="Y386" s="10"/>
     </row>
-    <row r="387" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A387" s="6"/>
-      <c r="B387" s="8"/>
-      <c r="C387" s="9"/>
-      <c r="D387" s="6"/>
-      <c r="F387" s="6"/>
-      <c r="G387" s="8"/>
-      <c r="H387" s="6"/>
-      <c r="I387" s="6"/>
-      <c r="K387" s="6"/>
-      <c r="L387" s="6"/>
-      <c r="M387" s="6"/>
-      <c r="N387" s="6"/>
-      <c r="P387" s="8"/>
-      <c r="Q387" s="8"/>
-      <c r="R387" s="8"/>
-      <c r="S387" s="8"/>
-      <c r="U387" s="8"/>
-    </row>
-    <row r="388" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:25" ht="116" x14ac:dyDescent="0.35">
+      <c r="A387" s="1" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B387" s="2" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C387" s="224" t="s">
+        <v>1885</v>
+      </c>
+      <c r="D387" s="10"/>
+      <c r="G387" s="1"/>
+      <c r="K387" s="10"/>
+      <c r="L387" s="10"/>
+      <c r="M387" s="10"/>
+      <c r="N387" s="10"/>
+      <c r="P387" s="10"/>
+      <c r="Q387" s="10"/>
+      <c r="R387" s="10"/>
+      <c r="S387" s="10"/>
+      <c r="U387" s="10"/>
+      <c r="V387" s="10"/>
+      <c r="W387" s="10"/>
+      <c r="X387" s="10"/>
+      <c r="Y387" s="10"/>
+    </row>
+    <row r="388" spans="1:25" ht="87" x14ac:dyDescent="0.35">
       <c r="A388" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="P388" s="1"/>
-      <c r="U388" s="1"/>
-      <c r="V388" s="2"/>
-    </row>
-    <row r="389" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B389" s="1"/>
-      <c r="C389" s="1"/>
-      <c r="F389" s="4" t="s">
-        <v>156</v>
-      </c>
+        <v>1884</v>
+      </c>
+      <c r="B388" s="2" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C388" s="224" t="s">
+        <v>1887</v>
+      </c>
+      <c r="D388" s="224" t="s">
+        <v>1888</v>
+      </c>
+      <c r="G388" s="1"/>
+      <c r="K388" s="10"/>
+      <c r="L388" s="10"/>
+      <c r="M388" s="10"/>
+      <c r="N388" s="10"/>
+      <c r="P388" s="10"/>
+      <c r="Q388" s="10"/>
+      <c r="R388" s="10"/>
+      <c r="S388" s="10"/>
+      <c r="U388" s="10"/>
+      <c r="V388" s="10"/>
+      <c r="W388" s="10"/>
+      <c r="X388" s="10"/>
+      <c r="Y388" s="10"/>
+    </row>
+    <row r="389" spans="1:25" ht="174" x14ac:dyDescent="0.35">
+      <c r="A389" s="2" t="s">
+        <v>2009</v>
+      </c>
+      <c r="B389" s="2" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C389" s="245" t="s">
+        <v>1892</v>
+      </c>
+      <c r="D389" s="10"/>
       <c r="G389" s="1"/>
-      <c r="H389" s="2"/>
-      <c r="K389" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="P389" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="U389" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="V389" s="2"/>
-    </row>
-    <row r="390" spans="1:25" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A390" s="80" t="s">
-        <v>178</v>
-      </c>
-      <c r="B390" s="77"/>
-      <c r="C390" s="79" t="s">
-        <v>179</v>
-      </c>
-      <c r="D390" s="45" t="s">
-        <v>176</v>
-      </c>
-      <c r="F390" s="90" t="s">
-        <v>193</v>
-      </c>
-      <c r="G390" s="244" t="s">
-        <v>1549</v>
-      </c>
-      <c r="H390" s="79" t="s">
-        <v>191</v>
-      </c>
-      <c r="I390" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="K390" s="94" t="s">
-        <v>300</v>
-      </c>
-      <c r="L390" s="138" t="s">
-        <v>1550</v>
-      </c>
-      <c r="M390" s="79" t="s">
-        <v>302</v>
-      </c>
-      <c r="N390" s="95" t="s">
-        <v>301</v>
-      </c>
+      <c r="K389" s="10"/>
+      <c r="L389" s="10"/>
+      <c r="M389" s="10"/>
+      <c r="N389" s="10"/>
+      <c r="P389" s="10"/>
+      <c r="Q389" s="10"/>
+      <c r="R389" s="10"/>
+      <c r="S389" s="10"/>
+      <c r="U389" s="10"/>
+      <c r="V389" s="10"/>
+      <c r="W389" s="10"/>
+      <c r="X389" s="10"/>
+      <c r="Y389" s="10"/>
+    </row>
+    <row r="390" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A390" s="1" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C390" s="249" t="s">
+        <v>2005</v>
+      </c>
+      <c r="D390" s="10"/>
+      <c r="G390" s="1"/>
+      <c r="K390" s="10"/>
+      <c r="L390" s="10"/>
+      <c r="M390" s="10"/>
+      <c r="N390" s="10"/>
       <c r="P390" s="10"/>
       <c r="Q390" s="10"/>
       <c r="R390" s="10"/>
@@ -34386,2252 +34548,2442 @@
       <c r="X390" s="10"/>
       <c r="Y390" s="10"/>
     </row>
-    <row r="391" spans="1:25" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A391" s="34"/>
-      <c r="B391" s="81" t="s">
-        <v>181</v>
-      </c>
-      <c r="C391" s="81" t="s">
-        <v>180</v>
-      </c>
-      <c r="D391" s="35" t="s">
-        <v>177</v>
-      </c>
-      <c r="F391" s="34"/>
-      <c r="G391" s="81" t="s">
-        <v>316</v>
-      </c>
-      <c r="H391" s="81" t="s">
-        <v>320</v>
-      </c>
-      <c r="I391" s="35"/>
-      <c r="K391" s="96" t="s">
-        <v>312</v>
-      </c>
-      <c r="L391" s="81" t="s">
-        <v>313</v>
-      </c>
-      <c r="M391" s="81" t="s">
-        <v>321</v>
-      </c>
-      <c r="N391" s="35"/>
-    </row>
-    <row r="392" spans="1:25" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A392" s="34"/>
-      <c r="B392" s="81" t="s">
-        <v>182</v>
-      </c>
-      <c r="C392" s="81" t="s">
-        <v>186</v>
-      </c>
-      <c r="D392" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="F392" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="G392" s="81" t="s">
-        <v>194</v>
-      </c>
-      <c r="H392" s="81" t="s">
-        <v>199</v>
-      </c>
-      <c r="I392" s="35"/>
-      <c r="K392" s="34" t="s">
-        <v>303</v>
-      </c>
-      <c r="L392" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M392" s="81" t="s">
-        <v>304</v>
-      </c>
-      <c r="N392" s="35"/>
-    </row>
-    <row r="393" spans="1:25" ht="160" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A393" s="36"/>
-      <c r="B393" s="82" t="s">
-        <v>183</v>
-      </c>
-      <c r="C393" s="42"/>
-      <c r="D393" s="37" t="s">
-        <v>184</v>
-      </c>
-      <c r="F393" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="G393" s="85" t="s">
-        <v>259</v>
-      </c>
-      <c r="H393" s="81" t="s">
-        <v>205</v>
-      </c>
-      <c r="I393" s="35"/>
-      <c r="K393" s="34" t="s">
-        <v>231</v>
-      </c>
-      <c r="L393" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="M393" s="81" t="s">
-        <v>305</v>
-      </c>
-      <c r="N393" s="35"/>
-    </row>
-    <row r="394" spans="1:25" ht="116" x14ac:dyDescent="0.35">
-      <c r="B394" s="1"/>
-      <c r="C394" s="1"/>
-      <c r="F394" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="G394" s="81"/>
-      <c r="H394" s="81" t="s">
-        <v>309</v>
-      </c>
-      <c r="I394" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="K394" s="34" t="s">
-        <v>238</v>
-      </c>
-      <c r="L394" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="M394" s="81" t="s">
-        <v>315</v>
-      </c>
-      <c r="N394" s="35"/>
-    </row>
-    <row r="395" spans="1:25" ht="58" x14ac:dyDescent="0.35">
-      <c r="B395" s="1"/>
-      <c r="C395" s="1"/>
-      <c r="F395" s="19"/>
-      <c r="G395" s="81"/>
-      <c r="H395" s="81" t="s">
-        <v>310</v>
-      </c>
-      <c r="I395" s="20"/>
-      <c r="K395" s="34" t="s">
-        <v>307</v>
-      </c>
-      <c r="L395" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="M395" s="81" t="s">
-        <v>314</v>
-      </c>
-      <c r="N395" s="35"/>
-    </row>
-    <row r="396" spans="1:25" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F396" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="G396" s="82"/>
-      <c r="H396" s="82" t="s">
-        <v>198</v>
-      </c>
-      <c r="I396" s="37"/>
-      <c r="K396" s="36" t="s">
-        <v>308</v>
-      </c>
-      <c r="L396" s="42" t="s">
-        <v>224</v>
-      </c>
-      <c r="M396" s="82" t="s">
-        <v>306</v>
-      </c>
-      <c r="N396" s="37"/>
-    </row>
-    <row r="397" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:25" ht="58" x14ac:dyDescent="0.35">
+      <c r="A391" s="1" t="s">
+        <v>1963</v>
+      </c>
+      <c r="C391" s="245" t="s">
+        <v>1964</v>
+      </c>
+      <c r="D391" s="245" t="s">
+        <v>1962</v>
+      </c>
+      <c r="G391" s="1"/>
+      <c r="K391" s="10"/>
+      <c r="L391" s="10"/>
+      <c r="M391" s="10"/>
+      <c r="N391" s="10"/>
+      <c r="P391" s="10"/>
+      <c r="Q391" s="10"/>
+      <c r="R391" s="10"/>
+      <c r="S391" s="10"/>
+      <c r="U391" s="10"/>
+      <c r="V391" s="10"/>
+      <c r="W391" s="10"/>
+      <c r="X391" s="10"/>
+      <c r="Y391" s="10"/>
+    </row>
+    <row r="392" spans="1:25" ht="116" x14ac:dyDescent="0.35">
+      <c r="A392" s="1" t="s">
+        <v>2008</v>
+      </c>
+      <c r="C392" s="249" t="s">
+        <v>2006</v>
+      </c>
+      <c r="D392" s="249" t="s">
+        <v>2007</v>
+      </c>
+      <c r="G392" s="1"/>
+      <c r="K392" s="10"/>
+      <c r="L392" s="10"/>
+      <c r="M392" s="10"/>
+      <c r="N392" s="10"/>
+      <c r="P392" s="10"/>
+      <c r="Q392" s="10"/>
+      <c r="R392" s="10"/>
+      <c r="S392" s="10"/>
+      <c r="U392" s="10"/>
+      <c r="V392" s="10"/>
+      <c r="W392" s="10"/>
+      <c r="X392" s="10"/>
+      <c r="Y392" s="10"/>
+    </row>
+    <row r="393" spans="1:25" ht="87" x14ac:dyDescent="0.35">
+      <c r="A393" s="1" t="s">
+        <v>2010</v>
+      </c>
+      <c r="C393" s="249"/>
+      <c r="D393" s="249" t="s">
+        <v>2011</v>
+      </c>
+      <c r="F393" s="10"/>
+      <c r="G393" s="10"/>
+      <c r="H393" s="10"/>
+      <c r="I393" s="10"/>
+      <c r="K393" s="10"/>
+      <c r="L393" s="10"/>
+      <c r="M393" s="10"/>
+      <c r="N393" s="10"/>
+      <c r="P393" s="10"/>
+      <c r="Q393" s="10"/>
+      <c r="R393" s="10"/>
+      <c r="S393" s="10"/>
+      <c r="U393" s="10"/>
+      <c r="V393" s="10"/>
+      <c r="W393" s="10"/>
+      <c r="X393" s="10"/>
+      <c r="Y393" s="10"/>
+    </row>
+    <row r="394" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C394" s="249"/>
+      <c r="D394" s="10"/>
+      <c r="F394" s="10"/>
+      <c r="G394" s="10"/>
+      <c r="H394" s="10"/>
+      <c r="I394" s="10"/>
+      <c r="K394" s="10"/>
+      <c r="L394" s="10"/>
+      <c r="M394" s="10"/>
+      <c r="N394" s="10"/>
+      <c r="P394" s="10"/>
+      <c r="Q394" s="10"/>
+      <c r="R394" s="10"/>
+      <c r="S394" s="10"/>
+      <c r="U394" s="10"/>
+      <c r="V394" s="10"/>
+      <c r="W394" s="10"/>
+      <c r="X394" s="10"/>
+      <c r="Y394" s="10"/>
+    </row>
+    <row r="395" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A395" s="6"/>
+      <c r="B395" s="8"/>
+      <c r="C395" s="9"/>
+      <c r="D395" s="6"/>
+      <c r="F395" s="6"/>
+      <c r="G395" s="8"/>
+      <c r="H395" s="6"/>
+      <c r="I395" s="6"/>
+      <c r="K395" s="6"/>
+      <c r="L395" s="6"/>
+      <c r="M395" s="6"/>
+      <c r="N395" s="6"/>
+      <c r="P395" s="8"/>
+      <c r="Q395" s="8"/>
+      <c r="R395" s="8"/>
+      <c r="S395" s="8"/>
+      <c r="U395" s="8"/>
+    </row>
+    <row r="396" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A396" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P396" s="1"/>
+      <c r="U396" s="1"/>
+      <c r="V396" s="2"/>
+    </row>
+    <row r="397" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
-    </row>
-    <row r="398" spans="1:25" ht="93.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C398" s="267"/>
-    </row>
-    <row r="399" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="400" spans="1:25" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A400" s="91" t="s">
+      <c r="F397" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G397" s="1"/>
+      <c r="H397" s="2"/>
+      <c r="K397" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="P397" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="U397" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="V397" s="2"/>
+    </row>
+    <row r="398" spans="1:25" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A398" s="80" t="s">
+        <v>178</v>
+      </c>
+      <c r="B398" s="77"/>
+      <c r="C398" s="79" t="s">
+        <v>179</v>
+      </c>
+      <c r="D398" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="F398" s="90" t="s">
+        <v>193</v>
+      </c>
+      <c r="G398" s="244" t="s">
+        <v>1549</v>
+      </c>
+      <c r="H398" s="79" t="s">
+        <v>191</v>
+      </c>
+      <c r="I398" s="45" t="s">
+        <v>190</v>
+      </c>
+      <c r="K398" s="94" t="s">
+        <v>300</v>
+      </c>
+      <c r="L398" s="138" t="s">
+        <v>1550</v>
+      </c>
+      <c r="M398" s="79" t="s">
+        <v>302</v>
+      </c>
+      <c r="N398" s="95" t="s">
+        <v>301</v>
+      </c>
+      <c r="P398" s="10"/>
+      <c r="Q398" s="10"/>
+      <c r="R398" s="10"/>
+      <c r="S398" s="10"/>
+      <c r="U398" s="10"/>
+      <c r="V398" s="10"/>
+      <c r="W398" s="10"/>
+      <c r="X398" s="10"/>
+      <c r="Y398" s="10"/>
+    </row>
+    <row r="399" spans="1:25" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A399" s="34"/>
+      <c r="B399" s="81" t="s">
+        <v>181</v>
+      </c>
+      <c r="C399" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="D399" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="F399" s="34"/>
+      <c r="G399" s="81" t="s">
+        <v>316</v>
+      </c>
+      <c r="H399" s="81" t="s">
+        <v>320</v>
+      </c>
+      <c r="I399" s="35"/>
+      <c r="K399" s="96" t="s">
+        <v>312</v>
+      </c>
+      <c r="L399" s="81" t="s">
+        <v>313</v>
+      </c>
+      <c r="M399" s="81" t="s">
+        <v>321</v>
+      </c>
+      <c r="N399" s="35"/>
+    </row>
+    <row r="400" spans="1:25" ht="116" x14ac:dyDescent="0.35">
+      <c r="A400" s="34"/>
+      <c r="B400" s="81" t="s">
+        <v>182</v>
+      </c>
+      <c r="C400" s="81" t="s">
+        <v>186</v>
+      </c>
+      <c r="D400" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="F400" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="G400" s="81" t="s">
+        <v>194</v>
+      </c>
+      <c r="H400" s="81" t="s">
+        <v>199</v>
+      </c>
+      <c r="I400" s="35"/>
+      <c r="K400" s="34" t="s">
+        <v>303</v>
+      </c>
+      <c r="L400" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M400" s="81" t="s">
+        <v>304</v>
+      </c>
+      <c r="N400" s="35"/>
+    </row>
+    <row r="401" spans="1:14" ht="160" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A401" s="36"/>
+      <c r="B401" s="82" t="s">
+        <v>183</v>
+      </c>
+      <c r="C401" s="42"/>
+      <c r="D401" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="F401" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="G401" s="85" t="s">
+        <v>259</v>
+      </c>
+      <c r="H401" s="81" t="s">
+        <v>205</v>
+      </c>
+      <c r="I401" s="35"/>
+      <c r="K401" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="L401" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="M401" s="81" t="s">
+        <v>305</v>
+      </c>
+      <c r="N401" s="35"/>
+    </row>
+    <row r="402" spans="1:14" ht="116" x14ac:dyDescent="0.35">
+      <c r="B402" s="1"/>
+      <c r="C402" s="1"/>
+      <c r="F402" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="G402" s="81"/>
+      <c r="H402" s="81" t="s">
+        <v>309</v>
+      </c>
+      <c r="I402" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="K402" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="L402" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="M402" s="81" t="s">
+        <v>315</v>
+      </c>
+      <c r="N402" s="35"/>
+    </row>
+    <row r="403" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+      <c r="B403" s="1"/>
+      <c r="C403" s="1"/>
+      <c r="F403" s="19"/>
+      <c r="G403" s="81"/>
+      <c r="H403" s="81" t="s">
+        <v>310</v>
+      </c>
+      <c r="I403" s="20"/>
+      <c r="K403" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="L403" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="M403" s="81" t="s">
+        <v>314</v>
+      </c>
+      <c r="N403" s="35"/>
+    </row>
+    <row r="404" spans="1:14" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F404" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="G404" s="82"/>
+      <c r="H404" s="82" t="s">
+        <v>198</v>
+      </c>
+      <c r="I404" s="37"/>
+      <c r="K404" s="36" t="s">
+        <v>308</v>
+      </c>
+      <c r="L404" s="42" t="s">
+        <v>224</v>
+      </c>
+      <c r="M404" s="82" t="s">
+        <v>306</v>
+      </c>
+      <c r="N404" s="37"/>
+    </row>
+    <row r="405" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B405" s="1"/>
+      <c r="C405" s="1"/>
+    </row>
+    <row r="406" spans="1:14" ht="93.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C406" s="267"/>
+    </row>
+    <row r="407" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="408" spans="1:14" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A408" s="91" t="s">
         <v>175</v>
       </c>
-      <c r="B400" s="272" t="s">
+      <c r="B408" s="272" t="s">
+        <v>2086</v>
+      </c>
+      <c r="C408" s="272" t="s">
+        <v>192</v>
+      </c>
+      <c r="D408" s="18" t="s">
         <v>2087</v>
       </c>
-      <c r="C400" s="272" t="s">
-        <v>192</v>
-      </c>
-      <c r="D400" s="18" t="s">
-        <v>2088</v>
-      </c>
-      <c r="F400" s="90" t="s">
+      <c r="F408" s="90" t="s">
         <v>195</v>
       </c>
-      <c r="G400" s="79" t="s">
+      <c r="G408" s="79" t="s">
         <v>269</v>
       </c>
-      <c r="H400" s="79" t="s">
+      <c r="H408" s="79" t="s">
         <v>299</v>
       </c>
-      <c r="I400" s="45" t="s">
+      <c r="I408" s="45" t="s">
         <v>196</v>
       </c>
-      <c r="K400" s="90" t="s">
+      <c r="K408" s="90" t="s">
         <v>270</v>
       </c>
-      <c r="L400" s="17" t="s">
+      <c r="L408" s="17" t="s">
         <v>1551</v>
       </c>
-      <c r="M400" s="86" t="s">
+      <c r="M408" s="86" t="s">
         <v>318</v>
       </c>
-      <c r="N400" s="45" t="s">
+      <c r="N408" s="45" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="401" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A401" s="19" t="s">
+    <row r="409" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A409" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="B401" s="135" t="s">
+      <c r="B409" s="135" t="s">
         <v>1514</v>
       </c>
-      <c r="C401" s="225" t="s">
-        <v>1936</v>
-      </c>
-      <c r="D401" s="35"/>
-      <c r="F401" s="19"/>
-      <c r="G401" s="222" t="s">
+      <c r="C409" s="225" t="s">
+        <v>1935</v>
+      </c>
+      <c r="D409" s="35"/>
+      <c r="F409" s="19"/>
+      <c r="G409" s="222" t="s">
         <v>319</v>
       </c>
-      <c r="H401" s="81" t="s">
+      <c r="H409" s="81" t="s">
         <v>317</v>
       </c>
-      <c r="I401" s="20" t="s">
+      <c r="I409" s="20" t="s">
         <v>322</v>
       </c>
-      <c r="K401" s="242" t="s">
+      <c r="K409" s="242" t="s">
         <v>1516</v>
       </c>
-      <c r="L401" s="87" t="s">
+      <c r="L409" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="M401" s="87" t="s">
+      <c r="M409" s="87" t="s">
         <v>272</v>
       </c>
-      <c r="N401" s="35"/>
-    </row>
-    <row r="402" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A402" s="267"/>
-      <c r="B402" s="81" t="s">
+      <c r="N409" s="35"/>
+    </row>
+    <row r="410" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A410" s="267"/>
+      <c r="B410" s="81" t="s">
         <v>187</v>
       </c>
-      <c r="C402" s="81" t="s">
+      <c r="C410" s="81" t="s">
         <v>311</v>
       </c>
-      <c r="D402" s="35" t="s">
+      <c r="D410" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="F402" s="34" t="s">
+      <c r="F410" s="34" t="s">
         <v>258</v>
       </c>
-      <c r="G402" s="2" t="s">
+      <c r="G410" s="2" t="s">
         <v>1545</v>
       </c>
-      <c r="H402" s="81" t="s">
+      <c r="H410" s="81" t="s">
         <v>297</v>
       </c>
-      <c r="I402" s="35"/>
-      <c r="K402" s="243" t="s">
+      <c r="I410" s="35"/>
+      <c r="K410" s="243" t="s">
         <v>1518</v>
       </c>
-      <c r="L402" s="85" t="s">
+      <c r="L410" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="M402" s="87" t="s">
+      <c r="M410" s="87" t="s">
         <v>1552</v>
       </c>
-      <c r="N402" s="35"/>
-    </row>
-    <row r="403" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A403" s="174" t="s">
+      <c r="N410" s="35"/>
+    </row>
+    <row r="411" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A411" s="174" t="s">
         <v>1515</v>
       </c>
-      <c r="B403" s="175" t="s">
+      <c r="B411" s="175" t="s">
         <v>207</v>
       </c>
-      <c r="C403" s="152" t="s">
+      <c r="C411" s="152" t="s">
         <v>208</v>
       </c>
-      <c r="D403" s="153"/>
-      <c r="F403" s="34"/>
-      <c r="H403" s="81" t="s">
+      <c r="D411" s="153"/>
+      <c r="F411" s="34"/>
+      <c r="H411" s="81" t="s">
         <v>298</v>
       </c>
-      <c r="I403" s="35"/>
-      <c r="K403" s="242" t="s">
+      <c r="I411" s="35"/>
+      <c r="K411" s="242" t="s">
         <v>1519</v>
       </c>
-      <c r="L403" s="85" t="s">
+      <c r="L411" s="85" t="s">
         <v>207</v>
       </c>
-      <c r="M403" s="87" t="s">
+      <c r="M411" s="87" t="s">
         <v>1553</v>
       </c>
-      <c r="N403" s="35"/>
-    </row>
-    <row r="404" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A404" s="176" t="s">
+      <c r="N411" s="35"/>
+    </row>
+    <row r="412" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A412" s="176" t="s">
         <v>1516</v>
       </c>
-      <c r="B404" s="177" t="s">
+      <c r="B412" s="177" t="s">
         <v>35</v>
       </c>
-      <c r="C404" s="154" t="s">
+      <c r="C412" s="154" t="s">
         <v>206</v>
       </c>
-      <c r="D404" s="155"/>
-      <c r="F404" s="34"/>
-      <c r="G404" s="1"/>
-      <c r="H404" s="81" t="s">
+      <c r="D412" s="155"/>
+      <c r="F412" s="34"/>
+      <c r="G412" s="1"/>
+      <c r="H412" s="81" t="s">
         <v>295</v>
       </c>
-      <c r="I404" s="35"/>
-      <c r="K404" s="243" t="s">
+      <c r="I412" s="35"/>
+      <c r="K412" s="243" t="s">
         <v>1520</v>
       </c>
-      <c r="L404" s="85" t="s">
+      <c r="L412" s="85" t="s">
         <v>207</v>
       </c>
-      <c r="M404" s="87" t="s">
+      <c r="M412" s="87" t="s">
         <v>1554</v>
       </c>
-      <c r="N404" s="35"/>
-    </row>
-    <row r="405" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A405" s="176" t="s">
+      <c r="N412" s="35"/>
+    </row>
+    <row r="413" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A413" s="176" t="s">
         <v>1517</v>
       </c>
-      <c r="B405" s="177" t="s">
+      <c r="B413" s="177" t="s">
         <v>35</v>
       </c>
-      <c r="C405" s="154" t="s">
+      <c r="C413" s="154" t="s">
         <v>210</v>
       </c>
-      <c r="D405" s="155"/>
-      <c r="F405" s="34" t="s">
+      <c r="D413" s="155"/>
+      <c r="F413" s="34" t="s">
         <v>1874</v>
       </c>
-      <c r="H405" s="81" t="s">
+      <c r="H413" s="81" t="s">
         <v>296</v>
       </c>
-      <c r="I405" s="35"/>
-      <c r="K405" s="88" t="s">
+      <c r="I413" s="35"/>
+      <c r="K413" s="88" t="s">
         <v>1522</v>
       </c>
-      <c r="L405" s="85" t="s">
+      <c r="L413" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="M405" s="87" t="s">
+      <c r="M413" s="87" t="s">
         <v>273</v>
       </c>
-      <c r="N405" s="35"/>
-    </row>
-    <row r="406" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A406" s="176" t="s">
+      <c r="N413" s="35"/>
+    </row>
+    <row r="414" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A414" s="176" t="s">
         <v>1518</v>
       </c>
-      <c r="B406" s="177" t="s">
+      <c r="B414" s="177" t="s">
         <v>35</v>
       </c>
-      <c r="C406" s="154" t="s">
+      <c r="C414" s="154" t="s">
         <v>209</v>
       </c>
-      <c r="D406" s="155"/>
-      <c r="F406" s="34" t="s">
+      <c r="D414" s="155"/>
+      <c r="F414" s="34" t="s">
         <v>1516</v>
       </c>
-      <c r="G406" s="1" t="s">
+      <c r="G414" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H406" s="1" t="s">
+      <c r="H414" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="I406" s="35"/>
-      <c r="K406" s="34" t="s">
+      <c r="I414" s="35"/>
+      <c r="K414" s="34" t="s">
         <v>215</v>
       </c>
-      <c r="L406" s="2" t="s">
+      <c r="L414" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="M406" s="87" t="s">
+      <c r="M414" s="87" t="s">
         <v>216</v>
       </c>
-      <c r="N406" s="35"/>
-    </row>
-    <row r="407" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A407" s="176" t="s">
+      <c r="N414" s="35"/>
+    </row>
+    <row r="415" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A415" s="176" t="s">
         <v>1519</v>
       </c>
-      <c r="B407" s="177" t="s">
+      <c r="B415" s="177" t="s">
         <v>207</v>
       </c>
-      <c r="C407" s="154" t="s">
+      <c r="C415" s="154" t="s">
         <v>211</v>
       </c>
-      <c r="D407" s="155"/>
-      <c r="F407" s="34" t="s">
+      <c r="D415" s="155"/>
+      <c r="F415" s="34" t="s">
         <v>212</v>
       </c>
-      <c r="G407" s="1" t="s">
+      <c r="G415" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H407" s="1" t="s">
+      <c r="H415" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="I407" s="35"/>
-      <c r="K407" s="54" t="s">
+      <c r="I415" s="35"/>
+      <c r="K415" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="L407" s="1" t="s">
+      <c r="L415" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="M407" s="87" t="s">
+      <c r="M415" s="87" t="s">
         <v>275</v>
       </c>
-      <c r="N407" s="35"/>
-    </row>
-    <row r="408" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A408" s="178" t="s">
+      <c r="N415" s="35"/>
+    </row>
+    <row r="416" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A416" s="178" t="s">
         <v>1520</v>
       </c>
-      <c r="B408" s="179" t="s">
+      <c r="B416" s="179" t="s">
         <v>207</v>
       </c>
-      <c r="C408" s="156" t="s">
+      <c r="C416" s="156" t="s">
         <v>206</v>
       </c>
-      <c r="D408" s="157"/>
-      <c r="F408" s="34" t="s">
+      <c r="D416" s="157"/>
+      <c r="F416" s="34" t="s">
         <v>262</v>
       </c>
-      <c r="G408" s="1" t="s">
+      <c r="G416" s="1" t="s">
         <v>1546</v>
       </c>
-      <c r="H408" s="1" t="s">
+      <c r="H416" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="I408" s="35"/>
-      <c r="K408" s="54" t="s">
+      <c r="I416" s="35"/>
+      <c r="K416" s="54" t="s">
         <v>220</v>
-      </c>
-      <c r="L408" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="M408" s="87" t="s">
-        <v>276</v>
-      </c>
-      <c r="N408" s="35"/>
-    </row>
-    <row r="409" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A409" s="83" t="s">
-        <v>212</v>
-      </c>
-      <c r="B409" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C409" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D409" s="35"/>
-      <c r="F409" s="34" t="s">
-        <v>1522</v>
-      </c>
-      <c r="G409" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H409" s="1" t="s">
-        <v>1547</v>
-      </c>
-      <c r="I409" s="35"/>
-      <c r="K409" s="54" t="s">
-        <v>222</v>
-      </c>
-      <c r="L409" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="M409" s="87" t="s">
-        <v>277</v>
-      </c>
-      <c r="N409" s="35"/>
-    </row>
-    <row r="410" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A410" s="83" t="s">
-        <v>214</v>
-      </c>
-      <c r="B410" t="s">
-        <v>151</v>
-      </c>
-      <c r="C410" s="1" t="s">
-        <v>1521</v>
-      </c>
-      <c r="D410" s="35"/>
-      <c r="F410" s="34" t="s">
-        <v>264</v>
-      </c>
-      <c r="G410" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="H410" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="I410" s="35"/>
-      <c r="K410" s="34" t="s">
-        <v>264</v>
-      </c>
-      <c r="L410" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="M410" s="87" t="s">
-        <v>278</v>
-      </c>
-      <c r="N410" s="35"/>
-    </row>
-    <row r="411" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A411" s="52" t="s">
-        <v>1522</v>
-      </c>
-      <c r="B411" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C411" s="1" t="s">
-        <v>1523</v>
-      </c>
-      <c r="D411" s="35"/>
-      <c r="F411" s="34" t="s">
-        <v>1528</v>
-      </c>
-      <c r="G411" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H411" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="I411" s="35"/>
-      <c r="K411" s="241" t="s">
-        <v>1528</v>
-      </c>
-      <c r="L411" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M411" s="87" t="s">
-        <v>279</v>
-      </c>
-      <c r="N411" s="35"/>
-    </row>
-    <row r="412" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A412" s="83" t="s">
-        <v>215</v>
-      </c>
-      <c r="B412" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C412" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D412" s="35"/>
-      <c r="F412" s="34" t="s">
-        <v>1537</v>
-      </c>
-      <c r="G412" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H412" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I412" s="35"/>
-      <c r="K412" s="241" t="s">
-        <v>1529</v>
-      </c>
-      <c r="L412" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M412" s="87" t="s">
-        <v>280</v>
-      </c>
-      <c r="N412" s="35"/>
-    </row>
-    <row r="413" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A413" s="84" t="s">
-        <v>200</v>
-      </c>
-      <c r="B413" t="s">
-        <v>217</v>
-      </c>
-      <c r="C413" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D413" s="35"/>
-      <c r="F413" s="34" t="s">
-        <v>1542</v>
-      </c>
-      <c r="G413" s="1" t="s">
-        <v>1541</v>
-      </c>
-      <c r="H413" s="1" t="s">
-        <v>1548</v>
-      </c>
-      <c r="I413" s="35"/>
-      <c r="K413" s="241" t="s">
-        <v>1530</v>
-      </c>
-      <c r="L413" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M413" s="87" t="s">
-        <v>281</v>
-      </c>
-      <c r="N413" s="35"/>
-    </row>
-    <row r="414" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A414" s="84" t="s">
-        <v>1524</v>
-      </c>
-      <c r="B414" t="s">
-        <v>217</v>
-      </c>
-      <c r="C414" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D414" s="35"/>
-      <c r="F414" s="34" t="s">
-        <v>254</v>
-      </c>
-      <c r="G414" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="H414" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="I414" s="35"/>
-      <c r="K414" s="54" t="s">
-        <v>231</v>
-      </c>
-      <c r="L414" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="M414" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="N414" s="35"/>
-    </row>
-    <row r="415" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A415" s="83" t="s">
-        <v>220</v>
-      </c>
-      <c r="B415" t="s">
-        <v>217</v>
-      </c>
-      <c r="C415" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D415" s="35"/>
-      <c r="F415" s="36" t="s">
-        <v>1544</v>
-      </c>
-      <c r="G415" s="42" t="s">
-        <v>256</v>
-      </c>
-      <c r="H415" s="42" t="s">
-        <v>268</v>
-      </c>
-      <c r="I415" s="37"/>
-      <c r="K415" s="54" t="s">
-        <v>232</v>
-      </c>
-      <c r="L415" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="M415" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="N415" s="35"/>
-    </row>
-    <row r="416" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A416" s="83" t="s">
-        <v>222</v>
-      </c>
-      <c r="B416" t="s">
-        <v>217</v>
-      </c>
-      <c r="C416" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D416" s="35"/>
-      <c r="K416" s="54" t="s">
-        <v>233</v>
       </c>
       <c r="L416" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="M416" s="1" t="s">
-        <v>284</v>
+      <c r="M416" s="87" t="s">
+        <v>276</v>
       </c>
       <c r="N416" s="35"/>
     </row>
     <row r="417" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A417" s="19" t="s">
-        <v>1525</v>
+      <c r="A417" s="83" t="s">
+        <v>212</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="D417" s="35"/>
-      <c r="G417" s="1"/>
-      <c r="H417" s="81"/>
-      <c r="K417" s="93" t="s">
-        <v>234</v>
+      <c r="F417" s="34" t="s">
+        <v>1522</v>
+      </c>
+      <c r="G417" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H417" s="1" t="s">
+        <v>1547</v>
+      </c>
+      <c r="I417" s="35"/>
+      <c r="K417" s="54" t="s">
+        <v>222</v>
       </c>
       <c r="L417" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="M417" s="1" t="s">
-        <v>285</v>
+      <c r="M417" s="87" t="s">
+        <v>277</v>
       </c>
       <c r="N417" s="35"/>
     </row>
     <row r="418" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A418" s="19" t="s">
-        <v>1526</v>
-      </c>
-      <c r="B418" s="2" t="s">
-        <v>224</v>
+      <c r="A418" s="83" t="s">
+        <v>214</v>
+      </c>
+      <c r="B418" t="s">
+        <v>151</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>226</v>
+        <v>1521</v>
       </c>
       <c r="D418" s="35"/>
-      <c r="G418" s="1"/>
-      <c r="H418" s="81"/>
-      <c r="K418" s="93" t="s">
-        <v>236</v>
+      <c r="F418" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="G418" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="H418" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="I418" s="35"/>
+      <c r="K418" s="34" t="s">
+        <v>264</v>
       </c>
       <c r="L418" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="M418" s="87" t="s">
+        <v>278</v>
+      </c>
+      <c r="N418" s="35"/>
+    </row>
+    <row r="419" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A419" s="52" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B419" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>1523</v>
+      </c>
+      <c r="D419" s="35"/>
+      <c r="F419" s="34" t="s">
+        <v>1528</v>
+      </c>
+      <c r="G419" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H419" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="I419" s="35"/>
+      <c r="K419" s="241" t="s">
+        <v>1528</v>
+      </c>
+      <c r="L419" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M419" s="87" t="s">
+        <v>279</v>
+      </c>
+      <c r="N419" s="35"/>
+    </row>
+    <row r="420" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A420" s="83" t="s">
+        <v>215</v>
+      </c>
+      <c r="B420" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D420" s="35"/>
+      <c r="F420" s="34" t="s">
+        <v>1537</v>
+      </c>
+      <c r="G420" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H420" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I420" s="35"/>
+      <c r="K420" s="241" t="s">
+        <v>1529</v>
+      </c>
+      <c r="L420" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M420" s="87" t="s">
+        <v>280</v>
+      </c>
+      <c r="N420" s="35"/>
+    </row>
+    <row r="421" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A421" s="84" t="s">
+        <v>200</v>
+      </c>
+      <c r="B421" t="s">
         <v>217</v>
       </c>
-      <c r="M418" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="N418" s="35"/>
-    </row>
-    <row r="419" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A419" s="83" t="s">
-        <v>1527</v>
-      </c>
-      <c r="B419" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C419" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D419" s="35"/>
-      <c r="K419" s="93" t="s">
-        <v>237</v>
-      </c>
-      <c r="L419" s="2" t="s">
+      <c r="C421" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D421" s="35"/>
+      <c r="F421" s="34" t="s">
+        <v>1542</v>
+      </c>
+      <c r="G421" s="1" t="s">
+        <v>1541</v>
+      </c>
+      <c r="H421" s="1" t="s">
+        <v>1548</v>
+      </c>
+      <c r="I421" s="35"/>
+      <c r="K421" s="241" t="s">
+        <v>1530</v>
+      </c>
+      <c r="L421" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M421" s="87" t="s">
+        <v>281</v>
+      </c>
+      <c r="N421" s="35"/>
+    </row>
+    <row r="422" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A422" s="84" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B422" t="s">
         <v>217</v>
       </c>
-      <c r="M419" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="N419" s="35"/>
-    </row>
-    <row r="420" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A420" s="174" t="s">
-        <v>1528</v>
-      </c>
-      <c r="B420" s="175" t="s">
-        <v>35</v>
-      </c>
-      <c r="C420" s="152" t="s">
-        <v>228</v>
-      </c>
-      <c r="D420" s="153"/>
-      <c r="K420" s="54" t="s">
-        <v>238</v>
-      </c>
-      <c r="L420" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="M420" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="N420" s="35"/>
-    </row>
-    <row r="421" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A421" s="176" t="s">
-        <v>1529</v>
-      </c>
-      <c r="B421" s="177" t="s">
-        <v>35</v>
-      </c>
-      <c r="C421" s="154" t="s">
-        <v>229</v>
-      </c>
-      <c r="D421" s="155"/>
-      <c r="K421" s="54" t="s">
-        <v>1535</v>
-      </c>
-      <c r="L421" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="M421" s="1" t="s">
-        <v>1555</v>
-      </c>
-      <c r="N421" s="35"/>
-    </row>
-    <row r="422" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A422" s="178" t="s">
-        <v>1530</v>
-      </c>
-      <c r="B422" s="179" t="s">
-        <v>35</v>
-      </c>
-      <c r="C422" s="156" t="s">
-        <v>230</v>
-      </c>
-      <c r="D422" s="157"/>
-      <c r="K422" s="93" t="s">
-        <v>241</v>
+      <c r="C422" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D422" s="35"/>
+      <c r="F422" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="G422" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H422" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="I422" s="35"/>
+      <c r="K422" s="54" t="s">
+        <v>231</v>
       </c>
       <c r="L422" s="2" t="s">
         <v>217</v>
       </c>
       <c r="M422" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="N422" s="35"/>
     </row>
-    <row r="423" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A423" s="84" t="s">
-        <v>231</v>
+    <row r="423" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A423" s="83" t="s">
+        <v>220</v>
       </c>
       <c r="B423" t="s">
         <v>217</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D423" s="35"/>
-      <c r="K423" s="34" t="s">
-        <v>1537</v>
+      <c r="F423" s="36" t="s">
+        <v>1544</v>
+      </c>
+      <c r="G423" s="42" t="s">
+        <v>256</v>
+      </c>
+      <c r="H423" s="42" t="s">
+        <v>268</v>
+      </c>
+      <c r="I423" s="37"/>
+      <c r="K423" s="54" t="s">
+        <v>232</v>
       </c>
       <c r="L423" s="2" t="s">
-        <v>35</v>
+        <v>217</v>
       </c>
       <c r="M423" s="1" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="N423" s="35"/>
     </row>
     <row r="424" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A424" s="84" t="s">
-        <v>232</v>
+      <c r="A424" s="83" t="s">
+        <v>222</v>
       </c>
       <c r="B424" t="s">
         <v>217</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>1531</v>
+        <v>223</v>
       </c>
       <c r="D424" s="35"/>
-      <c r="K424" s="93" t="s">
-        <v>244</v>
+      <c r="K424" s="54" t="s">
+        <v>233</v>
       </c>
       <c r="L424" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="M424" s="87" t="s">
-        <v>291</v>
+      <c r="M424" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="N424" s="35"/>
     </row>
-    <row r="425" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A425" s="84" t="s">
-        <v>233</v>
-      </c>
-      <c r="B425" t="s">
+    <row r="425" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A425" s="19" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B425" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C425" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D425" s="35"/>
+      <c r="G425" s="1"/>
+      <c r="H425" s="81"/>
+      <c r="K425" s="93" t="s">
+        <v>234</v>
+      </c>
+      <c r="L425" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C425" s="1" t="s">
-        <v>1532</v>
-      </c>
-      <c r="D425" s="35"/>
-      <c r="K425" s="93" t="s">
-        <v>1538</v>
-      </c>
-      <c r="L425" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M425" s="87" t="s">
-        <v>290</v>
+      <c r="M425" s="1" t="s">
+        <v>285</v>
       </c>
       <c r="N425" s="35"/>
     </row>
-    <row r="426" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A426" s="182" t="s">
-        <v>234</v>
-      </c>
-      <c r="B426" s="180" t="s">
-        <v>217</v>
-      </c>
-      <c r="C426" s="73" t="s">
-        <v>235</v>
-      </c>
-      <c r="D426" s="142"/>
+    <row r="426" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A426" s="19" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B426" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C426" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D426" s="35"/>
+      <c r="G426" s="1"/>
+      <c r="H426" s="81"/>
       <c r="K426" s="93" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="L426" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="M426" s="87" t="s">
-        <v>292</v>
+      <c r="M426" s="1" t="s">
+        <v>286</v>
       </c>
       <c r="N426" s="35"/>
     </row>
     <row r="427" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A427" s="183" t="s">
-        <v>236</v>
-      </c>
-      <c r="B427" t="s">
+      <c r="A427" s="83" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B427" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C427" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D427" s="35"/>
+      <c r="K427" s="93" t="s">
+        <v>237</v>
+      </c>
+      <c r="L427" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C427" s="1" t="s">
-        <v>1533</v>
-      </c>
-      <c r="D427" s="143"/>
-      <c r="K427" s="93" t="s">
-        <v>1539</v>
-      </c>
-      <c r="L427" s="2" t="s">
+      <c r="M427" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="N427" s="35"/>
+    </row>
+    <row r="428" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A428" s="174" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B428" s="175" t="s">
         <v>35</v>
       </c>
-      <c r="M427" s="87" t="s">
-        <v>293</v>
-      </c>
-      <c r="N427" s="35"/>
-    </row>
-    <row r="428" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A428" s="184" t="s">
-        <v>237</v>
-      </c>
-      <c r="B428" s="181" t="s">
+      <c r="C428" s="152" t="s">
+        <v>228</v>
+      </c>
+      <c r="D428" s="153"/>
+      <c r="K428" s="54" t="s">
+        <v>238</v>
+      </c>
+      <c r="L428" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C428" s="72" t="s">
-        <v>1534</v>
-      </c>
-      <c r="D428" s="144"/>
-      <c r="K428" s="36" t="s">
-        <v>251</v>
-      </c>
-      <c r="L428" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="M428" s="89" t="s">
-        <v>294</v>
-      </c>
-      <c r="N428" s="37"/>
+      <c r="M428" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="N428" s="35"/>
     </row>
     <row r="429" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A429" s="83" t="s">
-        <v>238</v>
-      </c>
-      <c r="B429" t="s">
+      <c r="A429" s="176" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B429" s="177" t="s">
+        <v>35</v>
+      </c>
+      <c r="C429" s="154" t="s">
+        <v>229</v>
+      </c>
+      <c r="D429" s="155"/>
+      <c r="K429" s="54" t="s">
+        <v>1535</v>
+      </c>
+      <c r="L429" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="M429" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="N429" s="35"/>
+    </row>
+    <row r="430" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A430" s="178" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B430" s="179" t="s">
+        <v>35</v>
+      </c>
+      <c r="C430" s="156" t="s">
+        <v>230</v>
+      </c>
+      <c r="D430" s="157"/>
+      <c r="K430" s="93" t="s">
+        <v>241</v>
+      </c>
+      <c r="L430" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C429" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D429" s="35"/>
-    </row>
-    <row r="430" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A430" s="185" t="s">
-        <v>1535</v>
-      </c>
-      <c r="B430" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C430" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D430" s="35"/>
+      <c r="M430" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="N430" s="35"/>
     </row>
     <row r="431" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A431" s="182" t="s">
-        <v>241</v>
-      </c>
-      <c r="B431" s="180" t="s">
+      <c r="A431" s="84" t="s">
+        <v>231</v>
+      </c>
+      <c r="B431" t="s">
         <v>217</v>
       </c>
-      <c r="C431" s="73" t="s">
-        <v>235</v>
-      </c>
-      <c r="D431" s="142"/>
+      <c r="C431" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D431" s="35"/>
+      <c r="K431" s="34" t="s">
+        <v>1537</v>
+      </c>
+      <c r="L431" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M431" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="N431" s="35"/>
     </row>
     <row r="432" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A432" s="183" t="s">
-        <v>1536</v>
+      <c r="A432" s="84" t="s">
+        <v>232</v>
       </c>
       <c r="B432" t="s">
         <v>217</v>
       </c>
       <c r="C432" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D432" s="35"/>
+      <c r="K432" s="93" t="s">
+        <v>244</v>
+      </c>
+      <c r="L432" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="M432" s="87" t="s">
+        <v>291</v>
+      </c>
+      <c r="N432" s="35"/>
+    </row>
+    <row r="433" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A433" s="84" t="s">
+        <v>233</v>
+      </c>
+      <c r="B433" t="s">
+        <v>217</v>
+      </c>
+      <c r="C433" s="1" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D433" s="35"/>
+      <c r="K433" s="93" t="s">
+        <v>1538</v>
+      </c>
+      <c r="L433" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M433" s="87" t="s">
+        <v>290</v>
+      </c>
+      <c r="N433" s="35"/>
+    </row>
+    <row r="434" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A434" s="182" t="s">
+        <v>234</v>
+      </c>
+      <c r="B434" s="180" t="s">
+        <v>217</v>
+      </c>
+      <c r="C434" s="73" t="s">
+        <v>235</v>
+      </c>
+      <c r="D434" s="142"/>
+      <c r="K434" s="93" t="s">
+        <v>247</v>
+      </c>
+      <c r="L434" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="M434" s="87" t="s">
+        <v>292</v>
+      </c>
+      <c r="N434" s="35"/>
+    </row>
+    <row r="435" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A435" s="183" t="s">
+        <v>236</v>
+      </c>
+      <c r="B435" t="s">
+        <v>217</v>
+      </c>
+      <c r="C435" s="1" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D435" s="143"/>
+      <c r="K435" s="93" t="s">
+        <v>1539</v>
+      </c>
+      <c r="L435" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M435" s="87" t="s">
+        <v>293</v>
+      </c>
+      <c r="N435" s="35"/>
+    </row>
+    <row r="436" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A436" s="184" t="s">
+        <v>237</v>
+      </c>
+      <c r="B436" s="181" t="s">
+        <v>217</v>
+      </c>
+      <c r="C436" s="72" t="s">
+        <v>1534</v>
+      </c>
+      <c r="D436" s="144"/>
+      <c r="K436" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="L436" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="M436" s="89" t="s">
+        <v>294</v>
+      </c>
+      <c r="N436" s="37"/>
+    </row>
+    <row r="437" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A437" s="83" t="s">
+        <v>238</v>
+      </c>
+      <c r="B437" t="s">
+        <v>217</v>
+      </c>
+      <c r="C437" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D437" s="35"/>
+    </row>
+    <row r="438" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A438" s="185" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B438" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C438" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D438" s="35"/>
+    </row>
+    <row r="439" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A439" s="182" t="s">
+        <v>241</v>
+      </c>
+      <c r="B439" s="180" t="s">
+        <v>217</v>
+      </c>
+      <c r="C439" s="73" t="s">
+        <v>235</v>
+      </c>
+      <c r="D439" s="142"/>
+    </row>
+    <row r="440" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A440" s="183" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B440" t="s">
+        <v>217</v>
+      </c>
+      <c r="C440" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D432" s="143"/>
-    </row>
-    <row r="433" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A433" s="186" t="s">
+      <c r="D440" s="143"/>
+    </row>
+    <row r="441" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A441" s="186" t="s">
         <v>1537</v>
       </c>
-      <c r="B433" s="2" t="s">
+      <c r="B441" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C433" s="1" t="s">
+      <c r="C441" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D433" s="143"/>
-    </row>
-    <row r="434" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A434" s="183" t="s">
+      <c r="D441" s="143"/>
+    </row>
+    <row r="442" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A442" s="183" t="s">
         <v>244</v>
       </c>
-      <c r="B434" t="s">
+      <c r="B442" t="s">
         <v>217</v>
       </c>
-      <c r="C434" s="1" t="s">
+      <c r="C442" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D434" s="143"/>
-    </row>
-    <row r="435" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A435" s="186" t="s">
+      <c r="D442" s="143"/>
+    </row>
+    <row r="443" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A443" s="186" t="s">
         <v>1538</v>
       </c>
-      <c r="B435" s="2" t="s">
+      <c r="B443" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C435" s="1" t="s">
+      <c r="C443" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D435" s="143"/>
-    </row>
-    <row r="436" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A436" s="183" t="s">
+      <c r="D443" s="143"/>
+    </row>
+    <row r="444" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A444" s="183" t="s">
         <v>247</v>
       </c>
-      <c r="B436" t="s">
+      <c r="B444" t="s">
         <v>217</v>
       </c>
-      <c r="C436" s="1" t="s">
+      <c r="C444" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D436" s="143"/>
-    </row>
-    <row r="437" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A437" s="187" t="s">
+      <c r="D444" s="143"/>
+    </row>
+    <row r="445" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A445" s="187" t="s">
         <v>1539</v>
       </c>
-      <c r="B437" s="28" t="s">
+      <c r="B445" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C437" s="72" t="s">
+      <c r="C445" s="72" t="s">
         <v>249</v>
       </c>
-      <c r="D437" s="144"/>
-    </row>
-    <row r="438" spans="1:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A438" s="19" t="s">
+      <c r="D445" s="144"/>
+    </row>
+    <row r="446" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A446" s="19" t="s">
         <v>1540</v>
       </c>
-      <c r="B438" t="s">
+      <c r="B446" t="s">
         <v>217</v>
       </c>
-      <c r="C438" s="1" t="s">
+      <c r="C446" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D438" s="35"/>
-    </row>
-    <row r="439" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A439" s="84" t="s">
+      <c r="D446" s="35"/>
+    </row>
+    <row r="447" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A447" s="84" t="s">
         <v>251</v>
       </c>
-      <c r="B439" s="2" t="s">
+      <c r="B447" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C439" s="1" t="s">
+      <c r="C447" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D439" s="35"/>
-    </row>
-    <row r="440" spans="1:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A440" s="83" t="s">
+      <c r="D447" s="35"/>
+    </row>
+    <row r="448" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A448" s="83" t="s">
         <v>1542</v>
       </c>
-      <c r="B440" t="s">
+      <c r="B448" t="s">
         <v>1541</v>
       </c>
-      <c r="C440" s="1" t="s">
+      <c r="C448" s="1" t="s">
         <v>1543</v>
       </c>
-      <c r="D440" s="35"/>
-    </row>
-    <row r="441" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A441" s="113" t="s">
+      <c r="D448" s="35"/>
+    </row>
+    <row r="449" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A449" s="113" t="s">
         <v>254</v>
       </c>
-      <c r="B441" s="2" t="s">
+      <c r="B449" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C441" s="87" t="s">
+      <c r="C449" s="87" t="s">
         <v>255</v>
       </c>
-      <c r="D441" s="35"/>
-    </row>
-    <row r="442" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A442" s="111" t="s">
+      <c r="D449" s="35"/>
+    </row>
+    <row r="450" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A450" s="111" t="s">
         <v>1544</v>
       </c>
-      <c r="B442" s="42" t="s">
+      <c r="B450" s="42" t="s">
         <v>256</v>
       </c>
-      <c r="C442" s="42" t="s">
+      <c r="C450" s="42" t="s">
         <v>257</v>
       </c>
-      <c r="D442" s="37"/>
-    </row>
-    <row r="446" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A446" s="6"/>
-      <c r="B446" s="8"/>
-      <c r="C446" s="9"/>
-      <c r="D446" s="6"/>
-      <c r="F446" s="6"/>
-      <c r="G446" s="8"/>
-      <c r="H446" s="6"/>
-      <c r="I446" s="6"/>
-      <c r="K446" s="6"/>
-      <c r="L446" s="6"/>
-      <c r="M446" s="6"/>
-      <c r="N446" s="6"/>
-      <c r="P446" s="8"/>
-      <c r="Q446" s="8"/>
-      <c r="R446" s="8"/>
-      <c r="S446" s="8"/>
-      <c r="U446" s="8"/>
-    </row>
-    <row r="447" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A447" s="1" t="s">
+      <c r="D450" s="37"/>
+    </row>
+    <row r="454" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A454" s="6"/>
+      <c r="B454" s="8"/>
+      <c r="C454" s="9"/>
+      <c r="D454" s="6"/>
+      <c r="F454" s="6"/>
+      <c r="G454" s="8"/>
+      <c r="H454" s="6"/>
+      <c r="I454" s="6"/>
+      <c r="K454" s="6"/>
+      <c r="L454" s="6"/>
+      <c r="M454" s="6"/>
+      <c r="N454" s="6"/>
+      <c r="P454" s="8"/>
+      <c r="Q454" s="8"/>
+      <c r="R454" s="8"/>
+      <c r="S454" s="8"/>
+      <c r="U454" s="8"/>
+    </row>
+    <row r="455" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A455" s="1" t="s">
         <v>1893</v>
       </c>
-      <c r="P447" s="1"/>
-      <c r="U447" s="1"/>
-      <c r="V447" s="2"/>
-    </row>
-    <row r="448" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A448" s="226" t="s">
+      <c r="P455" s="1"/>
+      <c r="U455" s="1"/>
+      <c r="V455" s="2"/>
+    </row>
+    <row r="456" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A456" s="226" t="s">
         <v>1931</v>
       </c>
-      <c r="B448" s="7"/>
-      <c r="F448" s="4" t="s">
+      <c r="B456" s="7"/>
+      <c r="F456" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="G448" s="1"/>
-      <c r="H448" s="2"/>
-      <c r="K448" s="5" t="s">
+      <c r="G456" s="1"/>
+      <c r="H456" s="2"/>
+      <c r="K456" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="P448" s="15" t="s">
+      <c r="P456" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="U448" s="6" t="s">
+      <c r="U456" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="V448" s="2"/>
-    </row>
-    <row r="449" spans="1:14" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A449" s="233" t="s">
+      <c r="V456" s="2"/>
+    </row>
+    <row r="457" spans="1:22" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A457" s="233" t="s">
         <v>1932</v>
       </c>
-      <c r="B449" s="234"/>
-      <c r="C449" s="235" t="s">
+      <c r="B457" s="234"/>
+      <c r="C457" s="235" t="s">
         <v>1933</v>
       </c>
-      <c r="D449" s="236"/>
-      <c r="F449" s="239" t="s">
+      <c r="D457" s="236"/>
+      <c r="F457" s="239" t="s">
+        <v>1952</v>
+      </c>
+      <c r="G457" s="240" t="s">
         <v>1953</v>
       </c>
-      <c r="G449" s="240" t="s">
+      <c r="H457" s="30" t="s">
+        <v>1958</v>
+      </c>
+      <c r="I457" s="2" t="s">
         <v>1954</v>
       </c>
-      <c r="H449" s="30" t="s">
-        <v>1959</v>
-      </c>
-      <c r="I449" s="2" t="s">
+      <c r="K457" s="247" t="s">
+        <v>2166</v>
+      </c>
+      <c r="L457" s="277" t="s">
+        <v>1957</v>
+      </c>
+      <c r="M457" s="2" t="s">
         <v>1955</v>
       </c>
-      <c r="K449" s="247" t="s">
-        <v>2169</v>
-      </c>
-      <c r="L449" s="277" t="s">
-        <v>1958</v>
-      </c>
-      <c r="M449" s="2" t="s">
+      <c r="N457" s="2" t="s">
         <v>1956</v>
       </c>
-      <c r="N449" s="2" t="s">
-        <v>1957</v>
-      </c>
-    </row>
-    <row r="450" spans="1:14" ht="116" x14ac:dyDescent="0.35">
-      <c r="A450" s="230" t="s">
+    </row>
+    <row r="458" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+      <c r="A458" s="230" t="s">
         <v>1894</v>
       </c>
-      <c r="B450" s="227" t="s">
-        <v>1937</v>
-      </c>
-      <c r="C450" s="227" t="s">
+      <c r="B458" s="227" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C458" s="227" t="s">
         <v>1934</v>
       </c>
-      <c r="D450" s="45"/>
-      <c r="F450"/>
-      <c r="H450"/>
-      <c r="I450" s="2"/>
-    </row>
-    <row r="451" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A451" s="231"/>
-      <c r="B451" s="225"/>
-      <c r="C451" s="225" t="s">
-        <v>1935</v>
-      </c>
-      <c r="D451" s="35"/>
-      <c r="F451"/>
-      <c r="G451"/>
-      <c r="H451"/>
-    </row>
-    <row r="452" spans="1:14" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A452" s="34"/>
-      <c r="B452" s="2" t="s">
+      <c r="D458" s="45"/>
+      <c r="F458"/>
+      <c r="H458"/>
+      <c r="I458" s="2"/>
+    </row>
+    <row r="459" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A459" s="231"/>
+      <c r="B459" s="225"/>
+      <c r="C459" s="295" t="s">
+        <v>2206</v>
+      </c>
+      <c r="D459" s="35"/>
+      <c r="F459"/>
+      <c r="G459"/>
+      <c r="H459"/>
+    </row>
+    <row r="460" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A460" s="34"/>
+      <c r="B460" s="2" t="s">
         <v>1895</v>
       </c>
-      <c r="C452" s="225" t="s">
+      <c r="C460" s="225" t="s">
         <v>1896</v>
       </c>
-      <c r="D452" s="35"/>
-    </row>
-    <row r="453" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A453" s="34" t="s">
+      <c r="D460" s="35"/>
+    </row>
+    <row r="461" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A461" s="34" t="s">
         <v>212</v>
       </c>
-      <c r="B453" s="2" t="s">
+      <c r="B461" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C453" s="7" t="s">
+      <c r="C461" s="7" t="s">
         <v>1897</v>
       </c>
-      <c r="D453" s="35"/>
-    </row>
-    <row r="454" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A454" s="34" t="s">
+      <c r="D461" s="35"/>
+    </row>
+    <row r="462" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A462" s="34" t="s">
         <v>214</v>
       </c>
-      <c r="B454" s="2" t="s">
+      <c r="B462" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C454" s="7" t="s">
+      <c r="C462" s="7" t="s">
         <v>1898</v>
       </c>
-      <c r="D454" s="35"/>
-    </row>
-    <row r="455" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A455" s="34" t="s">
+      <c r="D462" s="35"/>
+    </row>
+    <row r="463" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A463" s="34" t="s">
         <v>1900</v>
       </c>
-      <c r="B455" s="2" t="s">
+      <c r="B463" s="2" t="s">
         <v>1899</v>
       </c>
-      <c r="C455" s="7" t="s">
+      <c r="C463" s="7" t="s">
         <v>1901</v>
       </c>
-      <c r="D455" s="35"/>
-    </row>
-    <row r="456" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A456" s="34" t="s">
+      <c r="D463" s="35"/>
+    </row>
+    <row r="464" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A464" s="34" t="s">
         <v>1902</v>
-      </c>
-      <c r="B456" s="2" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C456" s="7" t="s">
-        <v>1903</v>
-      </c>
-      <c r="D456" s="35"/>
-    </row>
-    <row r="457" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A457" s="34" t="s">
-        <v>1904</v>
-      </c>
-      <c r="B457" s="2" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C457" s="7" t="s">
-        <v>1905</v>
-      </c>
-      <c r="D457" s="35"/>
-    </row>
-    <row r="458" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A458" s="34" t="s">
-        <v>1906</v>
-      </c>
-      <c r="B458" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C458" s="7" t="s">
-        <v>1907</v>
-      </c>
-      <c r="D458" s="35"/>
-    </row>
-    <row r="459" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A459" s="34" t="s">
-        <v>1908</v>
-      </c>
-      <c r="B459" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C459" s="7" t="s">
-        <v>1909</v>
-      </c>
-      <c r="D459" s="35"/>
-    </row>
-    <row r="460" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A460" s="34" t="s">
-        <v>1911</v>
-      </c>
-      <c r="B460" s="2" t="s">
-        <v>1910</v>
-      </c>
-      <c r="C460" s="7" t="s">
-        <v>1912</v>
-      </c>
-      <c r="D460" s="35"/>
-    </row>
-    <row r="461" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A461" s="34" t="s">
-        <v>1913</v>
-      </c>
-      <c r="B461" s="2" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C461" s="7" t="s">
-        <v>1914</v>
-      </c>
-      <c r="D461" s="35"/>
-    </row>
-    <row r="462" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A462" s="34" t="s">
-        <v>430</v>
-      </c>
-      <c r="B462" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C462" s="7" t="s">
-        <v>1915</v>
-      </c>
-      <c r="D462" s="35"/>
-    </row>
-    <row r="463" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A463" s="34" t="s">
-        <v>1917</v>
-      </c>
-      <c r="B463" s="2" t="s">
-        <v>1916</v>
-      </c>
-      <c r="C463" s="7" t="s">
-        <v>1918</v>
-      </c>
-      <c r="D463" s="35"/>
-    </row>
-    <row r="464" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A464" s="34" t="s">
-        <v>1919</v>
       </c>
       <c r="B464" s="2" t="s">
         <v>1899</v>
       </c>
       <c r="C464" s="7" t="s">
-        <v>1920</v>
+        <v>1903</v>
       </c>
       <c r="D464" s="35"/>
     </row>
     <row r="465" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A465" s="232" t="s">
-        <v>1921</v>
+      <c r="A465" s="34" t="s">
+        <v>1904</v>
       </c>
       <c r="B465" s="2" t="s">
         <v>1899</v>
       </c>
       <c r="C465" s="7" t="s">
-        <v>1922</v>
-      </c>
-      <c r="D465" s="20" t="s">
-        <v>1938</v>
-      </c>
+        <v>1905</v>
+      </c>
+      <c r="D465" s="35"/>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A466" s="34" t="s">
-        <v>1923</v>
+        <v>1906</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>207</v>
+        <v>35</v>
       </c>
       <c r="C466" s="7" t="s">
-        <v>1924</v>
+        <v>1907</v>
       </c>
       <c r="D466" s="35"/>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A467" s="34" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B467" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C467" s="7" t="s">
+        <v>1909</v>
+      </c>
+      <c r="D467" s="35"/>
+    </row>
+    <row r="468" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A468" s="34" t="s">
+        <v>1911</v>
+      </c>
+      <c r="B468" s="2" t="s">
+        <v>1910</v>
+      </c>
+      <c r="C468" s="7" t="s">
+        <v>1912</v>
+      </c>
+      <c r="D468" s="20" t="s">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A469" s="34" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B469" s="2" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C469" s="7" t="s">
+        <v>1914</v>
+      </c>
+      <c r="D469" s="35"/>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A470" s="34" t="s">
+        <v>430</v>
+      </c>
+      <c r="B470" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C470" s="7" t="s">
+        <v>1915</v>
+      </c>
+      <c r="D470" s="35"/>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A471" s="34" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B471" s="2" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C471" s="7" t="s">
+        <v>1918</v>
+      </c>
+      <c r="D471" s="35"/>
+    </row>
+    <row r="472" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A472" s="34" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B472" s="2" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C472" s="7" t="s">
+        <v>1920</v>
+      </c>
+      <c r="D472" s="35"/>
+    </row>
+    <row r="473" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A473" s="232" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B473" s="2" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C473" s="7" t="s">
+        <v>1922</v>
+      </c>
+      <c r="D473" s="20" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A474" s="34" t="s">
+        <v>1923</v>
+      </c>
+      <c r="B474" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C474" s="7" t="s">
+        <v>1924</v>
+      </c>
+      <c r="D474" s="35"/>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A475" s="34" t="s">
         <v>1925</v>
       </c>
-      <c r="B467" s="2" t="s">
+      <c r="B475" s="2" t="s">
         <v>1899</v>
       </c>
-      <c r="C467" s="7" t="s">
+      <c r="C475" s="7" t="s">
         <v>1926</v>
       </c>
-      <c r="D467" s="35"/>
-    </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A468" s="34" t="s">
+      <c r="D475" s="35"/>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A476" s="34" t="s">
         <v>251</v>
       </c>
-      <c r="B468" s="2" t="s">
+      <c r="B476" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C468" s="7" t="s">
+      <c r="C476" s="7" t="s">
         <v>1927</v>
       </c>
-      <c r="D468" s="35"/>
-    </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A469" s="34" t="s">
+      <c r="D476" s="35"/>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A477" s="34" t="s">
         <v>1929</v>
       </c>
-      <c r="B469" s="2" t="s">
+      <c r="B477" s="2" t="s">
         <v>1928</v>
       </c>
-      <c r="C469" s="7" t="s">
+      <c r="C477" s="7" t="s">
         <v>1930</v>
       </c>
-      <c r="D469" s="35"/>
-    </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A470" s="237" t="s">
+      <c r="D477" s="35"/>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A478" s="237" t="s">
+        <v>1939</v>
+      </c>
+      <c r="B478" s="26"/>
+      <c r="C478" s="229" t="s">
+        <v>1938</v>
+      </c>
+      <c r="D478" s="115"/>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A479" s="232" t="s">
         <v>1940</v>
       </c>
-      <c r="B470" s="26"/>
-      <c r="C470" s="229" t="s">
-        <v>1939</v>
-      </c>
-      <c r="D470" s="115"/>
-    </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A471" s="232" t="s">
+      <c r="C479" s="225" t="s">
         <v>1941</v>
       </c>
-      <c r="C471" s="225" t="s">
+      <c r="D479" s="35"/>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A480" s="232" t="s">
         <v>1942</v>
       </c>
-      <c r="D471" s="35"/>
-    </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A472" s="232" t="s">
+      <c r="C480" s="225" t="s">
         <v>1943</v>
       </c>
-      <c r="C472" s="225" t="s">
+      <c r="D480" s="35"/>
+    </row>
+    <row r="481" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A481" s="232" t="s">
         <v>1944</v>
       </c>
-      <c r="D472" s="35"/>
-    </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A473" s="232" t="s">
+      <c r="C481" s="225" t="s">
         <v>1945</v>
       </c>
-      <c r="C473" s="225" t="s">
+      <c r="D481" s="35"/>
+    </row>
+    <row r="482" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A482" s="232" t="s">
         <v>1946</v>
       </c>
-      <c r="D473" s="35"/>
-    </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A474" s="232" t="s">
+      <c r="C482" s="225" t="s">
         <v>1947</v>
       </c>
-      <c r="C474" s="225" t="s">
+      <c r="D482" s="35"/>
+    </row>
+    <row r="483" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A483" s="232" t="s">
         <v>1948</v>
       </c>
-      <c r="D474" s="35"/>
-    </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A475" s="232" t="s">
+      <c r="C483" s="225" t="s">
         <v>1949</v>
       </c>
-      <c r="C475" s="225" t="s">
+      <c r="D483" s="35"/>
+    </row>
+    <row r="484" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A484" s="232" t="s">
+        <v>1917</v>
+      </c>
+      <c r="C484" s="225" t="s">
         <v>1950</v>
       </c>
-      <c r="D475" s="35"/>
-    </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A476" s="232" t="s">
-        <v>1917</v>
-      </c>
-      <c r="C476" s="225" t="s">
+      <c r="D484" s="35"/>
+    </row>
+    <row r="485" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A485" s="238" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B485" s="22"/>
+      <c r="C485" s="228" t="s">
         <v>1951</v>
       </c>
-      <c r="D476" s="35"/>
-    </row>
-    <row r="477" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A477" s="238" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B477" s="22"/>
-      <c r="C477" s="228" t="s">
-        <v>1952</v>
-      </c>
-      <c r="D477" s="37"/>
-    </row>
-    <row r="483" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A483" s="1" t="s">
+      <c r="D485" s="37"/>
+    </row>
+    <row r="491" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A491" s="1" t="s">
+        <v>1959</v>
+      </c>
+      <c r="D491" s="1" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="492" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A492" s="1" t="s">
         <v>1960</v>
       </c>
-      <c r="D483" s="1" t="s">
-        <v>1962</v>
-      </c>
-    </row>
-    <row r="484" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A484" s="1" t="s">
-        <v>1961</v>
-      </c>
-    </row>
-    <row r="488" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A488" s="6"/>
-      <c r="B488" s="8"/>
-      <c r="C488" s="9"/>
-      <c r="D488" s="6"/>
-      <c r="F488" s="6"/>
-      <c r="G488" s="8"/>
-      <c r="H488" s="6"/>
-      <c r="I488" s="6"/>
-      <c r="K488" s="6"/>
-      <c r="L488" s="6"/>
-      <c r="M488" s="6"/>
-      <c r="N488" s="6"/>
-      <c r="P488" s="8"/>
-      <c r="Q488" s="8"/>
-      <c r="R488" s="8"/>
-      <c r="S488" s="8"/>
-      <c r="U488" s="8"/>
-    </row>
-    <row r="489" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A489" s="1" t="s">
+    </row>
+    <row r="496" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A496" s="6"/>
+      <c r="B496" s="8"/>
+      <c r="C496" s="9"/>
+      <c r="D496" s="6"/>
+      <c r="F496" s="6"/>
+      <c r="G496" s="8"/>
+      <c r="H496" s="6"/>
+      <c r="I496" s="6"/>
+      <c r="K496" s="6"/>
+      <c r="L496" s="6"/>
+      <c r="M496" s="6"/>
+      <c r="N496" s="6"/>
+      <c r="P496" s="8"/>
+      <c r="Q496" s="8"/>
+      <c r="R496" s="8"/>
+      <c r="S496" s="8"/>
+      <c r="U496" s="8"/>
+    </row>
+    <row r="497" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A497" s="1" t="s">
+        <v>2150</v>
+      </c>
+      <c r="P497" s="1"/>
+      <c r="U497" s="1"/>
+      <c r="V497" s="2"/>
+    </row>
+    <row r="498" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A498" s="226" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B498" s="7"/>
+      <c r="F498" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G498" s="1"/>
+      <c r="H498" s="2"/>
+      <c r="K498" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="P498" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="U498" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="V498" s="2"/>
+    </row>
+    <row r="499" spans="1:22" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A499" s="1" t="s">
+        <v>1966</v>
+      </c>
+      <c r="B499" s="2" t="s">
+        <v>2105</v>
+      </c>
+      <c r="C499" s="287" t="s">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="500" spans="1:22" ht="174" x14ac:dyDescent="0.35">
+      <c r="A500" s="91" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B500" s="275" t="s">
+        <v>1968</v>
+      </c>
+      <c r="C500" s="274" t="s">
+        <v>1970</v>
+      </c>
+      <c r="D500" s="18" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="501" spans="1:22" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A501" s="34"/>
+      <c r="C501" s="246" t="s">
+        <v>1971</v>
+      </c>
+      <c r="D501" s="20" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="502" spans="1:22" ht="174" x14ac:dyDescent="0.35">
+      <c r="A502" s="34"/>
+      <c r="C502" s="246" t="s">
+        <v>1972</v>
+      </c>
+      <c r="D502" s="20" t="s">
+        <v>1973</v>
+      </c>
+      <c r="F502" s="90" t="s">
+        <v>1975</v>
+      </c>
+      <c r="G502" s="275" t="s">
+        <v>1976</v>
+      </c>
+      <c r="H502" s="17" t="s">
+        <v>2151</v>
+      </c>
+      <c r="I502" s="18" t="s">
+        <v>1977</v>
+      </c>
+      <c r="K502" s="91" t="s">
+        <v>1978</v>
+      </c>
+      <c r="L502" s="17" t="s">
         <v>2152</v>
       </c>
-      <c r="P489" s="1"/>
-      <c r="U489" s="1"/>
-      <c r="V489" s="2"/>
-    </row>
-    <row r="490" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A490" s="226" t="s">
-        <v>1931</v>
-      </c>
-      <c r="B490" s="7"/>
-      <c r="F490" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="G490" s="1"/>
-      <c r="H490" s="2"/>
-      <c r="K490" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="P490" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="U490" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="V490" s="2"/>
-    </row>
-    <row r="491" spans="1:22" ht="73" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A491" s="1" t="s">
-        <v>1967</v>
-      </c>
-      <c r="B491" s="2" t="s">
-        <v>2107</v>
-      </c>
-      <c r="C491" s="287" t="s">
-        <v>2188</v>
-      </c>
-    </row>
-    <row r="492" spans="1:22" ht="174" x14ac:dyDescent="0.35">
-      <c r="A492" s="91" t="s">
-        <v>1968</v>
-      </c>
-      <c r="B492" s="275" t="s">
-        <v>1969</v>
-      </c>
-      <c r="C492" s="274" t="s">
-        <v>1971</v>
-      </c>
-      <c r="D492" s="18" t="s">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="493" spans="1:22" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A493" s="34"/>
-      <c r="C493" s="246" t="s">
-        <v>1972</v>
-      </c>
-      <c r="D493" s="20" t="s">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="494" spans="1:22" ht="174" x14ac:dyDescent="0.35">
-      <c r="A494" s="34"/>
-      <c r="C494" s="246" t="s">
-        <v>1973</v>
-      </c>
-      <c r="D494" s="20" t="s">
-        <v>1974</v>
-      </c>
-      <c r="F494" s="90" t="s">
-        <v>1976</v>
-      </c>
-      <c r="G494" s="275" t="s">
-        <v>1977</v>
-      </c>
-      <c r="H494" s="17" t="s">
-        <v>2153</v>
-      </c>
-      <c r="I494" s="18" t="s">
-        <v>1978</v>
-      </c>
-      <c r="K494" s="91" t="s">
+      <c r="M502" s="17" t="s">
+        <v>2091</v>
+      </c>
+      <c r="N502" s="18" t="s">
         <v>1979</v>
       </c>
-      <c r="L494" s="17" t="s">
-        <v>2154</v>
-      </c>
-      <c r="M494" s="17" t="s">
-        <v>2093</v>
-      </c>
-      <c r="N494" s="18" t="s">
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="495" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A495" s="83" t="s">
+    </row>
+    <row r="503" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A503" s="83" t="s">
         <v>1516</v>
       </c>
-      <c r="B495" t="s">
+      <c r="B503" t="s">
         <v>35</v>
       </c>
-      <c r="C495" t="s">
-        <v>2108</v>
-      </c>
-      <c r="D495" s="35"/>
-      <c r="F495" s="34" t="s">
+      <c r="C503" t="s">
+        <v>2106</v>
+      </c>
+      <c r="D503" s="35"/>
+      <c r="F503" s="34" t="s">
         <v>1516</v>
       </c>
-      <c r="G495" s="2" t="s">
+      <c r="G503" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H495" s="1" t="s">
-        <v>2108</v>
-      </c>
-      <c r="I495" s="35"/>
-      <c r="K495" s="34"/>
-      <c r="M495" s="1" t="s">
-        <v>2155</v>
-      </c>
-      <c r="N495" s="35"/>
-    </row>
-    <row r="496" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A496" s="83" t="s">
-        <v>212</v>
-      </c>
-      <c r="B496" t="s">
-        <v>207</v>
-      </c>
-      <c r="C496" t="s">
-        <v>2109</v>
-      </c>
-      <c r="D496" s="35"/>
-      <c r="F496" s="34" t="s">
-        <v>1518</v>
-      </c>
-      <c r="G496" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H496" s="1" t="s">
-        <v>2117</v>
-      </c>
-      <c r="I496" s="35"/>
-      <c r="K496" s="34"/>
-      <c r="M496" s="1" t="s">
-        <v>2156</v>
-      </c>
-      <c r="N496" s="35"/>
-    </row>
-    <row r="497" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A497" s="83" t="s">
-        <v>214</v>
-      </c>
-      <c r="B497" t="s">
-        <v>151</v>
-      </c>
-      <c r="C497" t="s">
-        <v>2113</v>
-      </c>
-      <c r="D497" s="35"/>
-      <c r="F497" s="34" t="s">
-        <v>2126</v>
-      </c>
-      <c r="G497" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="H497" s="1" t="s">
-        <v>2127</v>
-      </c>
-      <c r="I497" s="35"/>
-      <c r="K497" s="34"/>
-      <c r="M497" s="1" t="s">
-        <v>2157</v>
-      </c>
-      <c r="N497" s="35"/>
-    </row>
-    <row r="498" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A498" s="83" t="s">
-        <v>1522</v>
-      </c>
-      <c r="B498" t="s">
-        <v>35</v>
-      </c>
-      <c r="C498" t="s">
-        <v>2114</v>
-      </c>
-      <c r="D498" s="35"/>
-      <c r="F498" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="G498" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="H498" s="1" t="s">
-        <v>2109</v>
-      </c>
-      <c r="I498" s="35"/>
-      <c r="K498" s="34"/>
-      <c r="M498" s="1" t="s">
-        <v>2158</v>
-      </c>
-      <c r="N498" s="35"/>
-    </row>
-    <row r="499" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A499" s="83" t="s">
-        <v>430</v>
-      </c>
-      <c r="B499" t="s">
-        <v>35</v>
-      </c>
-      <c r="C499" t="s">
-        <v>2115</v>
-      </c>
-      <c r="D499" s="35"/>
-      <c r="F499" s="34" t="s">
-        <v>214</v>
-      </c>
-      <c r="G499" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="H499" s="1" t="s">
-        <v>2128</v>
-      </c>
-      <c r="I499" s="35"/>
-      <c r="K499" s="34"/>
-      <c r="M499" s="1" t="s">
-        <v>2159</v>
-      </c>
-      <c r="N499" s="35"/>
-    </row>
-    <row r="500" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A500" s="83" t="s">
-        <v>264</v>
-      </c>
-      <c r="B500" t="s">
-        <v>274</v>
-      </c>
-      <c r="C500" t="s">
-        <v>2110</v>
-      </c>
-      <c r="D500" s="35"/>
-      <c r="F500" s="34" t="s">
-        <v>1522</v>
-      </c>
-      <c r="G500" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H500" s="1" t="s">
-        <v>2114</v>
-      </c>
-      <c r="I500" s="35"/>
-      <c r="K500" s="34"/>
-      <c r="M500" s="1" t="s">
-        <v>2160</v>
-      </c>
-      <c r="N500" s="35"/>
-    </row>
-    <row r="501" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A501" s="83" t="s">
-        <v>1537</v>
-      </c>
-      <c r="B501" t="s">
-        <v>35</v>
-      </c>
-      <c r="C501" t="s">
-        <v>2111</v>
-      </c>
-      <c r="D501" s="35"/>
-      <c r="F501" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="G501" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="H501" s="1" t="s">
-        <v>2118</v>
-      </c>
-      <c r="I501" s="35"/>
-      <c r="K501" s="34"/>
-      <c r="M501" s="1" t="s">
-        <v>2161</v>
-      </c>
-      <c r="N501" s="35"/>
-    </row>
-    <row r="502" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A502" s="83" t="s">
-        <v>251</v>
-      </c>
-      <c r="B502" t="s">
-        <v>224</v>
-      </c>
-      <c r="C502" t="s">
-        <v>2112</v>
-      </c>
-      <c r="D502" s="35"/>
-      <c r="F502" s="34" t="s">
-        <v>2119</v>
-      </c>
-      <c r="G502" s="2" t="s">
-        <v>2129</v>
-      </c>
-      <c r="H502" s="1" t="s">
-        <v>2120</v>
-      </c>
-      <c r="I502" s="35"/>
-      <c r="K502" s="34"/>
-      <c r="M502" s="1" t="s">
-        <v>2162</v>
-      </c>
-      <c r="N502" s="35"/>
-    </row>
-    <row r="503" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A503" s="276" t="s">
-        <v>1542</v>
-      </c>
-      <c r="B503" s="140" t="s">
-        <v>1541</v>
-      </c>
-      <c r="C503" s="140" t="s">
-        <v>2116</v>
-      </c>
-      <c r="D503" s="37"/>
-      <c r="F503" s="34" t="s">
-        <v>2121</v>
-      </c>
-      <c r="G503" s="2" t="s">
-        <v>217</v>
-      </c>
       <c r="H503" s="1" t="s">
-        <v>2122</v>
+        <v>2106</v>
       </c>
       <c r="I503" s="35"/>
       <c r="K503" s="34"/>
       <c r="M503" s="1" t="s">
-        <v>2163</v>
+        <v>2153</v>
       </c>
       <c r="N503" s="35"/>
     </row>
-    <row r="504" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A504" s="83" t="s">
+        <v>212</v>
+      </c>
+      <c r="B504" t="s">
+        <v>207</v>
+      </c>
+      <c r="C504" t="s">
+        <v>2107</v>
+      </c>
+      <c r="D504" s="35"/>
       <c r="F504" s="34" t="s">
-        <v>2130</v>
+        <v>1518</v>
       </c>
       <c r="G504" s="2" t="s">
-        <v>217</v>
+        <v>35</v>
       </c>
       <c r="H504" s="1" t="s">
-        <v>2131</v>
+        <v>2115</v>
       </c>
       <c r="I504" s="35"/>
       <c r="K504" s="34"/>
       <c r="M504" s="1" t="s">
-        <v>2164</v>
+        <v>2154</v>
       </c>
       <c r="N504" s="35"/>
     </row>
-    <row r="505" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A505" s="83" t="s">
+        <v>214</v>
+      </c>
+      <c r="B505" t="s">
+        <v>151</v>
+      </c>
+      <c r="C505" t="s">
+        <v>2111</v>
+      </c>
+      <c r="D505" s="35"/>
       <c r="F505" s="34" t="s">
-        <v>2133</v>
+        <v>2124</v>
       </c>
       <c r="G505" s="2" t="s">
-        <v>2132</v>
+        <v>217</v>
       </c>
       <c r="H505" s="1" t="s">
-        <v>2134</v>
+        <v>2125</v>
       </c>
       <c r="I505" s="35"/>
       <c r="K505" s="34"/>
       <c r="M505" s="1" t="s">
-        <v>2165</v>
+        <v>2155</v>
       </c>
       <c r="N505" s="35"/>
     </row>
-    <row r="506" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A506" s="83" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B506" t="s">
+        <v>35</v>
+      </c>
+      <c r="C506" t="s">
+        <v>2112</v>
+      </c>
+      <c r="D506" s="35"/>
       <c r="F506" s="34" t="s">
-        <v>2135</v>
+        <v>212</v>
       </c>
       <c r="G506" s="2" t="s">
-        <v>2129</v>
+        <v>207</v>
       </c>
       <c r="H506" s="1" t="s">
-        <v>2136</v>
+        <v>2107</v>
       </c>
       <c r="I506" s="35"/>
       <c r="K506" s="34"/>
       <c r="M506" s="1" t="s">
-        <v>2166</v>
+        <v>2156</v>
       </c>
       <c r="N506" s="35"/>
     </row>
-    <row r="507" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="507" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A507" s="83" t="s">
+        <v>430</v>
+      </c>
+      <c r="B507" t="s">
+        <v>35</v>
+      </c>
+      <c r="C507" t="s">
+        <v>2113</v>
+      </c>
+      <c r="D507" s="35"/>
       <c r="F507" s="34" t="s">
-        <v>2137</v>
+        <v>214</v>
       </c>
       <c r="G507" s="2" t="s">
-        <v>217</v>
+        <v>151</v>
       </c>
       <c r="H507" s="1" t="s">
-        <v>2138</v>
+        <v>2126</v>
       </c>
       <c r="I507" s="35"/>
-      <c r="K507" s="36"/>
-      <c r="L507" s="42"/>
-      <c r="M507" s="42" t="s">
-        <v>2167</v>
-      </c>
-      <c r="N507" s="37"/>
-    </row>
-    <row r="508" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K507" s="34"/>
+      <c r="M507" s="1" t="s">
+        <v>2157</v>
+      </c>
+      <c r="N507" s="35"/>
+    </row>
+    <row r="508" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A508" s="83" t="s">
+        <v>264</v>
+      </c>
+      <c r="B508" t="s">
+        <v>274</v>
+      </c>
+      <c r="C508" t="s">
+        <v>2108</v>
+      </c>
+      <c r="D508" s="35"/>
       <c r="F508" s="34" t="s">
-        <v>430</v>
+        <v>1522</v>
       </c>
       <c r="G508" s="2" t="s">
         <v>35</v>
       </c>
       <c r="H508" s="1" t="s">
-        <v>2115</v>
+        <v>2112</v>
       </c>
       <c r="I508" s="35"/>
-    </row>
-    <row r="509" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K508" s="34"/>
+      <c r="M508" s="1" t="s">
+        <v>2158</v>
+      </c>
+      <c r="N508" s="35"/>
+    </row>
+    <row r="509" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A509" s="83" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B509" t="s">
+        <v>35</v>
+      </c>
+      <c r="C509" t="s">
+        <v>2109</v>
+      </c>
+      <c r="D509" s="35"/>
       <c r="F509" s="34" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="G509" s="2" t="s">
         <v>274</v>
       </c>
       <c r="H509" s="1" t="s">
-        <v>2123</v>
+        <v>2116</v>
       </c>
       <c r="I509" s="35"/>
-    </row>
-    <row r="510" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K509" s="34"/>
+      <c r="M509" s="1" t="s">
+        <v>2159</v>
+      </c>
+      <c r="N509" s="35"/>
+    </row>
+    <row r="510" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A510" s="83" t="s">
+        <v>251</v>
+      </c>
+      <c r="B510" t="s">
+        <v>224</v>
+      </c>
+      <c r="C510" t="s">
+        <v>2110</v>
+      </c>
+      <c r="D510" s="35"/>
       <c r="F510" s="34" t="s">
-        <v>2124</v>
+        <v>2117</v>
       </c>
       <c r="G510" s="2" t="s">
-        <v>217</v>
+        <v>2127</v>
       </c>
       <c r="H510" s="1" t="s">
-        <v>2125</v>
+        <v>2118</v>
       </c>
       <c r="I510" s="35"/>
-    </row>
-    <row r="511" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K510" s="34"/>
+      <c r="M510" s="1" t="s">
+        <v>2160</v>
+      </c>
+      <c r="N510" s="35"/>
+    </row>
+    <row r="511" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A511" s="276" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B511" s="140" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C511" s="140" t="s">
+        <v>2114</v>
+      </c>
+      <c r="D511" s="37"/>
       <c r="F511" s="34" t="s">
-        <v>2139</v>
+        <v>2119</v>
       </c>
       <c r="G511" s="2" t="s">
         <v>217</v>
       </c>
       <c r="H511" s="1" t="s">
-        <v>2140</v>
+        <v>2120</v>
       </c>
       <c r="I511" s="35"/>
-    </row>
-    <row r="512" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K511" s="34"/>
+      <c r="M511" s="1" t="s">
+        <v>2161</v>
+      </c>
+      <c r="N511" s="35"/>
+    </row>
+    <row r="512" spans="1:22" x14ac:dyDescent="0.35">
       <c r="F512" s="34" t="s">
-        <v>236</v>
+        <v>2128</v>
       </c>
       <c r="G512" s="2" t="s">
         <v>217</v>
       </c>
       <c r="H512" s="1" t="s">
+        <v>2129</v>
+      </c>
+      <c r="I512" s="35"/>
+      <c r="K512" s="34"/>
+      <c r="M512" s="1" t="s">
+        <v>2162</v>
+      </c>
+      <c r="N512" s="35"/>
+    </row>
+    <row r="513" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="F513" s="34" t="s">
+        <v>2131</v>
+      </c>
+      <c r="G513" s="2" t="s">
+        <v>2130</v>
+      </c>
+      <c r="H513" s="1" t="s">
+        <v>2132</v>
+      </c>
+      <c r="I513" s="35"/>
+      <c r="K513" s="34"/>
+      <c r="M513" s="1" t="s">
+        <v>2163</v>
+      </c>
+      <c r="N513" s="35"/>
+    </row>
+    <row r="514" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="F514" s="34" t="s">
+        <v>2133</v>
+      </c>
+      <c r="G514" s="2" t="s">
+        <v>2127</v>
+      </c>
+      <c r="H514" s="1" t="s">
+        <v>2134</v>
+      </c>
+      <c r="I514" s="35"/>
+      <c r="K514" s="34"/>
+      <c r="M514" s="1" t="s">
+        <v>2164</v>
+      </c>
+      <c r="N514" s="35"/>
+    </row>
+    <row r="515" spans="6:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F515" s="34" t="s">
+        <v>2135</v>
+      </c>
+      <c r="G515" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H515" s="1" t="s">
+        <v>2136</v>
+      </c>
+      <c r="I515" s="35"/>
+      <c r="K515" s="36"/>
+      <c r="L515" s="42"/>
+      <c r="M515" s="42" t="s">
+        <v>2165</v>
+      </c>
+      <c r="N515" s="37"/>
+    </row>
+    <row r="516" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="F516" s="34" t="s">
+        <v>430</v>
+      </c>
+      <c r="G516" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H516" s="1" t="s">
+        <v>2113</v>
+      </c>
+      <c r="I516" s="35"/>
+    </row>
+    <row r="517" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="F517" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="G517" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="H517" s="1" t="s">
+        <v>2121</v>
+      </c>
+      <c r="I517" s="35"/>
+    </row>
+    <row r="518" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="F518" s="34" t="s">
+        <v>2122</v>
+      </c>
+      <c r="G518" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H518" s="1" t="s">
+        <v>2123</v>
+      </c>
+      <c r="I518" s="35"/>
+    </row>
+    <row r="519" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="F519" s="34" t="s">
+        <v>2137</v>
+      </c>
+      <c r="G519" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H519" s="1" t="s">
+        <v>2138</v>
+      </c>
+      <c r="I519" s="35"/>
+    </row>
+    <row r="520" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="F520" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="G520" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H520" s="1" t="s">
+        <v>2139</v>
+      </c>
+      <c r="I520" s="35"/>
+    </row>
+    <row r="521" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="F521" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="G521" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H521" s="1" t="s">
+        <v>2140</v>
+      </c>
+      <c r="I521" s="35"/>
+    </row>
+    <row r="522" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="F522" s="34" t="s">
+        <v>1537</v>
+      </c>
+      <c r="G522" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H522" s="1" t="s">
+        <v>2109</v>
+      </c>
+      <c r="I522" s="35"/>
+    </row>
+    <row r="523" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="F523" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="G523" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H523" s="1" t="s">
+        <v>2110</v>
+      </c>
+      <c r="I523" s="35"/>
+    </row>
+    <row r="524" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="F524" s="34" t="s">
+        <v>1542</v>
+      </c>
+      <c r="G524" s="2" t="s">
+        <v>1541</v>
+      </c>
+      <c r="H524" s="1" t="s">
+        <v>2114</v>
+      </c>
+      <c r="I524" s="35"/>
+    </row>
+    <row r="525" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="F525" s="34" t="s">
         <v>2141</v>
       </c>
-      <c r="I512" s="35"/>
-    </row>
-    <row r="513" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="F513" s="34" t="s">
-        <v>237</v>
-      </c>
-      <c r="G513" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="H513" s="1" t="s">
+      <c r="G525" s="2" t="s">
+        <v>2127</v>
+      </c>
+      <c r="H525" s="1" t="s">
         <v>2142</v>
       </c>
-      <c r="I513" s="35"/>
-    </row>
-    <row r="514" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="F514" s="34" t="s">
-        <v>1537</v>
-      </c>
-      <c r="G514" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H514" s="1" t="s">
-        <v>2111</v>
-      </c>
-      <c r="I514" s="35"/>
-    </row>
-    <row r="515" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="F515" s="34" t="s">
-        <v>251</v>
-      </c>
-      <c r="G515" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="H515" s="1" t="s">
-        <v>2112</v>
-      </c>
-      <c r="I515" s="35"/>
-    </row>
-    <row r="516" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="F516" s="34" t="s">
-        <v>1542</v>
-      </c>
-      <c r="G516" s="2" t="s">
-        <v>1541</v>
-      </c>
-      <c r="H516" s="1" t="s">
-        <v>2116</v>
-      </c>
-      <c r="I516" s="35"/>
-    </row>
-    <row r="517" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="F517" s="34" t="s">
+      <c r="I525" s="35"/>
+    </row>
+    <row r="526" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="F526" s="34" t="s">
         <v>2143</v>
       </c>
-      <c r="G517" s="2" t="s">
-        <v>2129</v>
-      </c>
-      <c r="H517" s="1" t="s">
+      <c r="G526" s="2" t="s">
+        <v>2130</v>
+      </c>
+      <c r="H526" s="1" t="s">
         <v>2144</v>
       </c>
-      <c r="I517" s="35"/>
-    </row>
-    <row r="518" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="F518" s="34" t="s">
+      <c r="I526" s="35"/>
+    </row>
+    <row r="527" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="F527" s="34" t="s">
         <v>2145</v>
       </c>
-      <c r="G518" s="2" t="s">
-        <v>2132</v>
-      </c>
-      <c r="H518" s="1" t="s">
+      <c r="G527" s="2" t="s">
+        <v>2130</v>
+      </c>
+      <c r="H527" s="1" t="s">
         <v>2146</v>
       </c>
-      <c r="I518" s="35"/>
-    </row>
-    <row r="519" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="F519" s="34" t="s">
+      <c r="I527" s="35"/>
+    </row>
+    <row r="528" spans="6:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F528" s="36" t="s">
         <v>2147</v>
       </c>
-      <c r="G519" s="2" t="s">
-        <v>2132</v>
-      </c>
-      <c r="H519" s="1" t="s">
+      <c r="G528" s="22" t="s">
+        <v>2127</v>
+      </c>
+      <c r="H528" s="42" t="s">
         <v>2148</v>
       </c>
-      <c r="I519" s="35"/>
-    </row>
-    <row r="520" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F520" s="36" t="s">
+      <c r="I528" s="37"/>
+    </row>
+    <row r="531" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A531" s="6"/>
+      <c r="B531" s="8"/>
+      <c r="C531" s="9"/>
+      <c r="D531" s="6"/>
+      <c r="F531" s="6"/>
+      <c r="G531" s="8"/>
+      <c r="H531" s="6"/>
+      <c r="I531" s="6"/>
+      <c r="K531" s="6"/>
+      <c r="L531" s="6"/>
+      <c r="M531" s="6"/>
+      <c r="N531" s="6"/>
+      <c r="P531" s="8"/>
+      <c r="Q531" s="8"/>
+      <c r="R531" s="8"/>
+      <c r="S531" s="8"/>
+      <c r="U531" s="8"/>
+    </row>
+    <row r="532" spans="1:22" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A532" s="1" t="s">
         <v>2149</v>
       </c>
-      <c r="G520" s="22" t="s">
-        <v>2129</v>
-      </c>
-      <c r="H520" s="42" t="s">
-        <v>2150</v>
-      </c>
-      <c r="I520" s="37"/>
-    </row>
-    <row r="523" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A523" s="6"/>
-      <c r="B523" s="8"/>
-      <c r="C523" s="9"/>
-      <c r="D523" s="6"/>
-      <c r="F523" s="6"/>
-      <c r="G523" s="8"/>
-      <c r="H523" s="6"/>
-      <c r="I523" s="6"/>
-      <c r="K523" s="6"/>
-      <c r="L523" s="6"/>
-      <c r="M523" s="6"/>
-      <c r="N523" s="6"/>
-      <c r="P523" s="8"/>
-      <c r="Q523" s="8"/>
-      <c r="R523" s="8"/>
-      <c r="S523" s="8"/>
-      <c r="U523" s="8"/>
-    </row>
-    <row r="524" spans="1:22" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A524" s="1" t="s">
-        <v>2151</v>
-      </c>
-      <c r="P524" s="1"/>
-      <c r="U524" s="1"/>
-      <c r="V524" s="2"/>
-    </row>
-    <row r="525" spans="1:22" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A525" s="90" t="s">
+      <c r="P532" s="1"/>
+      <c r="U532" s="1"/>
+      <c r="V532" s="2"/>
+    </row>
+    <row r="533" spans="1:22" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A533" s="90" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B533" s="17"/>
+      <c r="C533" s="274" t="s">
         <v>1981</v>
       </c>
-      <c r="B525" s="17"/>
-      <c r="C525" s="274" t="s">
+      <c r="D533" s="45" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="534" spans="1:22" ht="203" x14ac:dyDescent="0.35">
+      <c r="A534" s="34"/>
+      <c r="B534" s="2" t="s">
+        <v>1987</v>
+      </c>
+      <c r="C534" s="246" t="s">
         <v>1982</v>
       </c>
-      <c r="D525" s="45" t="s">
+      <c r="D534" s="20" t="s">
         <v>1985</v>
       </c>
     </row>
-    <row r="526" spans="1:22" ht="203" x14ac:dyDescent="0.35">
-      <c r="A526" s="34"/>
-      <c r="B526" s="2" t="s">
+    <row r="535" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+      <c r="A535" s="34"/>
+      <c r="B535" s="2" t="s">
         <v>1988</v>
       </c>
-      <c r="C526" s="246" t="s">
+      <c r="C535" s="246" t="s">
         <v>1983</v>
       </c>
-      <c r="D526" s="20" t="s">
+      <c r="D535" s="35" t="s">
         <v>1986</v>
       </c>
     </row>
-    <row r="527" spans="1:22" ht="116" x14ac:dyDescent="0.35">
-      <c r="A527" s="34"/>
-      <c r="B527" s="2" t="s">
+    <row r="536" spans="1:22" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A536" s="36"/>
+      <c r="B536" s="22" t="s">
+        <v>1991</v>
+      </c>
+      <c r="C536" s="280" t="s">
+        <v>1990</v>
+      </c>
+      <c r="D536" s="37" t="s">
         <v>1989</v>
       </c>
-      <c r="C527" s="246" t="s">
-        <v>1984</v>
-      </c>
-      <c r="D527" s="35" t="s">
-        <v>1987</v>
-      </c>
-    </row>
-    <row r="528" spans="1:22" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A528" s="36"/>
-      <c r="B528" s="22" t="s">
+    </row>
+    <row r="537" spans="1:22" ht="145" x14ac:dyDescent="0.35">
+      <c r="A537" s="281" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B537" s="17" t="s">
+        <v>2093</v>
+      </c>
+      <c r="C537" s="282" t="s">
+        <v>2104</v>
+      </c>
+      <c r="D537" s="45" t="s">
         <v>1992</v>
       </c>
-      <c r="C528" s="280" t="s">
-        <v>1991</v>
-      </c>
-      <c r="D528" s="37" t="s">
-        <v>1990</v>
-      </c>
-    </row>
-    <row r="529" spans="1:4" ht="145" x14ac:dyDescent="0.35">
-      <c r="A529" s="281" t="s">
+    </row>
+    <row r="538" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+      <c r="A538" s="34" t="s">
+        <v>2095</v>
+      </c>
+      <c r="C538" s="2" t="s">
+        <v>2096</v>
+      </c>
+      <c r="D538" s="35" t="s">
         <v>2094</v>
       </c>
-      <c r="B529" s="17" t="s">
-        <v>2095</v>
-      </c>
-      <c r="C529" s="282" t="s">
-        <v>2106</v>
-      </c>
-      <c r="D529" s="45" t="s">
-        <v>1993</v>
-      </c>
-    </row>
-    <row r="530" spans="1:4" ht="116" x14ac:dyDescent="0.35">
-      <c r="A530" s="34" t="s">
+    </row>
+    <row r="539" spans="1:22" ht="174" x14ac:dyDescent="0.35">
+      <c r="A539" s="19" t="s">
         <v>2097</v>
       </c>
-      <c r="C530" s="2" t="s">
+      <c r="B539" s="2" t="s">
+        <v>2099</v>
+      </c>
+      <c r="C539" s="2" t="s">
+        <v>2100</v>
+      </c>
+      <c r="D539" s="35" t="s">
         <v>2098</v>
       </c>
-      <c r="D530" s="35" t="s">
-        <v>2096</v>
-      </c>
-    </row>
-    <row r="531" spans="1:4" ht="174" x14ac:dyDescent="0.35">
-      <c r="A531" s="19" t="s">
-        <v>2099</v>
-      </c>
-      <c r="B531" s="2" t="s">
+    </row>
+    <row r="540" spans="1:22" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A540" s="36"/>
+      <c r="B540" s="22" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C540" s="22" t="s">
+        <v>2103</v>
+      </c>
+      <c r="D540" s="37" t="s">
         <v>2101</v>
-      </c>
-      <c r="C531" s="2" t="s">
-        <v>2102</v>
-      </c>
-      <c r="D531" s="35" t="s">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="532" spans="1:4" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A532" s="36"/>
-      <c r="B532" s="22" t="s">
-        <v>2104</v>
-      </c>
-      <c r="C532" s="22" t="s">
-        <v>2105</v>
-      </c>
-      <c r="D532" s="37" t="s">
-        <v>2103</v>
       </c>
     </row>
   </sheetData>
@@ -36738,27 +37090,27 @@
     </row>
     <row r="5" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A5" s="91" t="s">
-        <v>2179</v>
+        <v>2176</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>2180</v>
+        <v>2177</v>
       </c>
       <c r="C5" s="284" t="s">
-        <v>2175</v>
+        <v>2172</v>
       </c>
       <c r="D5" s="45"/>
     </row>
     <row r="6" spans="1:22" ht="87" x14ac:dyDescent="0.35">
       <c r="A6" s="34"/>
       <c r="C6" s="285" t="s">
-        <v>2176</v>
+        <v>2173</v>
       </c>
       <c r="D6" s="35"/>
     </row>
     <row r="7" spans="1:22" ht="174" x14ac:dyDescent="0.35">
       <c r="A7" s="34"/>
       <c r="C7" s="285" t="s">
-        <v>2177</v>
+        <v>2174</v>
       </c>
       <c r="D7" s="35"/>
     </row>
@@ -36766,41 +37118,41 @@
       <c r="A8" s="36"/>
       <c r="B8" s="22"/>
       <c r="C8" s="286" t="s">
-        <v>2178</v>
+        <v>2175</v>
       </c>
       <c r="D8" s="37"/>
     </row>
     <row r="9" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="10" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A10" s="91" t="s">
-        <v>2181</v>
+        <v>2178</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>2182</v>
+        <v>2179</v>
       </c>
       <c r="C10" s="284" t="s">
-        <v>2183</v>
+        <v>2180</v>
       </c>
       <c r="D10" s="45"/>
     </row>
     <row r="11" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A11" s="34"/>
       <c r="C11" s="285" t="s">
-        <v>2187</v>
+        <v>2184</v>
       </c>
       <c r="D11" s="35"/>
     </row>
     <row r="12" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A12" s="34"/>
       <c r="C12" s="285" t="s">
-        <v>2184</v>
+        <v>2181</v>
       </c>
       <c r="D12" s="35"/>
     </row>
     <row r="13" spans="1:22" ht="203" x14ac:dyDescent="0.35">
       <c r="A13" s="34"/>
       <c r="C13" s="285" t="s">
-        <v>2185</v>
+        <v>2182</v>
       </c>
       <c r="D13" s="35"/>
     </row>
@@ -36808,7 +37160,7 @@
       <c r="A14" s="36"/>
       <c r="B14" s="22"/>
       <c r="C14" s="286" t="s">
-        <v>2186</v>
+        <v>2183</v>
       </c>
       <c r="D14" s="37"/>
     </row>

--- a/2 четверть_3_Программист_Java.xlsx
+++ b/2 четверть_3_Программист_Java.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Machenike\Desktop\Homework_repo\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B142EC6-D6E9-43E7-9874-0ABF9EF4A4F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FDB6F1-191F-4071-B436-1E0C49A1F584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10351,10 +10351,6 @@
       </rPr>
       <t>("", name)); // Cергей</t>
     </r>
-  </si>
-  <si>
-    <t>getType(переменная)
-a instanceof Double</t>
   </si>
   <si>
     <r>
@@ -18333,17 +18329,31 @@
 Возвращает и Удаляет элемент из списка. Eсли в списке не осталось элементов, то не выбрасывает исключение NoSuchElement Excepetion</t>
     </r>
   </si>
+  <si>
+    <t>getType(переменная)
+1 a instanceof Double
+2 a.getType() == Double.class
+3 Double.class.isAssignable(a.getTpe())</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="67" x14ac:knownFonts="1">
+  <fonts count="68" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -19298,7 +19308,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="297">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -19320,32 +19330,32 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="40" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="41" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -19369,16 +19379,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -19390,13 +19400,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -19411,10 +19421,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -19426,28 +19436,28 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="46" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="47" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -19456,13 +19466,13 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -19474,43 +19484,43 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="44" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="45" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="36" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -19519,31 +19529,31 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="30" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -19551,7 +19561,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -19575,13 +19585,13 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -19593,7 +19603,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -19602,13 +19612,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="44" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="45" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="46" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="47" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="54" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="55" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -19617,13 +19627,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -19642,7 +19652,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="38" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -19660,7 +19670,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -19675,16 +19685,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="46" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="47" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -19696,16 +19706,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="28" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -19723,13 +19733,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -19738,7 +19748,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="40" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -19759,22 +19769,22 @@
     <xf numFmtId="49" fontId="0" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="38" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="38" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -19789,22 +19799,22 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -19842,82 +19852,82 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="34" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="40" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="40" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="40" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="40" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="40" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="33" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -19932,55 +19942,55 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="41" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="40" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="41" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -19995,7 +20005,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -20007,131 +20017,137 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="11" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="67" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="11" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="66" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -20140,14 +20156,11 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -20159,9 +20172,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -22019,8 +22029,8 @@
   </sheetPr>
   <dimension ref="A1:AC540"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E398" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H401" sqref="H401"/>
+    <sheetView tabSelected="1" topLeftCell="E2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22112,7 +22122,7 @@
         <v>322</v>
       </c>
       <c r="B5" s="103" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>17</v>
@@ -22193,11 +22203,11 @@
       </c>
       <c r="I7" s="20"/>
       <c r="K7" s="19" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="N7" s="20"/>
       <c r="P7" s="135"/>
@@ -22294,13 +22304,13 @@
         <v>403</v>
       </c>
       <c r="K10" s="21" t="s">
-        <v>1421</v>
+        <v>2208</v>
       </c>
       <c r="L10" s="22" t="s">
         <v>172</v>
       </c>
       <c r="M10" s="24" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="N10" s="37" t="s">
         <v>44</v>
@@ -22491,10 +22501,10 @@
         <v>31</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="I15" s="254" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="K15" s="19" t="s">
         <v>604</v>
@@ -22755,13 +22765,13 @@
         <v>801</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="I21" s="255" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="K21" s="34" t="s">
         <v>956</v>
@@ -22803,10 +22813,10 @@
         <v>223</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="I22" s="256" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="K22" s="93" t="s">
         <v>958</v>
@@ -22850,10 +22860,10 @@
         <v>400</v>
       </c>
       <c r="H23" s="58" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="I23" s="257" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="K23" s="34" t="s">
         <v>960</v>
@@ -22892,13 +22902,13 @@
         <v>804</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="H24" s="2" t="s">
+        <v>2164</v>
+      </c>
+      <c r="I24" s="278" t="s">
         <v>2165</v>
-      </c>
-      <c r="I24" s="278" t="s">
-        <v>2166</v>
       </c>
       <c r="K24" s="34" t="s">
         <v>474</v>
@@ -22983,10 +22993,10 @@
         <v>35</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="I26" s="254" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="K26" s="34" t="s">
         <v>476</v>
@@ -23027,13 +23037,13 @@
         <v>807</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="I27" s="255" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="K27" s="34" t="s">
         <v>965</v>
@@ -23072,13 +23082,13 @@
         <v>808</v>
       </c>
       <c r="G28" s="22" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="H28" s="42" t="s">
         <v>809</v>
       </c>
       <c r="I28" s="256" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="K28" s="34" t="s">
         <v>966</v>
@@ -23121,10 +23131,10 @@
         <v>35</v>
       </c>
       <c r="H29" s="58" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="I29" s="257" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="K29" s="34" t="s">
         <v>967</v>
@@ -23211,10 +23221,10 @@
         <v>35</v>
       </c>
       <c r="H31" s="22" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="I31" s="256" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="K31" s="34" t="s">
         <v>968</v>
@@ -23825,13 +23835,13 @@
         <v>428</v>
       </c>
       <c r="G45" s="58" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="H45" s="58" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="I45" s="257" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="K45" s="34" t="s">
         <v>986</v>
@@ -24183,10 +24193,10 @@
         <v>223</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="I53" s="254" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="K53" s="19" t="s">
         <v>996</v>
@@ -24630,7 +24640,7 @@
         <v>502</v>
       </c>
       <c r="N63" s="35" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="P63" s="19" t="s">
         <v>1070</v>
@@ -24724,7 +24734,7 @@
         <v>504</v>
       </c>
       <c r="N65" s="37" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="P65" s="19" t="s">
         <v>1072</v>
@@ -24796,10 +24806,10 @@
         <v>400</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="I67" s="254" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="K67"/>
       <c r="L67"/>
@@ -24874,10 +24884,10 @@
         <v>448</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="I69" s="254" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="K69"/>
       <c r="L69"/>
@@ -25099,10 +25109,10 @@
         <v>400</v>
       </c>
       <c r="H75" s="2" t="s">
+        <v>2064</v>
+      </c>
+      <c r="I75" s="254" t="s">
         <v>2065</v>
-      </c>
-      <c r="I75" s="254" t="s">
-        <v>2066</v>
       </c>
       <c r="K75"/>
       <c r="L75"/>
@@ -25923,7 +25933,7 @@
         <v>94</v>
       </c>
       <c r="P107" s="90" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="Q107" s="128" t="s">
         <v>740</v>
@@ -25955,7 +25965,7 @@
         <v>123</v>
       </c>
       <c r="C108" s="213" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="D108" s="126" t="s">
         <v>121</v>
@@ -25989,7 +25999,7 @@
         <v>745</v>
       </c>
       <c r="R108" s="253" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="S108" s="20" t="s">
         <v>742</v>
@@ -26009,13 +26019,13 @@
     </row>
     <row r="109" spans="1:24" ht="203" x14ac:dyDescent="0.35">
       <c r="A109" s="167" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="B109" s="32" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="C109" s="291" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="D109" s="107" t="s">
         <v>124</v>
@@ -26043,20 +26053,20 @@
         <v>101</v>
       </c>
       <c r="P109" s="19" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="S109" s="35"/>
       <c r="U109" s="1"/>
     </row>
     <row r="110" spans="1:24" ht="319.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A110" s="118" t="s">
+        <v>2191</v>
+      </c>
+      <c r="B110" s="32" t="s">
+        <v>2193</v>
+      </c>
+      <c r="C110" s="291" t="s">
         <v>2192</v>
-      </c>
-      <c r="B110" s="32" t="s">
-        <v>2194</v>
-      </c>
-      <c r="C110" s="291" t="s">
-        <v>2193</v>
       </c>
       <c r="D110" s="107" t="s">
         <v>125</v>
@@ -26081,13 +26091,13 @@
         <v>106</v>
       </c>
       <c r="P110" s="21" t="s">
+        <v>2185</v>
+      </c>
+      <c r="Q110" s="290" t="s">
         <v>2186</v>
       </c>
-      <c r="Q110" s="290" t="s">
+      <c r="R110" s="22" t="s">
         <v>2187</v>
-      </c>
-      <c r="R110" s="22" t="s">
-        <v>2188</v>
       </c>
       <c r="S110" s="37"/>
       <c r="U110" s="1"/>
@@ -26107,7 +26117,7 @@
         <v>90</v>
       </c>
       <c r="I111" s="23" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="K111" s="34" t="s">
         <v>688</v>
@@ -26177,7 +26187,7 @@
         <v>788</v>
       </c>
       <c r="R113" s="288" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="S113" s="23" t="s">
         <v>789</v>
@@ -26261,22 +26271,22 @@
         <v>1404</v>
       </c>
       <c r="C116" s="250" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D116" s="18" t="s">
         <v>714</v>
       </c>
       <c r="F116" s="90" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="G116" s="17" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="H116" s="250" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="I116" s="18" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="K116" s="90" t="s">
         <v>715</v>
@@ -26326,11 +26336,11 @@
       </c>
       <c r="D117" s="45"/>
       <c r="F117" s="91" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="G117" s="129"/>
       <c r="H117" s="250" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="I117" s="45"/>
       <c r="K117" s="93" t="s">
@@ -26426,13 +26436,13 @@
       </c>
       <c r="D119" s="35"/>
       <c r="F119" s="34" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>206</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I119" s="35"/>
       <c r="K119" s="34" t="s">
@@ -26477,7 +26487,7 @@
       </c>
       <c r="D120" s="35"/>
       <c r="F120" s="34" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>206</v>
@@ -26528,7 +26538,7 @@
       </c>
       <c r="D121" s="35"/>
       <c r="F121" s="34" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>206</v>
@@ -26579,13 +26589,13 @@
       </c>
       <c r="D122" s="35"/>
       <c r="F122" s="36" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G122" s="42" t="s">
         <v>206</v>
       </c>
       <c r="H122" s="42" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="I122" s="37"/>
       <c r="K122" s="34" t="s">
@@ -26863,7 +26873,7 @@
         <v>1101</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="D131" s="45"/>
       <c r="F131" s="91" t="s">
@@ -26891,10 +26901,10 @@
         <v>155</v>
       </c>
       <c r="B132" s="264" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="D132" s="35"/>
       <c r="F132" s="162" t="s">
@@ -26929,16 +26939,16 @@
     </row>
     <row r="133" spans="1:21" ht="58" x14ac:dyDescent="0.35">
       <c r="A133" s="91" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="B133" s="271" t="s">
+        <v>2060</v>
+      </c>
+      <c r="C133" s="272" t="s">
+        <v>2080</v>
+      </c>
+      <c r="D133" s="18" t="s">
         <v>2061</v>
-      </c>
-      <c r="C133" s="272" t="s">
-        <v>2081</v>
-      </c>
-      <c r="D133" s="18" t="s">
-        <v>2062</v>
       </c>
       <c r="F133" s="163" t="s">
         <v>1241</v>
@@ -26974,14 +26984,14 @@
     </row>
     <row r="134" spans="1:21" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A134" s="36" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="B134" s="42"/>
       <c r="C134" s="22" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="D134" s="37" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="F134" s="149" t="s">
         <v>1242</v>
@@ -27023,7 +27033,7 @@
         <v>686</v>
       </c>
       <c r="C135" s="253" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="D135" s="20" t="s">
         <v>682</v>
@@ -27068,7 +27078,7 @@
         <v>687</v>
       </c>
       <c r="C136" s="253" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="D136" s="20" t="s">
         <v>685</v>
@@ -30170,7 +30180,7 @@
     </row>
     <row r="249" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A249" s="1" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="P249" s="1"/>
       <c r="U249" s="1"/>
@@ -30181,7 +30191,7 @@
         <v>0</v>
       </c>
       <c r="C250" s="7" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="F250" s="4" t="s">
         <v>1</v>
@@ -30201,13 +30211,13 @@
     </row>
     <row r="251" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A251" s="1" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B251" s="248" t="s">
         <v>1991</v>
       </c>
-      <c r="B251" s="248" t="s">
+      <c r="C251" s="248" t="s">
         <v>1992</v>
-      </c>
-      <c r="C251" s="248" t="s">
-        <v>1993</v>
       </c>
       <c r="F251" s="25"/>
       <c r="G251" s="25"/>
@@ -30220,16 +30230,16 @@
     </row>
     <row r="252" spans="1:22" ht="203" x14ac:dyDescent="0.35">
       <c r="A252" s="1" t="s">
+        <v>1993</v>
+      </c>
+      <c r="B252" s="248" t="s">
+        <v>1996</v>
+      </c>
+      <c r="C252" s="248" t="s">
+        <v>1995</v>
+      </c>
+      <c r="D252" s="2" t="s">
         <v>1994</v>
-      </c>
-      <c r="B252" s="248" t="s">
-        <v>1997</v>
-      </c>
-      <c r="C252" s="248" t="s">
-        <v>1996</v>
-      </c>
-      <c r="D252" s="2" t="s">
-        <v>1995</v>
       </c>
       <c r="F252" s="25"/>
       <c r="G252" s="25"/>
@@ -30242,16 +30252,16 @@
     </row>
     <row r="253" spans="1:22" ht="261" x14ac:dyDescent="0.35">
       <c r="A253" s="1" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B253" s="248" t="s">
+        <v>2001</v>
+      </c>
+      <c r="C253" s="248" t="s">
+        <v>2000</v>
+      </c>
+      <c r="D253" s="2" t="s">
         <v>1999</v>
-      </c>
-      <c r="B253" s="248" t="s">
-        <v>2002</v>
-      </c>
-      <c r="C253" s="248" t="s">
-        <v>2001</v>
-      </c>
-      <c r="D253" s="2" t="s">
-        <v>2000</v>
       </c>
       <c r="F253" s="25"/>
       <c r="G253" s="25"/>
@@ -30422,16 +30432,16 @@
     </row>
     <row r="266" spans="1:25" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A266" s="114" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="B266" s="169" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="C266" s="169" t="s">
         <v>132</v>
       </c>
       <c r="D266" s="168" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="F266" s="70" t="s">
         <v>135</v>
@@ -30453,7 +30463,7 @@
         <v>138</v>
       </c>
       <c r="N266" s="171" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="P266" s="1"/>
       <c r="Q266" s="1"/>
@@ -30478,10 +30488,10 @@
         <v>108</v>
       </c>
       <c r="G267" s="17" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="H267" s="130" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="I267" s="18" t="s">
         <v>143</v>
@@ -30506,7 +30516,7 @@
         <v>146</v>
       </c>
       <c r="S267" s="171" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="U267" s="1"/>
       <c r="Y267" s="10"/>
@@ -30516,7 +30526,7 @@
       <c r="C268" s="1"/>
       <c r="F268" s="34"/>
       <c r="H268" s="287" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="I268" s="35"/>
       <c r="K268" s="136"/>
@@ -30524,32 +30534,32 @@
         <v>145</v>
       </c>
       <c r="M268" s="135" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="N268" s="147" t="s">
         <v>144</v>
       </c>
       <c r="P268" s="34" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="R268" s="135" t="s">
+        <v>1789</v>
+      </c>
+      <c r="S268" s="147" t="s">
         <v>1790</v>
-      </c>
-      <c r="S268" s="147" t="s">
-        <v>1791</v>
       </c>
       <c r="U268" s="1"/>
       <c r="Y268" s="10"/>
     </row>
     <row r="269" spans="1:25" ht="189" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A269" s="91" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="B269" s="17" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="C269" s="138" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="D269" s="45"/>
       <c r="F269" s="36" t="s">
@@ -30559,29 +30569,29 @@
         <v>171</v>
       </c>
       <c r="H269" s="273" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="I269" s="190" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="K269" s="93" t="s">
+        <v>1556</v>
+      </c>
+      <c r="L269" s="1" t="s">
         <v>1557</v>
       </c>
-      <c r="L269" s="1" t="s">
+      <c r="M269" s="135" t="s">
         <v>1558</v>
-      </c>
-      <c r="M269" s="135" t="s">
-        <v>1559</v>
       </c>
       <c r="N269" s="35"/>
       <c r="P269" s="93" t="s">
+        <v>1660</v>
+      </c>
+      <c r="Q269" s="1" t="s">
         <v>1661</v>
       </c>
-      <c r="Q269" s="1" t="s">
-        <v>1662</v>
-      </c>
       <c r="R269" s="2" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="S269" s="35"/>
       <c r="U269" s="10"/>
@@ -30592,13 +30602,13 @@
     </row>
     <row r="270" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A270" s="164" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B270" s="73" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C270" s="73" t="s">
         <v>1425</v>
-      </c>
-      <c r="B270" s="73" t="s">
-        <v>1424</v>
-      </c>
-      <c r="C270" s="73" t="s">
-        <v>1426</v>
       </c>
       <c r="D270" s="115"/>
       <c r="F270" s="10"/>
@@ -30606,23 +30616,23 @@
       <c r="H270" s="10"/>
       <c r="I270" s="10"/>
       <c r="K270" s="118" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="L270" s="73" t="s">
         <v>35</v>
       </c>
       <c r="M270" s="73" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="N270" s="115"/>
       <c r="P270" s="34" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="Q270" s="1" t="s">
         <v>206</v>
       </c>
       <c r="R270" s="1" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="S270" s="35"/>
       <c r="U270" s="10"/>
@@ -30633,13 +30643,13 @@
     </row>
     <row r="271" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A271" s="165" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C271" s="1" t="s">
         <v>1427</v>
-      </c>
-      <c r="B271" s="1" t="s">
-        <v>1424</v>
-      </c>
-      <c r="C271" s="1" t="s">
-        <v>1428</v>
       </c>
       <c r="D271" s="35"/>
       <c r="F271" s="10"/>
@@ -30647,23 +30657,23 @@
       <c r="H271" s="10"/>
       <c r="I271" s="10"/>
       <c r="K271" s="34" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="L271" s="1" t="s">
         <v>35</v>
       </c>
       <c r="M271" s="1" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="N271" s="35"/>
       <c r="P271" s="34" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="Q271" s="1" t="s">
         <v>206</v>
       </c>
       <c r="R271" s="1" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="S271" s="35"/>
       <c r="U271" s="10"/>
@@ -30674,13 +30684,13 @@
     </row>
     <row r="272" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A272" s="165" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C272" s="1" t="s">
         <v>1429</v>
-      </c>
-      <c r="B272" s="1" t="s">
-        <v>1424</v>
-      </c>
-      <c r="C272" s="1" t="s">
-        <v>1430</v>
       </c>
       <c r="D272" s="35"/>
       <c r="F272" s="10"/>
@@ -30688,23 +30698,23 @@
       <c r="H272" s="10"/>
       <c r="I272" s="10"/>
       <c r="K272" s="145" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="L272" s="72" t="s">
         <v>35</v>
       </c>
       <c r="M272" s="72" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="N272" s="116"/>
       <c r="P272" s="34" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="Q272" s="1" t="s">
         <v>206</v>
       </c>
       <c r="R272" s="1" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="S272" s="35"/>
       <c r="U272" s="10"/>
@@ -30715,13 +30725,13 @@
     </row>
     <row r="273" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A273" s="165" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C273" s="1" t="s">
         <v>1431</v>
-      </c>
-      <c r="B273" s="1" t="s">
-        <v>1424</v>
-      </c>
-      <c r="C273" s="1" t="s">
-        <v>1432</v>
       </c>
       <c r="D273" s="35"/>
       <c r="F273" s="10"/>
@@ -30729,23 +30739,23 @@
       <c r="H273" s="10"/>
       <c r="I273" s="10"/>
       <c r="K273" s="34" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="L273" s="1" t="s">
         <v>223</v>
       </c>
       <c r="M273" s="1" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="N273" s="35"/>
       <c r="P273" s="34" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="Q273" s="1" t="s">
         <v>206</v>
       </c>
       <c r="R273" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="S273" s="35"/>
       <c r="U273" s="10"/>
@@ -30756,13 +30766,13 @@
     </row>
     <row r="274" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A274" s="165" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C274" s="1" t="s">
         <v>1433</v>
-      </c>
-      <c r="B274" s="1" t="s">
-        <v>1424</v>
-      </c>
-      <c r="C274" s="1" t="s">
-        <v>1434</v>
       </c>
       <c r="D274" s="35"/>
       <c r="F274" s="10"/>
@@ -30770,23 +30780,23 @@
       <c r="H274" s="10"/>
       <c r="I274" s="10"/>
       <c r="K274" s="34" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="L274" s="1" t="s">
         <v>35</v>
       </c>
       <c r="M274" s="1" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="N274" s="35"/>
       <c r="P274" s="34" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="Q274" s="1" t="s">
         <v>206</v>
       </c>
       <c r="R274" s="1" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="S274" s="35"/>
       <c r="U274" s="10"/>
@@ -30797,13 +30807,13 @@
     </row>
     <row r="275" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A275" s="165" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C275" s="1" t="s">
         <v>1435</v>
-      </c>
-      <c r="B275" s="1" t="s">
-        <v>1424</v>
-      </c>
-      <c r="C275" s="1" t="s">
-        <v>1436</v>
       </c>
       <c r="D275" s="35"/>
       <c r="F275" s="10"/>
@@ -30811,23 +30821,23 @@
       <c r="H275" s="10"/>
       <c r="I275" s="10"/>
       <c r="K275" s="34" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L275" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="M275" s="1" t="s">
         <v>1571</v>
-      </c>
-      <c r="L275" s="1" t="s">
-        <v>1570</v>
-      </c>
-      <c r="M275" s="1" t="s">
-        <v>1572</v>
       </c>
       <c r="N275" s="35"/>
       <c r="P275" s="34" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="Q275" s="1" t="s">
         <v>206</v>
       </c>
       <c r="R275" s="1" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="S275" s="35"/>
       <c r="U275" s="10"/>
@@ -30838,13 +30848,13 @@
     </row>
     <row r="276" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A276" s="165" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C276" s="1" t="s">
         <v>1437</v>
-      </c>
-      <c r="B276" s="1" t="s">
-        <v>1424</v>
-      </c>
-      <c r="C276" s="1" t="s">
-        <v>1438</v>
       </c>
       <c r="D276" s="35"/>
       <c r="F276" s="10"/>
@@ -30852,23 +30862,23 @@
       <c r="H276" s="10"/>
       <c r="I276" s="10"/>
       <c r="K276" s="34" t="s">
+        <v>1572</v>
+      </c>
+      <c r="L276" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="M276" s="1" t="s">
         <v>1573</v>
-      </c>
-      <c r="L276" s="1" t="s">
-        <v>1570</v>
-      </c>
-      <c r="M276" s="1" t="s">
-        <v>1574</v>
       </c>
       <c r="N276" s="35"/>
       <c r="P276" s="34" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="Q276" s="1" t="s">
         <v>206</v>
       </c>
       <c r="R276" s="1" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="S276" s="35"/>
       <c r="U276" s="10"/>
@@ -30879,13 +30889,13 @@
     </row>
     <row r="277" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A277" s="165" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C277" s="1" t="s">
         <v>1439</v>
-      </c>
-      <c r="B277" s="1" t="s">
-        <v>1424</v>
-      </c>
-      <c r="C277" s="1" t="s">
-        <v>1440</v>
       </c>
       <c r="D277" s="35"/>
       <c r="F277" s="10"/>
@@ -30893,23 +30903,23 @@
       <c r="H277" s="10"/>
       <c r="I277" s="10"/>
       <c r="K277" s="54" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="L277" s="1" t="s">
         <v>35</v>
       </c>
       <c r="M277" s="1" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="N277" s="35"/>
       <c r="P277" s="34" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="Q277" s="1" t="s">
         <v>206</v>
       </c>
       <c r="R277" s="1" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="S277" s="35"/>
       <c r="U277" s="10"/>
@@ -30920,13 +30930,13 @@
     </row>
     <row r="278" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A278" s="165" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C278" s="1" t="s">
         <v>1441</v>
-      </c>
-      <c r="B278" s="1" t="s">
-        <v>1424</v>
-      </c>
-      <c r="C278" s="1" t="s">
-        <v>1442</v>
       </c>
       <c r="D278" s="35"/>
       <c r="F278" s="10"/>
@@ -30934,23 +30944,23 @@
       <c r="H278" s="10"/>
       <c r="I278" s="10"/>
       <c r="K278" s="54" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="L278" s="1" t="s">
         <v>206</v>
       </c>
       <c r="M278" s="1" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="N278" s="35"/>
       <c r="P278" s="34" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="Q278" s="1" t="s">
         <v>206</v>
       </c>
       <c r="R278" s="1" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="S278" s="35"/>
       <c r="U278" s="10"/>
@@ -30961,16 +30971,16 @@
     </row>
     <row r="279" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A279" s="165" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C279" s="1" t="s">
         <v>1443</v>
       </c>
-      <c r="B279" s="1" t="s">
-        <v>1424</v>
-      </c>
-      <c r="C279" s="1" t="s">
-        <v>1444</v>
-      </c>
       <c r="D279" s="172" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="F279" s="10"/>
       <c r="G279" s="10"/>
@@ -30983,17 +30993,17 @@
         <v>35</v>
       </c>
       <c r="M279" s="1" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="N279" s="35"/>
       <c r="P279" s="34" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="Q279" s="1" t="s">
         <v>206</v>
       </c>
       <c r="R279" s="1" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="S279" s="35"/>
       <c r="U279" s="10"/>
@@ -31004,13 +31014,13 @@
     </row>
     <row r="280" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A280" s="165" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C280" s="1" t="s">
         <v>1445</v>
-      </c>
-      <c r="B280" s="1" t="s">
-        <v>1423</v>
-      </c>
-      <c r="C280" s="1" t="s">
-        <v>1446</v>
       </c>
       <c r="D280" s="35"/>
       <c r="F280" s="10"/>
@@ -31018,23 +31028,23 @@
       <c r="H280" s="10"/>
       <c r="I280" s="10"/>
       <c r="K280" s="54" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="L280" s="1" t="s">
         <v>35</v>
       </c>
       <c r="M280" s="1" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="N280" s="35"/>
       <c r="P280" s="34" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="Q280" s="1" t="s">
         <v>206</v>
       </c>
       <c r="R280" s="1" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="S280" s="35"/>
       <c r="U280" s="10"/>
@@ -31045,13 +31055,13 @@
     </row>
     <row r="281" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A281" s="165" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C281" s="1" t="s">
         <v>1447</v>
-      </c>
-      <c r="B281" s="1" t="s">
-        <v>1423</v>
-      </c>
-      <c r="C281" s="1" t="s">
-        <v>1448</v>
       </c>
       <c r="D281" s="35"/>
       <c r="F281" s="10"/>
@@ -31059,23 +31069,23 @@
       <c r="H281" s="10"/>
       <c r="I281" s="10"/>
       <c r="K281" s="34" t="s">
+        <v>1581</v>
+      </c>
+      <c r="L281" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="M281" s="1" t="s">
         <v>1582</v>
-      </c>
-      <c r="L281" s="1" t="s">
-        <v>1557</v>
-      </c>
-      <c r="M281" s="1" t="s">
-        <v>1583</v>
       </c>
       <c r="N281" s="35"/>
       <c r="P281" s="34" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="Q281" s="1" t="s">
         <v>206</v>
       </c>
       <c r="R281" s="1" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="S281" s="35"/>
       <c r="U281" s="10"/>
@@ -31086,13 +31096,13 @@
     </row>
     <row r="282" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A282" s="165" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C282" s="1" t="s">
         <v>1449</v>
-      </c>
-      <c r="B282" s="1" t="s">
-        <v>1423</v>
-      </c>
-      <c r="C282" s="1" t="s">
-        <v>1450</v>
       </c>
       <c r="D282" s="35"/>
       <c r="F282" s="10"/>
@@ -31100,23 +31110,23 @@
       <c r="H282" s="10"/>
       <c r="I282" s="10"/>
       <c r="K282" s="54" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="L282" s="1" t="s">
         <v>400</v>
       </c>
       <c r="M282" s="1" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="N282" s="35"/>
       <c r="P282" s="34" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="Q282" s="1" t="s">
         <v>206</v>
       </c>
       <c r="R282" s="1" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="S282" s="35"/>
       <c r="U282" s="10"/>
@@ -31127,13 +31137,13 @@
     </row>
     <row r="283" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A283" s="166" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B283" s="72" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C283" s="72" t="s">
         <v>1451</v>
-      </c>
-      <c r="B283" s="72" t="s">
-        <v>1423</v>
-      </c>
-      <c r="C283" s="72" t="s">
-        <v>1452</v>
       </c>
       <c r="D283" s="116"/>
       <c r="F283" s="10"/>
@@ -31141,23 +31151,23 @@
       <c r="H283" s="10"/>
       <c r="I283" s="10"/>
       <c r="K283" s="34" t="s">
+        <v>1585</v>
+      </c>
+      <c r="L283" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="M283" s="1" t="s">
         <v>1586</v>
-      </c>
-      <c r="L283" s="1" t="s">
-        <v>1557</v>
-      </c>
-      <c r="M283" s="1" t="s">
-        <v>1587</v>
       </c>
       <c r="N283" s="35"/>
       <c r="P283" s="34" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="Q283" s="1" t="s">
         <v>206</v>
       </c>
       <c r="R283" s="1" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="S283" s="35"/>
       <c r="U283" s="10"/>
@@ -31168,13 +31178,13 @@
     </row>
     <row r="284" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A284" s="34" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="D284" s="35"/>
       <c r="F284" s="10"/>
@@ -31182,23 +31192,23 @@
       <c r="H284" s="10"/>
       <c r="I284" s="10"/>
       <c r="K284" s="34" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="L284" s="1" t="s">
         <v>400</v>
       </c>
       <c r="M284" s="1" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="N284" s="35"/>
       <c r="P284" s="34" t="s">
+        <v>1677</v>
+      </c>
+      <c r="Q284" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="R284" s="1" t="s">
         <v>1678</v>
-      </c>
-      <c r="Q284" s="1" t="s">
-        <v>1677</v>
-      </c>
-      <c r="R284" s="1" t="s">
-        <v>1679</v>
       </c>
       <c r="S284" s="35"/>
       <c r="U284" s="10"/>
@@ -31215,7 +31225,7 @@
         <v>31</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="D285" s="35"/>
       <c r="F285" s="10"/>
@@ -31223,23 +31233,23 @@
       <c r="H285" s="10"/>
       <c r="I285" s="10"/>
       <c r="K285" s="34" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="L285" s="1" t="s">
         <v>483</v>
       </c>
       <c r="M285" s="1" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="N285" s="35"/>
       <c r="P285" s="34" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="Q285" s="1" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="R285" s="1" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="S285" s="35"/>
       <c r="U285" s="10"/>
@@ -31264,23 +31274,23 @@
       <c r="H286" s="10"/>
       <c r="I286" s="10"/>
       <c r="K286" s="34" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="L286" s="1" t="s">
         <v>400</v>
       </c>
       <c r="M286" s="1" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="N286" s="35"/>
       <c r="P286" s="34" t="s">
+        <v>1680</v>
+      </c>
+      <c r="Q286" s="1" t="s">
+        <v>1679</v>
+      </c>
+      <c r="R286" s="1" t="s">
         <v>1681</v>
-      </c>
-      <c r="Q286" s="1" t="s">
-        <v>1680</v>
-      </c>
-      <c r="R286" s="1" t="s">
-        <v>1682</v>
       </c>
       <c r="S286" s="35"/>
       <c r="U286" s="10"/>
@@ -31305,23 +31315,23 @@
       <c r="H287" s="10"/>
       <c r="I287" s="10"/>
       <c r="K287" s="34" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="L287" s="1" t="s">
         <v>400</v>
       </c>
       <c r="M287" s="1" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="N287" s="35"/>
       <c r="P287" s="34" t="s">
+        <v>1682</v>
+      </c>
+      <c r="Q287" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="R287" s="1" t="s">
         <v>1683</v>
-      </c>
-      <c r="Q287" s="1" t="s">
-        <v>1677</v>
-      </c>
-      <c r="R287" s="1" t="s">
-        <v>1684</v>
       </c>
       <c r="S287" s="35"/>
       <c r="U287" s="10"/>
@@ -31346,23 +31356,23 @@
       <c r="H288" s="10"/>
       <c r="I288" s="10"/>
       <c r="K288" s="34" t="s">
+        <v>1595</v>
+      </c>
+      <c r="L288" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="M288" s="1" t="s">
         <v>1596</v>
-      </c>
-      <c r="L288" s="1" t="s">
-        <v>1557</v>
-      </c>
-      <c r="M288" s="1" t="s">
-        <v>1597</v>
       </c>
       <c r="N288" s="35"/>
       <c r="P288" s="34" t="s">
+        <v>1685</v>
+      </c>
+      <c r="Q288" s="1" t="s">
+        <v>1684</v>
+      </c>
+      <c r="R288" s="1" t="s">
         <v>1686</v>
-      </c>
-      <c r="Q288" s="1" t="s">
-        <v>1685</v>
-      </c>
-      <c r="R288" s="1" t="s">
-        <v>1687</v>
       </c>
       <c r="S288" s="35"/>
       <c r="U288" s="10"/>
@@ -31379,7 +31389,7 @@
         <v>223</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="D289" s="35"/>
       <c r="F289" s="10"/>
@@ -31387,23 +31397,23 @@
       <c r="H289" s="10"/>
       <c r="I289" s="10"/>
       <c r="K289" s="54" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="L289" s="1" t="s">
         <v>400</v>
       </c>
       <c r="M289" s="1" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="N289" s="35"/>
       <c r="P289" s="34" t="s">
+        <v>1688</v>
+      </c>
+      <c r="Q289" s="1" t="s">
+        <v>1687</v>
+      </c>
+      <c r="R289" s="1" t="s">
         <v>1689</v>
-      </c>
-      <c r="Q289" s="1" t="s">
-        <v>1688</v>
-      </c>
-      <c r="R289" s="1" t="s">
-        <v>1690</v>
       </c>
       <c r="S289" s="35"/>
       <c r="U289" s="10"/>
@@ -31428,26 +31438,26 @@
       <c r="H290" s="10"/>
       <c r="I290" s="10"/>
       <c r="K290" s="34" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="L290" s="1" t="s">
         <v>483</v>
       </c>
       <c r="M290" s="1" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="N290" s="35"/>
       <c r="P290" s="34" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="Q290" s="1" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="R290" s="1" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="S290" s="172" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="U290" s="10"/>
       <c r="V290" s="10"/>
@@ -31457,13 +31467,13 @@
     </row>
     <row r="291" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A291" s="34" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C291" s="1" t="s">
         <v>1457</v>
-      </c>
-      <c r="B291" s="1" t="s">
-        <v>1423</v>
-      </c>
-      <c r="C291" s="1" t="s">
-        <v>1458</v>
       </c>
       <c r="D291" s="35"/>
       <c r="F291" s="10"/>
@@ -31471,23 +31481,23 @@
       <c r="H291" s="10"/>
       <c r="I291" s="10"/>
       <c r="K291" s="34" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="L291" s="1" t="s">
         <v>483</v>
       </c>
       <c r="M291" s="1" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="N291" s="35"/>
       <c r="P291" s="34" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="Q291" s="1" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="R291" s="1" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="S291" s="35"/>
       <c r="U291" s="10"/>
@@ -31498,13 +31508,13 @@
     </row>
     <row r="292" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A292" s="34" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C292" s="1" t="s">
         <v>1459</v>
-      </c>
-      <c r="B292" s="1" t="s">
-        <v>1423</v>
-      </c>
-      <c r="C292" s="1" t="s">
-        <v>1460</v>
       </c>
       <c r="D292" s="35"/>
       <c r="F292" s="10"/>
@@ -31518,17 +31528,17 @@
         <v>223</v>
       </c>
       <c r="M292" s="1" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="N292" s="35"/>
       <c r="P292" s="34" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="Q292" s="1" t="s">
         <v>400</v>
       </c>
       <c r="R292" s="1" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="S292" s="35"/>
       <c r="U292" s="10"/>
@@ -31539,13 +31549,13 @@
     </row>
     <row r="293" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A293" s="34" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="B293" s="1" t="s">
         <v>206</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="D293" s="35"/>
       <c r="F293" s="10"/>
@@ -31553,23 +31563,23 @@
       <c r="H293" s="10"/>
       <c r="I293" s="10"/>
       <c r="K293" s="118" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="L293" s="73" t="s">
         <v>35</v>
       </c>
       <c r="M293" s="73" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="N293" s="115"/>
       <c r="P293" s="34" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="Q293" s="1" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="R293" s="1" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="S293" s="35"/>
       <c r="U293" s="10"/>
@@ -31586,7 +31596,7 @@
         <v>206</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="D294" s="35"/>
       <c r="F294" s="10"/>
@@ -31594,23 +31604,23 @@
       <c r="H294" s="10"/>
       <c r="I294" s="10"/>
       <c r="K294" s="34" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="L294" s="1" t="s">
         <v>35</v>
       </c>
       <c r="M294" s="1" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="N294" s="35"/>
       <c r="P294" s="34" t="s">
+        <v>1694</v>
+      </c>
+      <c r="Q294" s="1" t="s">
+        <v>1693</v>
+      </c>
+      <c r="R294" s="1" t="s">
         <v>1695</v>
-      </c>
-      <c r="Q294" s="1" t="s">
-        <v>1694</v>
-      </c>
-      <c r="R294" s="1" t="s">
-        <v>1696</v>
       </c>
       <c r="S294" s="35"/>
       <c r="U294" s="10"/>
@@ -31635,23 +31645,23 @@
       <c r="H295" s="10"/>
       <c r="I295" s="10"/>
       <c r="K295" s="34" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="L295" s="1" t="s">
         <v>35</v>
       </c>
       <c r="M295" s="1" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="N295" s="35"/>
       <c r="P295" s="34" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="Q295" s="1" t="s">
         <v>400</v>
       </c>
       <c r="R295" s="1" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="S295" s="35"/>
       <c r="U295" s="10"/>
@@ -31676,23 +31686,23 @@
       <c r="H296" s="10"/>
       <c r="I296" s="10"/>
       <c r="K296" s="133" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="L296" s="72" t="s">
         <v>35</v>
       </c>
       <c r="M296" s="28" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="N296" s="116"/>
       <c r="P296" s="34" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="Q296" s="1" t="s">
         <v>35</v>
       </c>
       <c r="R296" s="1" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="S296" s="35"/>
       <c r="U296" s="10"/>
@@ -31703,13 +31713,13 @@
     </row>
     <row r="297" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A297" s="164" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B297" s="73" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C297" s="73" t="s">
         <v>1464</v>
-      </c>
-      <c r="B297" s="73" t="s">
-        <v>1423</v>
-      </c>
-      <c r="C297" s="73" t="s">
-        <v>1465</v>
       </c>
       <c r="D297" s="115"/>
       <c r="F297" s="10"/>
@@ -31717,26 +31727,26 @@
       <c r="H297" s="10"/>
       <c r="I297" s="10"/>
       <c r="K297" s="54" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="L297" s="1" t="s">
         <v>483</v>
       </c>
       <c r="M297" s="2" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="N297" s="35"/>
       <c r="P297" s="132" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="Q297" s="73" t="s">
         <v>206</v>
       </c>
       <c r="R297" s="73" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="S297" s="115" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="U297" s="10"/>
       <c r="V297" s="10"/>
@@ -31746,13 +31756,13 @@
     </row>
     <row r="298" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A298" s="165" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C298" s="1" t="s">
         <v>1466</v>
-      </c>
-      <c r="B298" s="1" t="s">
-        <v>1423</v>
-      </c>
-      <c r="C298" s="1" t="s">
-        <v>1467</v>
       </c>
       <c r="D298" s="35"/>
       <c r="F298" s="10"/>
@@ -31766,17 +31776,17 @@
         <v>483</v>
       </c>
       <c r="M298" s="2" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="N298" s="35"/>
       <c r="P298" s="145" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="Q298" s="72" t="s">
         <v>206</v>
       </c>
       <c r="R298" s="72" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="S298" s="116"/>
       <c r="U298" s="10"/>
@@ -31787,13 +31797,13 @@
     </row>
     <row r="299" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A299" s="165" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C299" s="1" t="s">
         <v>1468</v>
-      </c>
-      <c r="B299" s="1" t="s">
-        <v>1423</v>
-      </c>
-      <c r="C299" s="1" t="s">
-        <v>1469</v>
       </c>
       <c r="D299" s="35"/>
       <c r="F299" s="10"/>
@@ -31801,23 +31811,23 @@
       <c r="H299" s="10"/>
       <c r="I299" s="10"/>
       <c r="K299" s="132" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="L299" s="73" t="s">
         <v>442</v>
       </c>
       <c r="M299" s="26" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="N299" s="115"/>
       <c r="P299" s="34" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="Q299" s="1" t="s">
         <v>35</v>
       </c>
       <c r="R299" s="1" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="S299" s="35"/>
       <c r="U299" s="10"/>
@@ -31828,13 +31838,13 @@
     </row>
     <row r="300" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A300" s="165" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C300" s="1" t="s">
         <v>1470</v>
-      </c>
-      <c r="B300" s="1" t="s">
-        <v>1423</v>
-      </c>
-      <c r="C300" s="1" t="s">
-        <v>1471</v>
       </c>
       <c r="D300" s="35"/>
       <c r="F300" s="10"/>
@@ -31842,26 +31852,26 @@
       <c r="H300" s="10"/>
       <c r="I300" s="10"/>
       <c r="K300" s="54" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="L300" s="1" t="s">
         <v>442</v>
       </c>
       <c r="M300" s="1" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="N300" s="35"/>
       <c r="P300" s="132" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="Q300" s="73" t="s">
         <v>206</v>
       </c>
       <c r="R300" s="73" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="S300" s="115" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="U300" s="10"/>
       <c r="V300" s="10"/>
@@ -31871,13 +31881,13 @@
     </row>
     <row r="301" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A301" s="165" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C301" s="1" t="s">
         <v>1472</v>
-      </c>
-      <c r="B301" s="1" t="s">
-        <v>1423</v>
-      </c>
-      <c r="C301" s="1" t="s">
-        <v>1473</v>
       </c>
       <c r="D301" s="35"/>
       <c r="F301" s="10"/>
@@ -31885,23 +31895,23 @@
       <c r="H301" s="10"/>
       <c r="I301" s="10"/>
       <c r="K301" s="54" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="L301" s="1" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="M301" s="2" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="N301" s="35"/>
       <c r="P301" s="34" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="Q301" s="1" t="s">
         <v>206</v>
       </c>
       <c r="R301" s="1" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="S301" s="35"/>
       <c r="U301" s="10"/>
@@ -31912,13 +31922,13 @@
     </row>
     <row r="302" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A302" s="165" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C302" s="1" t="s">
         <v>1474</v>
-      </c>
-      <c r="B302" s="1" t="s">
-        <v>1423</v>
-      </c>
-      <c r="C302" s="1" t="s">
-        <v>1475</v>
       </c>
       <c r="D302" s="35"/>
       <c r="F302" s="10"/>
@@ -31926,23 +31936,23 @@
       <c r="H302" s="10"/>
       <c r="I302" s="10"/>
       <c r="K302" s="54" t="s">
+        <v>1617</v>
+      </c>
+      <c r="L302" s="1" t="s">
+        <v>1615</v>
+      </c>
+      <c r="M302" s="1" t="s">
         <v>1618</v>
-      </c>
-      <c r="L302" s="1" t="s">
-        <v>1616</v>
-      </c>
-      <c r="M302" s="1" t="s">
-        <v>1619</v>
       </c>
       <c r="N302" s="35"/>
       <c r="P302" s="34" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="Q302" s="1" t="s">
         <v>206</v>
       </c>
       <c r="R302" s="1" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="S302" s="35"/>
       <c r="U302" s="10"/>
@@ -31953,13 +31963,13 @@
     </row>
     <row r="303" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A303" s="165" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C303" s="1" t="s">
         <v>1476</v>
-      </c>
-      <c r="B303" s="1" t="s">
-        <v>1423</v>
-      </c>
-      <c r="C303" s="1" t="s">
-        <v>1477</v>
       </c>
       <c r="D303" s="35"/>
       <c r="F303" s="10"/>
@@ -31967,23 +31977,23 @@
       <c r="H303" s="10"/>
       <c r="I303" s="10"/>
       <c r="K303" s="54" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="L303" s="1" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="M303" s="1" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="N303" s="35"/>
       <c r="P303" s="34" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="Q303" s="1" t="s">
         <v>206</v>
       </c>
       <c r="R303" s="1" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="S303" s="35"/>
       <c r="U303" s="10"/>
@@ -31994,13 +32004,13 @@
     </row>
     <row r="304" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A304" s="165" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C304" s="1" t="s">
         <v>1478</v>
-      </c>
-      <c r="B304" s="1" t="s">
-        <v>1423</v>
-      </c>
-      <c r="C304" s="1" t="s">
-        <v>1479</v>
       </c>
       <c r="D304" s="35"/>
       <c r="F304" s="10"/>
@@ -32008,23 +32018,23 @@
       <c r="H304" s="10"/>
       <c r="I304" s="10"/>
       <c r="K304" s="133" t="s">
+        <v>1621</v>
+      </c>
+      <c r="L304" s="72" t="s">
+        <v>1620</v>
+      </c>
+      <c r="M304" s="72" t="s">
         <v>1622</v>
-      </c>
-      <c r="L304" s="72" t="s">
-        <v>1621</v>
-      </c>
-      <c r="M304" s="72" t="s">
-        <v>1623</v>
       </c>
       <c r="N304" s="116"/>
       <c r="P304" s="34" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="Q304" s="1" t="s">
         <v>206</v>
       </c>
       <c r="R304" s="1" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="S304" s="35"/>
       <c r="U304" s="10"/>
@@ -32035,13 +32045,13 @@
     </row>
     <row r="305" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A305" s="165" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C305" s="1" t="s">
         <v>1480</v>
-      </c>
-      <c r="B305" s="1" t="s">
-        <v>1423</v>
-      </c>
-      <c r="C305" s="1" t="s">
-        <v>1481</v>
       </c>
       <c r="D305" s="35"/>
       <c r="F305" s="10"/>
@@ -32049,23 +32059,23 @@
       <c r="H305" s="10"/>
       <c r="I305" s="10"/>
       <c r="K305" s="132" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="L305" s="73" t="s">
         <v>35</v>
       </c>
       <c r="M305" s="26" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="N305" s="115"/>
       <c r="P305" s="34" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="Q305" s="1" t="s">
         <v>206</v>
       </c>
       <c r="R305" s="1" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="S305" s="35"/>
       <c r="U305" s="10"/>
@@ -32076,13 +32086,13 @@
     </row>
     <row r="306" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A306" s="165" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C306" s="1" t="s">
         <v>1482</v>
-      </c>
-      <c r="B306" s="1" t="s">
-        <v>1423</v>
-      </c>
-      <c r="C306" s="1" t="s">
-        <v>1483</v>
       </c>
       <c r="D306" s="35"/>
       <c r="F306" s="10"/>
@@ -32090,23 +32100,23 @@
       <c r="H306" s="10"/>
       <c r="I306" s="10"/>
       <c r="K306" s="145" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="L306" s="72" t="s">
         <v>35</v>
       </c>
       <c r="M306" s="72" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="N306" s="116"/>
       <c r="P306" s="145" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="Q306" s="72" t="s">
         <v>206</v>
       </c>
       <c r="R306" s="72" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="S306" s="116"/>
       <c r="U306" s="10"/>
@@ -32117,13 +32127,13 @@
     </row>
     <row r="307" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A307" s="165" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C307" s="1" t="s">
         <v>1484</v>
-      </c>
-      <c r="B307" s="1" t="s">
-        <v>1423</v>
-      </c>
-      <c r="C307" s="1" t="s">
-        <v>1485</v>
       </c>
       <c r="D307" s="35"/>
       <c r="F307" s="10"/>
@@ -32131,23 +32141,23 @@
       <c r="H307" s="10"/>
       <c r="I307" s="10"/>
       <c r="K307" s="48" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="L307" s="127" t="s">
         <v>35</v>
       </c>
       <c r="M307" s="29" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="N307" s="188"/>
       <c r="P307" s="34" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="Q307" s="1" t="s">
         <v>206</v>
       </c>
       <c r="R307" s="1" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="S307" s="35"/>
       <c r="U307" s="10"/>
@@ -32158,39 +32168,39 @@
     </row>
     <row r="308" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A308" s="166" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B308" s="72" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C308" s="72" t="s">
         <v>1486</v>
       </c>
-      <c r="B308" s="72" t="s">
-        <v>1423</v>
-      </c>
-      <c r="C308" s="72" t="s">
-        <v>1487</v>
-      </c>
       <c r="D308" s="173" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="F308" s="10"/>
       <c r="G308" s="10"/>
       <c r="H308" s="10"/>
       <c r="I308" s="10"/>
       <c r="K308" s="34" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="L308" s="1" t="s">
         <v>35</v>
       </c>
       <c r="M308" s="1" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="N308" s="35"/>
       <c r="P308" s="34" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="Q308" s="1" t="s">
         <v>206</v>
       </c>
       <c r="R308" s="1" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="S308" s="35"/>
       <c r="U308" s="10"/>
@@ -32215,23 +32225,23 @@
       <c r="H309" s="10"/>
       <c r="I309" s="10"/>
       <c r="K309" s="34" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="L309" s="1" t="s">
         <v>35</v>
       </c>
       <c r="M309" s="1" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="N309" s="35"/>
       <c r="P309" s="34" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="Q309" s="1" t="s">
         <v>206</v>
       </c>
       <c r="R309" s="1" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="S309" s="35"/>
       <c r="U309" s="10"/>
@@ -32256,23 +32266,23 @@
       <c r="H310" s="10"/>
       <c r="I310" s="10"/>
       <c r="K310" s="34" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="L310" s="1" t="s">
         <v>35</v>
       </c>
       <c r="M310" s="1" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="N310" s="35"/>
       <c r="P310" s="34" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="Q310" s="1" t="s">
         <v>206</v>
       </c>
       <c r="R310" s="1" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="S310" s="35"/>
       <c r="U310" s="10"/>
@@ -32289,7 +32299,7 @@
         <v>223</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="D311" s="35"/>
       <c r="F311" s="10"/>
@@ -32297,23 +32307,23 @@
       <c r="H311" s="10"/>
       <c r="I311" s="10"/>
       <c r="K311" s="34" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="L311" s="1" t="s">
         <v>35</v>
       </c>
       <c r="M311" s="1" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="N311" s="35"/>
       <c r="P311" s="34" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="Q311" s="1" t="s">
         <v>206</v>
       </c>
       <c r="R311" s="1" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="S311" s="35"/>
       <c r="U311" s="10"/>
@@ -32330,7 +32340,7 @@
         <v>223</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="D312" s="35"/>
       <c r="F312" s="10"/>
@@ -32338,23 +32348,23 @@
       <c r="H312" s="10"/>
       <c r="I312" s="10"/>
       <c r="K312" s="34" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="L312" s="1" t="s">
         <v>35</v>
       </c>
       <c r="M312" s="1" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="N312" s="35"/>
       <c r="P312" s="34" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="Q312" s="1" t="s">
         <v>206</v>
       </c>
       <c r="R312" s="1" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="S312" s="35"/>
       <c r="U312" s="10"/>
@@ -32365,13 +32375,13 @@
     </row>
     <row r="313" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A313" s="34" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C313" s="1" t="s">
         <v>1490</v>
-      </c>
-      <c r="B313" s="1" t="s">
-        <v>1423</v>
-      </c>
-      <c r="C313" s="1" t="s">
-        <v>1491</v>
       </c>
       <c r="D313" s="35"/>
       <c r="F313" s="10"/>
@@ -32379,17 +32389,17 @@
       <c r="H313" s="10"/>
       <c r="I313" s="10"/>
       <c r="K313" s="34" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="L313" s="1" t="s">
         <v>35</v>
       </c>
       <c r="M313" s="1" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="N313" s="35"/>
       <c r="P313" s="34" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="Q313" s="1" t="s">
         <v>206</v>
@@ -32406,13 +32416,13 @@
     </row>
     <row r="314" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A314" s="34" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C314" s="1" t="s">
         <v>1492</v>
-      </c>
-      <c r="B314" s="1" t="s">
-        <v>1424</v>
-      </c>
-      <c r="C314" s="1" t="s">
-        <v>1493</v>
       </c>
       <c r="D314" s="35"/>
       <c r="F314" s="10"/>
@@ -32420,19 +32430,19 @@
       <c r="H314" s="10"/>
       <c r="I314" s="10"/>
       <c r="K314" s="34" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="L314" s="1" t="s">
         <v>35</v>
       </c>
       <c r="M314" s="1" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="N314" s="35"/>
       <c r="P314" s="34"/>
       <c r="Q314" s="1"/>
       <c r="R314" s="1" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="S314" s="35"/>
       <c r="U314" s="10"/>
@@ -32443,13 +32453,13 @@
     </row>
     <row r="315" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A315" s="34" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>206</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="D315" s="35"/>
       <c r="F315" s="10"/>
@@ -32457,17 +32467,17 @@
       <c r="H315" s="10"/>
       <c r="I315" s="10"/>
       <c r="K315" s="148" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="L315" s="10" t="s">
         <v>35</v>
       </c>
       <c r="M315" s="1" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="N315" s="71"/>
       <c r="P315" s="34" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="Q315" s="1" t="s">
         <v>206</v>
@@ -32484,13 +32494,13 @@
     </row>
     <row r="316" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A316" s="34" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B316" s="1" t="s">
         <v>206</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="D316" s="35"/>
       <c r="F316" s="10"/>
@@ -32498,19 +32508,19 @@
       <c r="H316" s="10"/>
       <c r="I316" s="10"/>
       <c r="K316" s="148" t="s">
+        <v>1644</v>
+      </c>
+      <c r="L316" s="10" t="s">
+        <v>1643</v>
+      </c>
+      <c r="M316" s="1" t="s">
         <v>1645</v>
-      </c>
-      <c r="L316" s="10" t="s">
-        <v>1644</v>
-      </c>
-      <c r="M316" s="1" t="s">
-        <v>1646</v>
       </c>
       <c r="N316" s="71"/>
       <c r="P316" s="34"/>
       <c r="Q316" s="1"/>
       <c r="R316" s="1" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="S316" s="35"/>
       <c r="U316" s="10"/>
@@ -32521,7 +32531,7 @@
     </row>
     <row r="317" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A317" s="34" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="B317" s="1" t="s">
         <v>446</v>
@@ -32541,11 +32551,11 @@
         <v>400</v>
       </c>
       <c r="M317" s="1" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="N317" s="71"/>
       <c r="P317" s="34" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="Q317" s="1" t="s">
         <v>206</v>
@@ -32562,13 +32572,13 @@
     </row>
     <row r="318" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A318" s="34" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="B318" s="1" t="s">
         <v>400</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="D318" s="35"/>
       <c r="F318" s="10"/>
@@ -32576,19 +32586,19 @@
       <c r="H318" s="10"/>
       <c r="I318" s="10"/>
       <c r="K318" s="148" t="s">
+        <v>1648</v>
+      </c>
+      <c r="L318" s="10" t="s">
+        <v>1647</v>
+      </c>
+      <c r="M318" s="1" t="s">
         <v>1649</v>
-      </c>
-      <c r="L318" s="10" t="s">
-        <v>1648</v>
-      </c>
-      <c r="M318" s="1" t="s">
-        <v>1650</v>
       </c>
       <c r="N318" s="71"/>
       <c r="P318" s="34"/>
       <c r="Q318" s="1"/>
       <c r="R318" s="1" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="S318" s="35"/>
       <c r="U318" s="10"/>
@@ -32599,13 +32609,13 @@
     </row>
     <row r="319" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A319" s="34" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B319" s="1" t="s">
         <v>400</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="D319" s="35"/>
       <c r="F319" s="10"/>
@@ -32613,17 +32623,17 @@
       <c r="H319" s="10"/>
       <c r="I319" s="10"/>
       <c r="K319" s="148" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="L319" s="10" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="M319" s="1" t="s">
         <v>816</v>
       </c>
       <c r="N319" s="71"/>
       <c r="P319" s="148" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="Q319" s="10" t="s">
         <v>206</v>
@@ -32643,10 +32653,10 @@
         <v>453</v>
       </c>
       <c r="B320" s="1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C320" s="1" t="s">
         <v>1503</v>
-      </c>
-      <c r="C320" s="1" t="s">
-        <v>1504</v>
       </c>
       <c r="D320" s="35"/>
       <c r="F320" s="10"/>
@@ -32656,13 +32666,13 @@
       <c r="K320" s="67"/>
       <c r="L320" s="62"/>
       <c r="M320" s="42" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="N320" s="68"/>
       <c r="P320" s="148"/>
       <c r="Q320" s="10"/>
       <c r="R320" s="10" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="S320" s="71"/>
       <c r="U320" s="10"/>
@@ -32673,13 +32683,13 @@
     </row>
     <row r="321" spans="1:25" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A321" s="36" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="B321" s="42" t="s">
         <v>206</v>
       </c>
       <c r="C321" s="42" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="D321" s="37"/>
       <c r="F321" s="10"/>
@@ -32690,13 +32700,13 @@
       <c r="L321" s="10"/>
       <c r="N321" s="10"/>
       <c r="P321" s="148" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="Q321" s="10" t="s">
         <v>206</v>
       </c>
       <c r="R321" s="10" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="S321" s="71"/>
       <c r="U321" s="10"/>
@@ -32717,13 +32727,13 @@
       <c r="M322" s="10"/>
       <c r="N322" s="10"/>
       <c r="P322" s="148" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="Q322" s="10" t="s">
         <v>206</v>
       </c>
       <c r="R322" s="10" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="S322" s="71"/>
       <c r="U322" s="10"/>
@@ -32744,13 +32754,13 @@
       <c r="M323" s="10"/>
       <c r="N323" s="10"/>
       <c r="P323" s="148" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="Q323" s="10" t="s">
         <v>206</v>
       </c>
       <c r="R323" s="10" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="S323" s="71"/>
       <c r="U323" s="10"/>
@@ -32771,13 +32781,13 @@
       <c r="M324" s="10"/>
       <c r="N324" s="10"/>
       <c r="P324" s="148" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="Q324" s="10" t="s">
         <v>206</v>
       </c>
       <c r="R324" s="10" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="S324" s="71"/>
       <c r="U324" s="10"/>
@@ -32798,13 +32808,13 @@
       <c r="M325" s="10"/>
       <c r="N325" s="10"/>
       <c r="P325" s="148" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="Q325" s="10" t="s">
         <v>206</v>
       </c>
       <c r="R325" s="10" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="S325" s="71"/>
       <c r="U325" s="10"/>
@@ -32825,13 +32835,13 @@
       <c r="M326" s="10"/>
       <c r="N326" s="10"/>
       <c r="P326" s="148" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="Q326" s="10" t="s">
         <v>206</v>
       </c>
       <c r="R326" s="10" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="S326" s="71"/>
       <c r="U326" s="10"/>
@@ -32852,16 +32862,16 @@
       <c r="M327" s="10"/>
       <c r="N327" s="10"/>
       <c r="P327" s="148" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="Q327" s="10" t="s">
         <v>206</v>
       </c>
       <c r="R327" s="10" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="S327" s="147" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="U327" s="10"/>
       <c r="V327" s="10"/>
@@ -32881,13 +32891,13 @@
       <c r="M328" s="10"/>
       <c r="N328" s="10"/>
       <c r="P328" s="148" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="Q328" s="10" t="s">
         <v>206</v>
       </c>
       <c r="R328" s="10" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="S328" s="71"/>
       <c r="U328" s="10"/>
@@ -32908,13 +32918,13 @@
       <c r="M329" s="10"/>
       <c r="N329" s="10"/>
       <c r="P329" s="148" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="Q329" s="10" t="s">
         <v>206</v>
       </c>
       <c r="R329" s="10" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="S329" s="71"/>
       <c r="U329" s="10"/>
@@ -32935,13 +32945,13 @@
       <c r="M330" s="10"/>
       <c r="N330" s="10"/>
       <c r="P330" s="148" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="Q330" s="10" t="s">
         <v>206</v>
       </c>
       <c r="R330" s="10" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="S330" s="71"/>
       <c r="U330" s="10"/>
@@ -32962,13 +32972,13 @@
       <c r="M331" s="10"/>
       <c r="N331" s="10"/>
       <c r="P331" s="148" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="Q331" s="10" t="s">
         <v>206</v>
       </c>
       <c r="R331" s="10" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="S331" s="71"/>
       <c r="U331" s="10"/>
@@ -32989,13 +32999,13 @@
       <c r="M332" s="10"/>
       <c r="N332" s="10"/>
       <c r="P332" s="148" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="Q332" s="10" t="s">
         <v>206</v>
       </c>
       <c r="R332" s="10" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="S332" s="71"/>
       <c r="U332" s="10"/>
@@ -33016,13 +33026,13 @@
       <c r="M333" s="10"/>
       <c r="N333" s="10"/>
       <c r="P333" s="148" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="Q333" s="10" t="s">
         <v>206</v>
       </c>
       <c r="R333" s="10" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="S333" s="71"/>
       <c r="U333" s="10"/>
@@ -33043,13 +33053,13 @@
       <c r="M334" s="10"/>
       <c r="N334" s="10"/>
       <c r="P334" s="148" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="Q334" s="10" t="s">
         <v>206</v>
       </c>
       <c r="R334" s="10" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="S334" s="71"/>
       <c r="U334" s="10"/>
@@ -33070,13 +33080,13 @@
       <c r="M335" s="10"/>
       <c r="N335" s="10"/>
       <c r="P335" s="67" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="Q335" s="62" t="s">
         <v>206</v>
       </c>
       <c r="R335" s="62" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="S335" s="68"/>
       <c r="U335" s="10"/>
@@ -33149,7 +33159,7 @@
     </row>
     <row r="339" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A339" s="1" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="P339" s="1"/>
       <c r="U339" s="1"/>
@@ -33157,13 +33167,13 @@
     </row>
     <row r="340" spans="1:25" ht="174" x14ac:dyDescent="0.35">
       <c r="A340" s="2" t="s">
+        <v>2199</v>
+      </c>
+      <c r="C340" s="293" t="s">
         <v>2200</v>
       </c>
-      <c r="C340" s="293" t="s">
-        <v>2201</v>
-      </c>
       <c r="D340" s="293" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="F340" s="10"/>
       <c r="G340" s="10"/>
@@ -33186,7 +33196,7 @@
     <row r="341" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A341" s="2"/>
       <c r="C341" s="293" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="D341" s="10"/>
       <c r="F341" s="10"/>
@@ -33351,7 +33361,7 @@
         <v>161</v>
       </c>
       <c r="C349" s="130" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="D349" s="194" t="s">
         <v>162</v>
@@ -33360,22 +33370,22 @@
         <v>169</v>
       </c>
       <c r="G349" s="214" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="H349" s="203" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="I349" s="204" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="K349" s="91" t="s">
         <v>151</v>
       </c>
       <c r="L349" s="41" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="M349" s="203" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="N349" s="194" t="s">
         <v>152</v>
@@ -33402,30 +33412,30 @@
     </row>
     <row r="350" spans="1:25" ht="203" x14ac:dyDescent="0.35">
       <c r="A350" s="223" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B350" s="292" t="s">
+        <v>2196</v>
+      </c>
+      <c r="C350" s="221" t="s">
         <v>1874</v>
-      </c>
-      <c r="B350" s="292" t="s">
-        <v>2197</v>
-      </c>
-      <c r="C350" s="221" t="s">
-        <v>1875</v>
       </c>
       <c r="D350" s="71"/>
       <c r="F350" s="91" t="s">
         <v>165</v>
       </c>
       <c r="G350" s="17" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="H350" s="203" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="I350" s="194" t="s">
         <v>168</v>
       </c>
       <c r="K350" s="34"/>
       <c r="M350" s="191" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="N350" s="212" t="s">
         <v>153</v>
@@ -33437,40 +33447,40 @@
         <v>159</v>
       </c>
       <c r="S350" s="211" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="U350" s="1"/>
       <c r="Y350" s="10"/>
     </row>
     <row r="351" spans="1:25" ht="102" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A351" s="132" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B351" s="73" t="s">
         <v>206</v>
       </c>
       <c r="C351" s="26" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="D351" s="115"/>
       <c r="F351" s="206" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="G351" s="205" t="s">
         <v>206</v>
       </c>
       <c r="H351" s="205" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="I351" s="207"/>
       <c r="K351" s="148" t="s">
         <v>213</v>
       </c>
       <c r="L351" s="10" t="s">
+        <v>1850</v>
+      </c>
+      <c r="M351" s="1" t="s">
         <v>1851</v>
-      </c>
-      <c r="M351" s="1" t="s">
-        <v>1852</v>
       </c>
       <c r="N351" s="71"/>
       <c r="P351" s="36"/>
@@ -33484,7 +33494,7 @@
     </row>
     <row r="352" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A352" s="266" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="B352" s="10" t="s">
         <v>35</v>
@@ -33494,13 +33504,13 @@
       </c>
       <c r="D352" s="71"/>
       <c r="F352" s="200" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="G352" s="196" t="s">
         <v>35</v>
       </c>
       <c r="H352" s="196" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="I352" s="201"/>
       <c r="K352" s="148" t="s">
@@ -33510,7 +33520,7 @@
         <v>35</v>
       </c>
       <c r="M352" s="1" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="N352" s="71"/>
       <c r="P352" s="1"/>
@@ -33521,7 +33531,7 @@
     </row>
     <row r="353" spans="1:25" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A353" s="266" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="B353" s="10" t="s">
         <v>35</v>
@@ -33530,26 +33540,26 @@
         <v>209</v>
       </c>
       <c r="D353" s="265" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="F353" s="198" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="G353" s="75" t="s">
         <v>35</v>
       </c>
       <c r="H353" s="75" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="I353" s="199"/>
       <c r="K353" s="148" t="s">
+        <v>1854</v>
+      </c>
+      <c r="L353" s="10" t="s">
+        <v>1853</v>
+      </c>
+      <c r="M353" s="1" t="s">
         <v>1855</v>
-      </c>
-      <c r="L353" s="10" t="s">
-        <v>1854</v>
-      </c>
-      <c r="M353" s="1" t="s">
-        <v>1856</v>
       </c>
       <c r="N353" s="71"/>
       <c r="P353" s="1"/>
@@ -33563,23 +33573,23 @@
     </row>
     <row r="354" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A354" s="198" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="B354" s="75" t="s">
         <v>35</v>
       </c>
       <c r="C354" s="72" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="D354" s="199"/>
       <c r="F354" s="208" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="G354" s="196" t="s">
         <v>216</v>
       </c>
       <c r="H354" s="196" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="I354" s="201"/>
       <c r="K354" s="148" t="s">
@@ -33589,7 +33599,7 @@
         <v>223</v>
       </c>
       <c r="M354" s="1" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="N354" s="71"/>
       <c r="P354" s="1"/>
@@ -33609,27 +33619,27 @@
         <v>206</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="D355" s="71"/>
       <c r="F355" s="148" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="G355" s="10" t="s">
         <v>223</v>
       </c>
       <c r="H355" s="10" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="I355" s="71"/>
       <c r="K355" s="148" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="L355" s="10" t="s">
         <v>206</v>
       </c>
       <c r="M355" s="1" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="N355" s="71"/>
       <c r="P355" s="1"/>
@@ -33649,29 +33659,29 @@
         <v>151</v>
       </c>
       <c r="C356" s="2" t="s">
+        <v>2078</v>
+      </c>
+      <c r="D356" s="265" t="s">
         <v>2079</v>
       </c>
-      <c r="D356" s="265" t="s">
-        <v>2080</v>
-      </c>
       <c r="F356" s="148" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="G356" s="10" t="s">
         <v>216</v>
       </c>
       <c r="H356" s="10" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="I356" s="71"/>
       <c r="K356" s="148" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="L356" s="10" t="s">
         <v>206</v>
       </c>
       <c r="M356" s="1" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="N356" s="71"/>
       <c r="P356" s="1"/>
@@ -33685,23 +33695,23 @@
     </row>
     <row r="357" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A357" s="195" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="B357" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="D357" s="71"/>
       <c r="F357" s="202" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="G357" s="75" t="s">
         <v>223</v>
       </c>
       <c r="H357" s="75" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="I357" s="199"/>
       <c r="K357" s="197" t="s">
@@ -33711,7 +33721,7 @@
         <v>400</v>
       </c>
       <c r="M357" s="1" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="N357" s="71"/>
       <c r="P357" s="1"/>
@@ -33725,11 +33735,11 @@
     </row>
     <row r="358" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A358" s="34" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="B358" s="1"/>
       <c r="C358" s="1" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="D358" s="35"/>
       <c r="F358" s="148" t="s">
@@ -33739,17 +33749,17 @@
         <v>206</v>
       </c>
       <c r="H358" s="10" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="I358" s="71"/>
       <c r="K358" s="148" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="L358" s="10" t="s">
         <v>206</v>
       </c>
       <c r="M358" s="1" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="N358" s="71"/>
       <c r="P358" s="1"/>
@@ -33763,33 +33773,33 @@
     </row>
     <row r="359" spans="1:25" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A359" s="148" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="B359" s="10" t="s">
         <v>206</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="D359" s="71"/>
       <c r="F359" s="151" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="G359" s="62" t="s">
         <v>206</v>
       </c>
       <c r="H359" s="62" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="I359" s="68"/>
       <c r="K359" s="148" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="L359" s="10" t="s">
         <v>206</v>
       </c>
       <c r="M359" s="1" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="N359" s="71"/>
       <c r="P359" s="1"/>
@@ -33803,24 +33813,24 @@
     </row>
     <row r="360" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A360" s="148" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="B360" s="10" t="s">
         <v>206</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="D360" s="71"/>
       <c r="G360" s="1"/>
       <c r="K360" s="67" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="L360" s="62" t="s">
         <v>206</v>
       </c>
       <c r="M360" s="42" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="N360" s="68"/>
       <c r="P360" s="1"/>
@@ -33834,13 +33844,13 @@
     </row>
     <row r="361" spans="1:25" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A361" s="266" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="B361" s="10" t="s">
         <v>216</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="D361" s="71"/>
       <c r="G361" s="1"/>
@@ -33855,28 +33865,28 @@
     </row>
     <row r="362" spans="1:25" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A362" s="266" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="B362" s="10" t="s">
         <v>223</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="D362" s="265" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="F362" s="283" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="G362" s="58" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="H362" s="58" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="I362" s="56" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="P362" s="1"/>
       <c r="Q362" s="1"/>
@@ -33895,10 +33905,10 @@
         <v>35</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="D363" s="265" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="G363" s="17"/>
       <c r="P363" s="1"/>
@@ -33918,7 +33928,7 @@
         <v>273</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="D364" s="71"/>
       <c r="G364" s="1"/>
@@ -33933,13 +33943,13 @@
     </row>
     <row r="365" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A365" s="195" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="B365" s="10" t="s">
         <v>223</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="D365" s="71"/>
       <c r="G365" s="1"/>
@@ -33959,13 +33969,13 @@
     </row>
     <row r="366" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A366" s="148" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="B366" s="10" t="s">
         <v>165</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="D366" s="71"/>
       <c r="G366" s="1"/>
@@ -33985,13 +33995,13 @@
     </row>
     <row r="367" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A367" s="148" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="B367" s="10" t="s">
         <v>165</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D367" s="71"/>
       <c r="G367" s="1"/>
@@ -34011,16 +34021,16 @@
     </row>
     <row r="368" spans="1:25" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A368" s="269" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="B368" s="196" t="s">
         <v>216</v>
       </c>
       <c r="C368" s="26" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="D368" s="268" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="G368" s="1"/>
       <c r="K368" s="10"/>
@@ -34039,7 +34049,7 @@
     </row>
     <row r="369" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A369" s="266" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="B369" s="10" t="s">
         <v>35</v>
@@ -34048,7 +34058,7 @@
         <v>242</v>
       </c>
       <c r="D369" s="270" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="G369" s="1"/>
       <c r="K369" s="10"/>
@@ -34067,16 +34077,16 @@
     </row>
     <row r="370" spans="1:25" ht="145" x14ac:dyDescent="0.35">
       <c r="A370" s="266" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="B370" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="D370" s="265" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="G370" s="1"/>
       <c r="K370" s="10"/>
@@ -34095,13 +34105,13 @@
     </row>
     <row r="371" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A371" s="148" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="B371" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="D371" s="71"/>
       <c r="G371" s="1"/>
@@ -34121,13 +34131,13 @@
     </row>
     <row r="372" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A372" s="202" t="s">
+        <v>1809</v>
+      </c>
+      <c r="B372" s="75" t="s">
+        <v>1808</v>
+      </c>
+      <c r="C372" s="72" t="s">
         <v>1810</v>
-      </c>
-      <c r="B372" s="75" t="s">
-        <v>1809</v>
-      </c>
-      <c r="C372" s="72" t="s">
-        <v>1811</v>
       </c>
       <c r="D372" s="199"/>
       <c r="G372" s="1"/>
@@ -34147,13 +34157,13 @@
     </row>
     <row r="373" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A373" s="148" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="B373" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="D373" s="71"/>
       <c r="G373" s="1"/>
@@ -34173,13 +34183,13 @@
     </row>
     <row r="374" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A374" s="195" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="B374" s="10" t="s">
         <v>216</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="D374" s="71"/>
       <c r="G374" s="1"/>
@@ -34225,13 +34235,13 @@
     </row>
     <row r="376" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A376" s="148" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B376" s="10" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C376" s="1" t="s">
         <v>1541</v>
-      </c>
-      <c r="B376" s="10" t="s">
-        <v>1540</v>
-      </c>
-      <c r="C376" s="1" t="s">
-        <v>1542</v>
       </c>
       <c r="D376" s="71"/>
       <c r="G376" s="1"/>
@@ -34251,13 +34261,13 @@
     </row>
     <row r="377" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A377" s="195" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="B377" s="10" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="D377" s="71"/>
       <c r="G377" s="1"/>
@@ -34283,10 +34293,10 @@
         <v>252</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="D378" s="265" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="G378" s="1"/>
       <c r="K378" s="10"/>
@@ -34305,16 +34315,16 @@
     </row>
     <row r="379" spans="1:25" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A379" s="266" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="B379" s="10" t="s">
         <v>255</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="D379" s="265" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="G379" s="1"/>
       <c r="K379" s="10"/>
@@ -34337,7 +34347,7 @@
       </c>
       <c r="B380" s="1"/>
       <c r="C380" s="1" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="D380" s="35"/>
       <c r="G380" s="1"/>
@@ -34357,13 +34367,13 @@
     </row>
     <row r="381" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A381" s="67" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="B381" s="62" t="s">
         <v>206</v>
       </c>
       <c r="C381" s="42" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="D381" s="68"/>
       <c r="G381" s="1"/>
@@ -34420,7 +34430,7 @@
     </row>
     <row r="384" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A384" s="1" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="P384" s="1"/>
       <c r="U384" s="1"/>
@@ -34428,13 +34438,13 @@
     </row>
     <row r="385" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A385" s="4" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C385" s="224" t="s">
+        <v>1889</v>
+      </c>
+      <c r="D385" s="224" t="s">
         <v>1877</v>
-      </c>
-      <c r="C385" s="224" t="s">
-        <v>1890</v>
-      </c>
-      <c r="D385" s="224" t="s">
-        <v>1878</v>
       </c>
       <c r="G385" s="1"/>
       <c r="K385" s="10"/>
@@ -34453,13 +34463,13 @@
     </row>
     <row r="386" spans="1:25" ht="58" x14ac:dyDescent="0.35">
       <c r="A386" s="1" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B386" s="2" t="s">
         <v>1879</v>
       </c>
-      <c r="B386" s="2" t="s">
-        <v>1880</v>
-      </c>
       <c r="C386" s="224" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="D386" s="10"/>
       <c r="G386" s="1"/>
@@ -34479,13 +34489,13 @@
     </row>
     <row r="387" spans="1:25" ht="116" x14ac:dyDescent="0.35">
       <c r="A387" s="1" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B387" s="2" t="s">
         <v>1881</v>
       </c>
-      <c r="B387" s="2" t="s">
-        <v>1882</v>
-      </c>
       <c r="C387" s="224" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="D387" s="10"/>
       <c r="G387" s="1"/>
@@ -34505,16 +34515,16 @@
     </row>
     <row r="388" spans="1:25" ht="87" x14ac:dyDescent="0.35">
       <c r="A388" s="1" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="B388" s="2" t="s">
+        <v>1884</v>
+      </c>
+      <c r="C388" s="224" t="s">
         <v>1885</v>
       </c>
-      <c r="C388" s="224" t="s">
+      <c r="D388" s="224" t="s">
         <v>1886</v>
-      </c>
-      <c r="D388" s="224" t="s">
-        <v>1887</v>
       </c>
       <c r="G388" s="1"/>
       <c r="K388" s="10"/>
@@ -34533,13 +34543,13 @@
     </row>
     <row r="389" spans="1:25" ht="174" x14ac:dyDescent="0.35">
       <c r="A389" s="2" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="C389" s="245" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="D389" s="10"/>
       <c r="G389" s="1"/>
@@ -34559,10 +34569,10 @@
     </row>
     <row r="390" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A390" s="1" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="C390" s="249" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D390" s="10"/>
       <c r="G390" s="1"/>
@@ -34582,13 +34592,13 @@
     </row>
     <row r="391" spans="1:25" ht="58" x14ac:dyDescent="0.35">
       <c r="A391" s="1" t="s">
+        <v>1960</v>
+      </c>
+      <c r="C391" s="245" t="s">
         <v>1961</v>
       </c>
-      <c r="C391" s="245" t="s">
-        <v>1962</v>
-      </c>
       <c r="D391" s="245" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="G391" s="1"/>
       <c r="K391" s="10"/>
@@ -34607,13 +34617,13 @@
     </row>
     <row r="392" spans="1:25" ht="116" x14ac:dyDescent="0.35">
       <c r="A392" s="1" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C392" s="249" t="s">
+        <v>2003</v>
+      </c>
+      <c r="D392" s="249" t="s">
         <v>2004</v>
-      </c>
-      <c r="D392" s="249" t="s">
-        <v>2005</v>
       </c>
       <c r="G392" s="1"/>
       <c r="K392" s="10"/>
@@ -34632,11 +34642,11 @@
     </row>
     <row r="393" spans="1:25" ht="87" x14ac:dyDescent="0.35">
       <c r="A393" s="1" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C393" s="249"/>
       <c r="D393" s="249" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="F393" s="10"/>
       <c r="G393" s="10"/>
@@ -34738,7 +34748,7 @@
         <v>193</v>
       </c>
       <c r="G398" s="244" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="H398" s="79" t="s">
         <v>191</v>
@@ -34750,7 +34760,7 @@
         <v>299</v>
       </c>
       <c r="L398" s="138" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="M398" s="79" t="s">
         <v>301</v>
@@ -34816,7 +34826,7 @@
         <v>194</v>
       </c>
       <c r="H400" s="296" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="I400" s="35"/>
       <c r="K400" s="34" t="s">
@@ -34937,13 +34947,13 @@
         <v>175</v>
       </c>
       <c r="B408" s="272" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="C408" s="272" t="s">
         <v>192</v>
       </c>
       <c r="D408" s="18" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="F408" s="90" t="s">
         <v>195</v>
@@ -34961,7 +34971,7 @@
         <v>269</v>
       </c>
       <c r="L408" s="17" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="M408" s="86" t="s">
         <v>317</v>
@@ -34975,10 +34985,10 @@
         <v>189</v>
       </c>
       <c r="B409" s="135" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="C409" s="225" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="D409" s="35"/>
       <c r="F409" s="19"/>
@@ -34992,7 +35002,7 @@
         <v>321</v>
       </c>
       <c r="K409" s="242" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="L409" s="87" t="s">
         <v>35</v>
@@ -35017,26 +35027,26 @@
         <v>257</v>
       </c>
       <c r="G410" s="2" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="H410" s="81" t="s">
         <v>296</v>
       </c>
       <c r="I410" s="35"/>
       <c r="K410" s="243" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="L410" s="85" t="s">
         <v>35</v>
       </c>
       <c r="M410" s="87" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="N410" s="35"/>
     </row>
     <row r="411" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A411" s="174" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B411" s="175" t="s">
         <v>206</v>
@@ -35051,19 +35061,19 @@
       </c>
       <c r="I411" s="35"/>
       <c r="K411" s="242" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="L411" s="85" t="s">
         <v>206</v>
       </c>
       <c r="M411" s="87" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="N411" s="35"/>
     </row>
     <row r="412" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A412" s="176" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="B412" s="177" t="s">
         <v>35</v>
@@ -35079,19 +35089,19 @@
       </c>
       <c r="I412" s="35"/>
       <c r="K412" s="243" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="L412" s="85" t="s">
         <v>206</v>
       </c>
       <c r="M412" s="87" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="N412" s="35"/>
     </row>
     <row r="413" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A413" s="176" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="B413" s="177" t="s">
         <v>35</v>
@@ -35101,14 +35111,14 @@
       </c>
       <c r="D413" s="155"/>
       <c r="F413" s="34" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="H413" s="81" t="s">
         <v>295</v>
       </c>
       <c r="I413" s="35"/>
       <c r="K413" s="88" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="L413" s="85" t="s">
         <v>35</v>
@@ -35120,7 +35130,7 @@
     </row>
     <row r="414" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A414" s="176" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="B414" s="177" t="s">
         <v>35</v>
@@ -35130,7 +35140,7 @@
       </c>
       <c r="D414" s="155"/>
       <c r="F414" s="34" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="G414" s="1" t="s">
         <v>35</v>
@@ -35152,7 +35162,7 @@
     </row>
     <row r="415" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A415" s="176" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="B415" s="177" t="s">
         <v>206</v>
@@ -35184,7 +35194,7 @@
     </row>
     <row r="416" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A416" s="178" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="B416" s="179" t="s">
         <v>206</v>
@@ -35197,7 +35207,7 @@
         <v>261</v>
       </c>
       <c r="G416" s="1" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="H416" s="1" t="s">
         <v>262</v>
@@ -35226,13 +35236,13 @@
       </c>
       <c r="D417" s="35"/>
       <c r="F417" s="34" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="G417" s="1" t="s">
         <v>35</v>
       </c>
       <c r="H417" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="I417" s="35"/>
       <c r="K417" s="54" t="s">
@@ -35254,7 +35264,7 @@
         <v>151</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="D418" s="35"/>
       <c r="F418" s="34" t="s">
@@ -35280,17 +35290,17 @@
     </row>
     <row r="419" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A419" s="52" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="B419" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="D419" s="35"/>
       <c r="F419" s="34" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="G419" s="1" t="s">
         <v>35</v>
@@ -35300,7 +35310,7 @@
       </c>
       <c r="I419" s="35"/>
       <c r="K419" s="241" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="L419" s="2" t="s">
         <v>35</v>
@@ -35322,7 +35332,7 @@
       </c>
       <c r="D420" s="35"/>
       <c r="F420" s="34" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="G420" s="1" t="s">
         <v>35</v>
@@ -35332,7 +35342,7 @@
       </c>
       <c r="I420" s="35"/>
       <c r="K420" s="241" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="L420" s="2" t="s">
         <v>35</v>
@@ -35354,17 +35364,17 @@
       </c>
       <c r="D421" s="35"/>
       <c r="F421" s="34" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="G421" s="1" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="H421" s="1" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="I421" s="35"/>
       <c r="K421" s="241" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="L421" s="2" t="s">
         <v>35</v>
@@ -35376,7 +35386,7 @@
     </row>
     <row r="422" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A422" s="84" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="B422" t="s">
         <v>216</v>
@@ -35418,7 +35428,7 @@
       </c>
       <c r="D423" s="35"/>
       <c r="F423" s="36" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="G423" s="42" t="s">
         <v>255</v>
@@ -35462,7 +35472,7 @@
     </row>
     <row r="425" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A425" s="19" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="B425" s="2" t="s">
         <v>223</v>
@@ -35486,7 +35496,7 @@
     </row>
     <row r="426" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A426" s="19" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="B426" s="2" t="s">
         <v>223</v>
@@ -35510,7 +35520,7 @@
     </row>
     <row r="427" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A427" s="83" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="B427" s="2" t="s">
         <v>165</v>
@@ -35532,7 +35542,7 @@
     </row>
     <row r="428" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A428" s="174" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="B428" s="175" t="s">
         <v>35</v>
@@ -35554,7 +35564,7 @@
     </row>
     <row r="429" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A429" s="176" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="B429" s="177" t="s">
         <v>35</v>
@@ -35564,19 +35574,19 @@
       </c>
       <c r="D429" s="155"/>
       <c r="K429" s="54" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="L429" s="2" t="s">
         <v>206</v>
       </c>
       <c r="M429" s="1" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="N429" s="35"/>
     </row>
     <row r="430" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A430" s="178" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="B430" s="179" t="s">
         <v>35</v>
@@ -35608,7 +35618,7 @@
       </c>
       <c r="D431" s="35"/>
       <c r="K431" s="34" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="L431" s="2" t="s">
         <v>35</v>
@@ -35626,7 +35636,7 @@
         <v>216</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="D432" s="35"/>
       <c r="K432" s="93" t="s">
@@ -35648,11 +35658,11 @@
         <v>216</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="D433" s="35"/>
       <c r="K433" s="93" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="L433" s="2" t="s">
         <v>35</v>
@@ -35692,11 +35702,11 @@
         <v>216</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="D435" s="143"/>
       <c r="K435" s="93" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="L435" s="2" t="s">
         <v>35</v>
@@ -35714,7 +35724,7 @@
         <v>216</v>
       </c>
       <c r="C436" s="72" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="D436" s="144"/>
       <c r="K436" s="36" t="s">
@@ -35742,7 +35752,7 @@
     </row>
     <row r="438" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A438" s="185" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B438" s="2" t="s">
         <v>206</v>
@@ -35766,7 +35776,7 @@
     </row>
     <row r="440" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A440" s="183" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="B440" t="s">
         <v>216</v>
@@ -35778,7 +35788,7 @@
     </row>
     <row r="441" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A441" s="186" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="B441" s="2" t="s">
         <v>35</v>
@@ -35802,7 +35812,7 @@
     </row>
     <row r="443" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A443" s="186" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="B443" s="2" t="s">
         <v>35</v>
@@ -35826,7 +35836,7 @@
     </row>
     <row r="445" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A445" s="187" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="B445" s="28" t="s">
         <v>35</v>
@@ -35838,7 +35848,7 @@
     </row>
     <row r="446" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A446" s="19" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="B446" t="s">
         <v>216</v>
@@ -35862,13 +35872,13 @@
     </row>
     <row r="448" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A448" s="83" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B448" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C448" s="1" t="s">
         <v>1541</v>
-      </c>
-      <c r="B448" t="s">
-        <v>1540</v>
-      </c>
-      <c r="C448" s="1" t="s">
-        <v>1542</v>
       </c>
       <c r="D448" s="35"/>
     </row>
@@ -35886,7 +35896,7 @@
     </row>
     <row r="450" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A450" s="111" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="B450" s="42" t="s">
         <v>255</v>
@@ -35917,7 +35927,7 @@
     </row>
     <row r="455" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A455" s="1" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="P455" s="1"/>
       <c r="U455" s="1"/>
@@ -35925,7 +35935,7 @@
     </row>
     <row r="456" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A456" s="226" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="B456" s="7"/>
       <c r="F456" s="4" t="s">
@@ -35946,47 +35956,47 @@
     </row>
     <row r="457" spans="1:22" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A457" s="233" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="B457" s="234"/>
       <c r="C457" s="235" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="D457" s="236"/>
       <c r="F457" s="239" t="s">
+        <v>1950</v>
+      </c>
+      <c r="G457" s="240" t="s">
         <v>1951</v>
       </c>
-      <c r="G457" s="240" t="s">
+      <c r="H457" s="30" t="s">
+        <v>2205</v>
+      </c>
+      <c r="I457" s="2" t="s">
         <v>1952</v>
       </c>
-      <c r="H457" s="30" t="s">
-        <v>2206</v>
-      </c>
-      <c r="I457" s="2" t="s">
+      <c r="K457" s="247" t="s">
+        <v>2163</v>
+      </c>
+      <c r="L457" s="277" t="s">
+        <v>1955</v>
+      </c>
+      <c r="M457" s="2" t="s">
         <v>1953</v>
       </c>
-      <c r="K457" s="247" t="s">
-        <v>2164</v>
-      </c>
-      <c r="L457" s="277" t="s">
-        <v>1956</v>
-      </c>
-      <c r="M457" s="2" t="s">
+      <c r="N457" s="2" t="s">
         <v>1954</v>
-      </c>
-      <c r="N457" s="2" t="s">
-        <v>1955</v>
       </c>
     </row>
     <row r="458" spans="1:22" ht="116" x14ac:dyDescent="0.35">
       <c r="A458" s="230" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="B458" s="227" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="C458" s="227" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="D458" s="45"/>
       <c r="F458"/>
@@ -35997,7 +36007,7 @@
       <c r="A459" s="231"/>
       <c r="B459" s="225"/>
       <c r="C459" s="294" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="D459" s="35"/>
       <c r="F459"/>
@@ -36007,10 +36017,10 @@
     <row r="460" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A460" s="34"/>
       <c r="B460" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="C460" s="225" t="s">
         <v>1894</v>
-      </c>
-      <c r="C460" s="225" t="s">
-        <v>1895</v>
       </c>
       <c r="D460" s="35"/>
     </row>
@@ -36022,7 +36032,7 @@
         <v>206</v>
       </c>
       <c r="C461" s="7" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="D461" s="35"/>
     </row>
@@ -36034,93 +36044,93 @@
         <v>151</v>
       </c>
       <c r="C462" s="7" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="D462" s="35"/>
     </row>
     <row r="463" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A463" s="34" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B463" s="2" t="s">
+        <v>1897</v>
+      </c>
+      <c r="C463" s="7" t="s">
         <v>1899</v>
-      </c>
-      <c r="B463" s="2" t="s">
-        <v>1898</v>
-      </c>
-      <c r="C463" s="7" t="s">
-        <v>1900</v>
       </c>
       <c r="D463" s="35"/>
     </row>
     <row r="464" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A464" s="34" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B464" s="2" t="s">
+        <v>1897</v>
+      </c>
+      <c r="C464" s="7" t="s">
         <v>1901</v>
-      </c>
-      <c r="B464" s="2" t="s">
-        <v>1898</v>
-      </c>
-      <c r="C464" s="7" t="s">
-        <v>1902</v>
       </c>
       <c r="D464" s="35"/>
     </row>
     <row r="465" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A465" s="34" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B465" s="2" t="s">
+        <v>1897</v>
+      </c>
+      <c r="C465" s="7" t="s">
         <v>1903</v>
-      </c>
-      <c r="B465" s="2" t="s">
-        <v>1898</v>
-      </c>
-      <c r="C465" s="7" t="s">
-        <v>1904</v>
       </c>
       <c r="D465" s="35"/>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A466" s="34" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="B466" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C466" s="7" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="D466" s="35"/>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A467" s="34" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="B467" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C467" s="7" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="D467" s="35"/>
     </row>
     <row r="468" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A468" s="34" t="s">
+        <v>1909</v>
+      </c>
+      <c r="B468" s="2" t="s">
+        <v>1908</v>
+      </c>
+      <c r="C468" s="7" t="s">
         <v>1910</v>
       </c>
-      <c r="B468" s="2" t="s">
-        <v>1909</v>
-      </c>
-      <c r="C468" s="7" t="s">
-        <v>1911</v>
-      </c>
       <c r="D468" s="20" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="469" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A469" s="34" t="s">
+        <v>1911</v>
+      </c>
+      <c r="B469" s="2" t="s">
+        <v>1897</v>
+      </c>
+      <c r="C469" s="7" t="s">
         <v>1912</v>
-      </c>
-      <c r="B469" s="2" t="s">
-        <v>1898</v>
-      </c>
-      <c r="C469" s="7" t="s">
-        <v>1913</v>
       </c>
       <c r="D469" s="35"/>
     </row>
@@ -36132,69 +36142,69 @@
         <v>35</v>
       </c>
       <c r="C470" s="7" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="D470" s="35"/>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A471" s="34" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B471" s="2" t="s">
+        <v>1914</v>
+      </c>
+      <c r="C471" s="7" t="s">
         <v>1916</v>
-      </c>
-      <c r="B471" s="2" t="s">
-        <v>1915</v>
-      </c>
-      <c r="C471" s="7" t="s">
-        <v>1917</v>
       </c>
       <c r="D471" s="35"/>
     </row>
     <row r="472" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A472" s="34" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B472" s="2" t="s">
+        <v>1897</v>
+      </c>
+      <c r="C472" s="7" t="s">
         <v>1918</v>
-      </c>
-      <c r="B472" s="2" t="s">
-        <v>1898</v>
-      </c>
-      <c r="C472" s="7" t="s">
-        <v>1919</v>
       </c>
       <c r="D472" s="35"/>
     </row>
     <row r="473" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A473" s="232" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B473" s="2" t="s">
+        <v>1897</v>
+      </c>
+      <c r="C473" s="7" t="s">
         <v>1920</v>
       </c>
-      <c r="B473" s="2" t="s">
-        <v>1898</v>
-      </c>
-      <c r="C473" s="7" t="s">
-        <v>1921</v>
-      </c>
       <c r="D473" s="20" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A474" s="34" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="B474" s="2" t="s">
         <v>206</v>
       </c>
       <c r="C474" s="7" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="D474" s="35"/>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A475" s="34" t="s">
+        <v>1923</v>
+      </c>
+      <c r="B475" s="2" t="s">
+        <v>1897</v>
+      </c>
+      <c r="C475" s="7" t="s">
         <v>1924</v>
-      </c>
-      <c r="B475" s="2" t="s">
-        <v>1898</v>
-      </c>
-      <c r="C475" s="7" t="s">
-        <v>1925</v>
       </c>
       <c r="D475" s="35"/>
     </row>
@@ -36206,107 +36216,107 @@
         <v>223</v>
       </c>
       <c r="C476" s="7" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="D476" s="35"/>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A477" s="34" t="s">
+        <v>1927</v>
+      </c>
+      <c r="B477" s="2" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C477" s="7" t="s">
         <v>1928</v>
-      </c>
-      <c r="B477" s="2" t="s">
-        <v>1927</v>
-      </c>
-      <c r="C477" s="7" t="s">
-        <v>1929</v>
       </c>
       <c r="D477" s="35"/>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A478" s="237" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="B478" s="26"/>
       <c r="C478" s="229" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="D478" s="115"/>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A479" s="232" t="s">
+        <v>1938</v>
+      </c>
+      <c r="C479" s="225" t="s">
         <v>1939</v>
-      </c>
-      <c r="C479" s="225" t="s">
-        <v>1940</v>
       </c>
       <c r="D479" s="35"/>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A480" s="232" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C480" s="225" t="s">
         <v>1941</v>
-      </c>
-      <c r="C480" s="225" t="s">
-        <v>1942</v>
       </c>
       <c r="D480" s="35"/>
     </row>
     <row r="481" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A481" s="232" t="s">
+        <v>1942</v>
+      </c>
+      <c r="C481" s="225" t="s">
         <v>1943</v>
-      </c>
-      <c r="C481" s="225" t="s">
-        <v>1944</v>
       </c>
       <c r="D481" s="35"/>
     </row>
     <row r="482" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A482" s="232" t="s">
+        <v>1944</v>
+      </c>
+      <c r="C482" s="225" t="s">
         <v>1945</v>
-      </c>
-      <c r="C482" s="225" t="s">
-        <v>1946</v>
       </c>
       <c r="D482" s="35"/>
     </row>
     <row r="483" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A483" s="232" t="s">
+        <v>1946</v>
+      </c>
+      <c r="C483" s="225" t="s">
         <v>1947</v>
-      </c>
-      <c r="C483" s="225" t="s">
-        <v>1948</v>
       </c>
       <c r="D483" s="35"/>
     </row>
     <row r="484" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A484" s="232" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="C484" s="225" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="D484" s="35"/>
     </row>
     <row r="485" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A485" s="238" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="B485" s="22"/>
       <c r="C485" s="228" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="D485" s="37"/>
     </row>
     <row r="491" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A491" s="1" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="D491" s="1" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="492" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A492" s="1" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="496" spans="1:21" x14ac:dyDescent="0.35">
@@ -36330,7 +36340,7 @@
     </row>
     <row r="497" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A497" s="1" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="P497" s="1"/>
       <c r="U497" s="1"/>
@@ -36338,7 +36348,7 @@
     </row>
     <row r="498" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A498" s="226" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="B498" s="7"/>
       <c r="F498" s="4" t="s">
@@ -36359,95 +36369,95 @@
     </row>
     <row r="499" spans="1:22" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A499" s="1" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="C499" s="295" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="500" spans="1:22" ht="174" x14ac:dyDescent="0.35">
       <c r="A500" s="91" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B500" s="275" t="s">
         <v>1965</v>
       </c>
-      <c r="B500" s="275" t="s">
-        <v>1966</v>
-      </c>
       <c r="C500" s="274" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="D500" s="18" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="501" spans="1:22" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A501" s="34"/>
       <c r="C501" s="246" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="D501" s="20" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="502" spans="1:22" ht="174" x14ac:dyDescent="0.35">
       <c r="A502" s="34"/>
       <c r="C502" s="246" t="s">
+        <v>1969</v>
+      </c>
+      <c r="D502" s="20" t="s">
         <v>1970</v>
       </c>
-      <c r="D502" s="20" t="s">
-        <v>1971</v>
-      </c>
       <c r="F502" s="90" t="s">
+        <v>1972</v>
+      </c>
+      <c r="G502" s="275" t="s">
         <v>1973</v>
       </c>
-      <c r="G502" s="275" t="s">
+      <c r="H502" s="17" t="s">
+        <v>2148</v>
+      </c>
+      <c r="I502" s="18" t="s">
         <v>1974</v>
       </c>
-      <c r="H502" s="17" t="s">
+      <c r="K502" s="91" t="s">
+        <v>1975</v>
+      </c>
+      <c r="L502" s="17" t="s">
         <v>2149</v>
       </c>
-      <c r="I502" s="18" t="s">
-        <v>1975</v>
-      </c>
-      <c r="K502" s="91" t="s">
+      <c r="M502" s="17" t="s">
+        <v>2088</v>
+      </c>
+      <c r="N502" s="18" t="s">
         <v>1976</v>
-      </c>
-      <c r="L502" s="17" t="s">
-        <v>2150</v>
-      </c>
-      <c r="M502" s="17" t="s">
-        <v>2089</v>
-      </c>
-      <c r="N502" s="18" t="s">
-        <v>1977</v>
       </c>
     </row>
     <row r="503" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A503" s="83" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="B503" t="s">
         <v>35</v>
       </c>
       <c r="C503" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="D503" s="35"/>
       <c r="F503" s="34" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="G503" s="2" t="s">
         <v>35</v>
       </c>
       <c r="H503" s="1" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="I503" s="35"/>
       <c r="K503" s="34"/>
       <c r="M503" s="1" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="N503" s="35"/>
     </row>
@@ -36459,22 +36469,22 @@
         <v>206</v>
       </c>
       <c r="C504" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="D504" s="35"/>
       <c r="F504" s="34" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="G504" s="2" t="s">
         <v>35</v>
       </c>
       <c r="H504" s="1" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="I504" s="35"/>
       <c r="K504" s="34"/>
       <c r="M504" s="1" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="N504" s="35"/>
     </row>
@@ -36486,34 +36496,34 @@
         <v>151</v>
       </c>
       <c r="C505" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="D505" s="35"/>
       <c r="F505" s="34" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="G505" s="2" t="s">
         <v>216</v>
       </c>
       <c r="H505" s="1" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="I505" s="35"/>
       <c r="K505" s="34"/>
       <c r="M505" s="1" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="N505" s="35"/>
     </row>
     <row r="506" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A506" s="83" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="B506" t="s">
         <v>35</v>
       </c>
       <c r="C506" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="D506" s="35"/>
       <c r="F506" s="34" t="s">
@@ -36523,12 +36533,12 @@
         <v>206</v>
       </c>
       <c r="H506" s="1" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="I506" s="35"/>
       <c r="K506" s="34"/>
       <c r="M506" s="1" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="N506" s="35"/>
     </row>
@@ -36540,7 +36550,7 @@
         <v>35</v>
       </c>
       <c r="C507" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="D507" s="35"/>
       <c r="F507" s="34" t="s">
@@ -36550,12 +36560,12 @@
         <v>151</v>
       </c>
       <c r="H507" s="1" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="I507" s="35"/>
       <c r="K507" s="34"/>
       <c r="M507" s="1" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="N507" s="35"/>
     </row>
@@ -36567,34 +36577,34 @@
         <v>273</v>
       </c>
       <c r="C508" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="D508" s="35"/>
       <c r="F508" s="34" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="G508" s="2" t="s">
         <v>35</v>
       </c>
       <c r="H508" s="1" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="I508" s="35"/>
       <c r="K508" s="34"/>
       <c r="M508" s="1" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="N508" s="35"/>
     </row>
     <row r="509" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A509" s="83" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="B509" t="s">
         <v>35</v>
       </c>
       <c r="C509" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="D509" s="35"/>
       <c r="F509" s="34" t="s">
@@ -36604,12 +36614,12 @@
         <v>273</v>
       </c>
       <c r="H509" s="1" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="I509" s="35"/>
       <c r="K509" s="34"/>
       <c r="M509" s="1" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="N509" s="35"/>
     </row>
@@ -36621,118 +36631,118 @@
         <v>223</v>
       </c>
       <c r="C510" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="D510" s="35"/>
       <c r="F510" s="34" t="s">
+        <v>2114</v>
+      </c>
+      <c r="G510" s="2" t="s">
+        <v>2124</v>
+      </c>
+      <c r="H510" s="1" t="s">
         <v>2115</v>
-      </c>
-      <c r="G510" s="2" t="s">
-        <v>2125</v>
-      </c>
-      <c r="H510" s="1" t="s">
-        <v>2116</v>
       </c>
       <c r="I510" s="35"/>
       <c r="K510" s="34"/>
       <c r="M510" s="1" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="N510" s="35"/>
     </row>
     <row r="511" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A511" s="276" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="B511" s="140" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="C511" s="140" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="D511" s="37"/>
       <c r="F511" s="34" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="G511" s="2" t="s">
         <v>216</v>
       </c>
       <c r="H511" s="1" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="I511" s="35"/>
       <c r="K511" s="34"/>
       <c r="M511" s="1" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="N511" s="35"/>
     </row>
     <row r="512" spans="1:22" x14ac:dyDescent="0.35">
       <c r="F512" s="34" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="G512" s="2" t="s">
         <v>216</v>
       </c>
       <c r="H512" s="1" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="I512" s="35"/>
       <c r="K512" s="34"/>
       <c r="M512" s="1" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="N512" s="35"/>
     </row>
     <row r="513" spans="6:14" x14ac:dyDescent="0.35">
       <c r="F513" s="34" t="s">
+        <v>2128</v>
+      </c>
+      <c r="G513" s="2" t="s">
+        <v>2127</v>
+      </c>
+      <c r="H513" s="1" t="s">
         <v>2129</v>
-      </c>
-      <c r="G513" s="2" t="s">
-        <v>2128</v>
-      </c>
-      <c r="H513" s="1" t="s">
-        <v>2130</v>
       </c>
       <c r="I513" s="35"/>
       <c r="K513" s="34"/>
       <c r="M513" s="1" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="N513" s="35"/>
     </row>
     <row r="514" spans="6:14" x14ac:dyDescent="0.35">
       <c r="F514" s="34" t="s">
+        <v>2130</v>
+      </c>
+      <c r="G514" s="2" t="s">
+        <v>2124</v>
+      </c>
+      <c r="H514" s="1" t="s">
         <v>2131</v>
-      </c>
-      <c r="G514" s="2" t="s">
-        <v>2125</v>
-      </c>
-      <c r="H514" s="1" t="s">
-        <v>2132</v>
       </c>
       <c r="I514" s="35"/>
       <c r="K514" s="34"/>
       <c r="M514" s="1" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="N514" s="35"/>
     </row>
     <row r="515" spans="6:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F515" s="34" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="G515" s="2" t="s">
         <v>216</v>
       </c>
       <c r="H515" s="1" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="I515" s="35"/>
       <c r="K515" s="36"/>
       <c r="L515" s="42"/>
       <c r="M515" s="42" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="N515" s="37"/>
     </row>
@@ -36744,7 +36754,7 @@
         <v>35</v>
       </c>
       <c r="H516" s="1" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="I516" s="35"/>
     </row>
@@ -36756,31 +36766,31 @@
         <v>273</v>
       </c>
       <c r="H517" s="1" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="I517" s="35"/>
     </row>
     <row r="518" spans="6:14" x14ac:dyDescent="0.35">
       <c r="F518" s="34" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="G518" s="2" t="s">
         <v>216</v>
       </c>
       <c r="H518" s="1" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="I518" s="35"/>
     </row>
     <row r="519" spans="6:14" x14ac:dyDescent="0.35">
       <c r="F519" s="34" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="G519" s="2" t="s">
         <v>216</v>
       </c>
       <c r="H519" s="1" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="I519" s="35"/>
     </row>
@@ -36792,7 +36802,7 @@
         <v>216</v>
       </c>
       <c r="H520" s="1" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="I520" s="35"/>
     </row>
@@ -36804,19 +36814,19 @@
         <v>216</v>
       </c>
       <c r="H521" s="1" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="I521" s="35"/>
     </row>
     <row r="522" spans="6:14" x14ac:dyDescent="0.35">
       <c r="F522" s="34" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="G522" s="2" t="s">
         <v>35</v>
       </c>
       <c r="H522" s="1" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="I522" s="35"/>
     </row>
@@ -36828,67 +36838,67 @@
         <v>223</v>
       </c>
       <c r="H523" s="1" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="I523" s="35"/>
     </row>
     <row r="524" spans="6:14" x14ac:dyDescent="0.35">
       <c r="F524" s="34" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="G524" s="2" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="H524" s="1" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="I524" s="35"/>
     </row>
     <row r="525" spans="6:14" x14ac:dyDescent="0.35">
       <c r="F525" s="34" t="s">
+        <v>2138</v>
+      </c>
+      <c r="G525" s="2" t="s">
+        <v>2124</v>
+      </c>
+      <c r="H525" s="1" t="s">
         <v>2139</v>
-      </c>
-      <c r="G525" s="2" t="s">
-        <v>2125</v>
-      </c>
-      <c r="H525" s="1" t="s">
-        <v>2140</v>
       </c>
       <c r="I525" s="35"/>
     </row>
     <row r="526" spans="6:14" x14ac:dyDescent="0.35">
       <c r="F526" s="34" t="s">
+        <v>2140</v>
+      </c>
+      <c r="G526" s="2" t="s">
+        <v>2127</v>
+      </c>
+      <c r="H526" s="1" t="s">
         <v>2141</v>
-      </c>
-      <c r="G526" s="2" t="s">
-        <v>2128</v>
-      </c>
-      <c r="H526" s="1" t="s">
-        <v>2142</v>
       </c>
       <c r="I526" s="35"/>
     </row>
     <row r="527" spans="6:14" x14ac:dyDescent="0.35">
       <c r="F527" s="34" t="s">
+        <v>2142</v>
+      </c>
+      <c r="G527" s="2" t="s">
+        <v>2127</v>
+      </c>
+      <c r="H527" s="1" t="s">
         <v>2143</v>
-      </c>
-      <c r="G527" s="2" t="s">
-        <v>2128</v>
-      </c>
-      <c r="H527" s="1" t="s">
-        <v>2144</v>
       </c>
       <c r="I527" s="35"/>
     </row>
     <row r="528" spans="6:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F528" s="36" t="s">
+        <v>2144</v>
+      </c>
+      <c r="G528" s="22" t="s">
+        <v>2124</v>
+      </c>
+      <c r="H528" s="42" t="s">
         <v>2145</v>
-      </c>
-      <c r="G528" s="22" t="s">
-        <v>2125</v>
-      </c>
-      <c r="H528" s="42" t="s">
-        <v>2146</v>
       </c>
       <c r="I528" s="37"/>
     </row>
@@ -36913,7 +36923,7 @@
     </row>
     <row r="532" spans="1:22" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A532" s="1" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="P532" s="1"/>
       <c r="U532" s="1"/>
@@ -36921,101 +36931,101 @@
     </row>
     <row r="533" spans="1:22" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A533" s="90" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="B533" s="17"/>
       <c r="C533" s="274" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="D533" s="45" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="534" spans="1:22" ht="203" x14ac:dyDescent="0.35">
       <c r="A534" s="34"/>
       <c r="B534" s="2" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="C534" s="246" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="D534" s="20" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="535" spans="1:22" ht="116" x14ac:dyDescent="0.35">
       <c r="A535" s="34"/>
       <c r="B535" s="2" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="C535" s="246" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="D535" s="35" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="536" spans="1:22" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A536" s="36"/>
       <c r="B536" s="22" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="C536" s="280" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="D536" s="37" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="537" spans="1:22" ht="145" x14ac:dyDescent="0.35">
       <c r="A537" s="281" t="s">
+        <v>2089</v>
+      </c>
+      <c r="B537" s="17" t="s">
         <v>2090</v>
       </c>
-      <c r="B537" s="17" t="s">
-        <v>2091</v>
-      </c>
       <c r="C537" s="282" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="D537" s="45" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="538" spans="1:22" ht="116" x14ac:dyDescent="0.35">
       <c r="A538" s="34" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C538" s="2" t="s">
         <v>2093</v>
       </c>
-      <c r="C538" s="2" t="s">
-        <v>2094</v>
-      </c>
       <c r="D538" s="35" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="539" spans="1:22" ht="174" x14ac:dyDescent="0.35">
       <c r="A539" s="19" t="s">
+        <v>2094</v>
+      </c>
+      <c r="B539" s="2" t="s">
+        <v>2096</v>
+      </c>
+      <c r="C539" s="2" t="s">
+        <v>2097</v>
+      </c>
+      <c r="D539" s="35" t="s">
         <v>2095</v>
-      </c>
-      <c r="B539" s="2" t="s">
-        <v>2097</v>
-      </c>
-      <c r="C539" s="2" t="s">
-        <v>2098</v>
-      </c>
-      <c r="D539" s="35" t="s">
-        <v>2096</v>
       </c>
     </row>
     <row r="540" spans="1:22" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A540" s="36"/>
       <c r="B540" s="22" t="s">
+        <v>2099</v>
+      </c>
+      <c r="C540" s="22" t="s">
         <v>2100</v>
       </c>
-      <c r="C540" s="22" t="s">
-        <v>2101</v>
-      </c>
       <c r="D540" s="37" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
     </row>
   </sheetData>
@@ -37122,27 +37132,27 @@
     </row>
     <row r="5" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A5" s="91" t="s">
+        <v>2173</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>2174</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>2175</v>
-      </c>
       <c r="C5" s="284" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="D5" s="45"/>
     </row>
     <row r="6" spans="1:22" ht="87" x14ac:dyDescent="0.35">
       <c r="A6" s="34"/>
       <c r="C6" s="285" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="D6" s="35"/>
     </row>
     <row r="7" spans="1:22" ht="174" x14ac:dyDescent="0.35">
       <c r="A7" s="34"/>
       <c r="C7" s="285" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="D7" s="35"/>
     </row>
@@ -37150,41 +37160,41 @@
       <c r="A8" s="36"/>
       <c r="B8" s="22"/>
       <c r="C8" s="286" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="D8" s="37"/>
     </row>
     <row r="9" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="10" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A10" s="91" t="s">
+        <v>2175</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>2176</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="C10" s="284" t="s">
         <v>2177</v>
-      </c>
-      <c r="C10" s="284" t="s">
-        <v>2178</v>
       </c>
       <c r="D10" s="45"/>
     </row>
     <row r="11" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A11" s="34"/>
       <c r="C11" s="285" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="D11" s="35"/>
     </row>
     <row r="12" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A12" s="34"/>
       <c r="C12" s="285" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="D12" s="35"/>
     </row>
     <row r="13" spans="1:22" ht="203" x14ac:dyDescent="0.35">
       <c r="A13" s="34"/>
       <c r="C13" s="285" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="D13" s="35"/>
     </row>
@@ -37192,7 +37202,7 @@
       <c r="A14" s="36"/>
       <c r="B14" s="22"/>
       <c r="C14" s="286" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="D14" s="37"/>
     </row>

--- a/2 четверть_3_Программист_Java.xlsx
+++ b/2 четверть_3_Программист_Java.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Machenike\Desktop\Homework_repo\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FDB6F1-191F-4071-B436-1E0C49A1F584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B413D95-DF23-4783-87D2-0504A494BEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2370" yWindow="2580" windowWidth="19830" windowHeight="11220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Java 1-6" sheetId="12" r:id="rId1"/>
@@ -17142,19 +17142,6 @@
   <si>
     <t>boolean
 https://dev-gang.ru/article/java-kak-proverit-soderzhit-li-stroka-podstroku-0c4hoa1j3h/</t>
-  </si>
-  <si>
-    <t>Возвращает тип переменной
-Обязательно создание и прописывание своей функции
-public class Prog+H10:M10ram {
-    public static void main(String[] args) {
-        var a = 123;
-        System.out.println(getType(d));  // Double
-    } 
-    static String getType(Object o){
-        return o.getClass().getSimpleName();
-    }
-}</t>
   </si>
   <si>
     <t>Два варианта отсортировать коллекцию</t>
@@ -18334,6 +18321,19 @@
 1 a instanceof Double
 2 a.getType() == Double.class
 3 Double.class.isAssignable(a.getTpe())</t>
+  </si>
+  <si>
+    <t>Возвращает тип переменной
+Обязательно создание и прописывание своей функции
+public class Program {
+    public static void main(String[] args) {
+        var a = 123;
+        System.out.println(getType(d));  // Double
+    } 
+    static String getType(Object o){
+        return o.getClass().getSimpleName();
+    }
+}</t>
   </si>
 </sst>
 </file>
@@ -19310,7 +19310,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="297">
+  <cellXfs count="298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -20172,6 +20172,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -22029,8 +22032,8 @@
   </sheetPr>
   <dimension ref="A1:AC540"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="I8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22122,7 +22125,7 @@
         <v>322</v>
       </c>
       <c r="B5" s="103" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>17</v>
@@ -22304,13 +22307,13 @@
         <v>403</v>
       </c>
       <c r="K10" s="21" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="L10" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="M10" s="24" t="s">
-        <v>2167</v>
+      <c r="M10" s="297" t="s">
+        <v>2208</v>
       </c>
       <c r="N10" s="37" t="s">
         <v>44</v>
@@ -26019,13 +26022,13 @@
     </row>
     <row r="109" spans="1:24" ht="203" x14ac:dyDescent="0.35">
       <c r="A109" s="167" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="B109" s="32" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="C109" s="291" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="D109" s="107" t="s">
         <v>124</v>
@@ -26060,13 +26063,13 @@
     </row>
     <row r="110" spans="1:24" ht="319.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A110" s="118" t="s">
+        <v>2190</v>
+      </c>
+      <c r="B110" s="32" t="s">
+        <v>2192</v>
+      </c>
+      <c r="C110" s="291" t="s">
         <v>2191</v>
-      </c>
-      <c r="B110" s="32" t="s">
-        <v>2193</v>
-      </c>
-      <c r="C110" s="291" t="s">
-        <v>2192</v>
       </c>
       <c r="D110" s="107" t="s">
         <v>125</v>
@@ -26091,13 +26094,13 @@
         <v>106</v>
       </c>
       <c r="P110" s="21" t="s">
+        <v>2184</v>
+      </c>
+      <c r="Q110" s="290" t="s">
         <v>2185</v>
       </c>
-      <c r="Q110" s="290" t="s">
+      <c r="R110" s="22" t="s">
         <v>2186</v>
-      </c>
-      <c r="R110" s="22" t="s">
-        <v>2187</v>
       </c>
       <c r="S110" s="37"/>
       <c r="U110" s="1"/>
@@ -26187,7 +26190,7 @@
         <v>788</v>
       </c>
       <c r="R113" s="288" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="S113" s="23" t="s">
         <v>789</v>
@@ -26991,7 +26994,7 @@
         <v>2081</v>
       </c>
       <c r="D134" s="37" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="F134" s="149" t="s">
         <v>1242</v>
@@ -33159,7 +33162,7 @@
     </row>
     <row r="339" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A339" s="1" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="P339" s="1"/>
       <c r="U339" s="1"/>
@@ -33167,13 +33170,13 @@
     </row>
     <row r="340" spans="1:25" ht="174" x14ac:dyDescent="0.35">
       <c r="A340" s="2" t="s">
+        <v>2198</v>
+      </c>
+      <c r="C340" s="293" t="s">
         <v>2199</v>
       </c>
-      <c r="C340" s="293" t="s">
-        <v>2200</v>
-      </c>
       <c r="D340" s="293" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="F340" s="10"/>
       <c r="G340" s="10"/>
@@ -33196,7 +33199,7 @@
     <row r="341" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A341" s="2"/>
       <c r="C341" s="293" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="D341" s="10"/>
       <c r="F341" s="10"/>
@@ -33361,7 +33364,7 @@
         <v>161</v>
       </c>
       <c r="C349" s="130" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="D349" s="194" t="s">
         <v>162</v>
@@ -33415,7 +33418,7 @@
         <v>1873</v>
       </c>
       <c r="B350" s="292" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="C350" s="221" t="s">
         <v>1874</v>
@@ -33877,13 +33880,13 @@
         <v>2077</v>
       </c>
       <c r="F362" s="283" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="G362" s="58" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="H362" s="58" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="I362" s="56" t="s">
         <v>2071</v>
@@ -34826,7 +34829,7 @@
         <v>194</v>
       </c>
       <c r="H400" s="296" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="I400" s="35"/>
       <c r="K400" s="34" t="s">
@@ -35970,7 +35973,7 @@
         <v>1951</v>
       </c>
       <c r="H457" s="30" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="I457" s="2" t="s">
         <v>1952</v>
@@ -36007,7 +36010,7 @@
       <c r="A459" s="231"/>
       <c r="B459" s="225"/>
       <c r="C459" s="294" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="D459" s="35"/>
       <c r="F459"/>
@@ -36119,7 +36122,7 @@
         <v>1910</v>
       </c>
       <c r="D468" s="20" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="469" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -36375,7 +36378,7 @@
         <v>2102</v>
       </c>
       <c r="C499" s="295" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="500" spans="1:22" ht="174" x14ac:dyDescent="0.35">
@@ -37132,27 +37135,27 @@
     </row>
     <row r="5" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A5" s="91" t="s">
+        <v>2172</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>2173</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>2174</v>
-      </c>
       <c r="C5" s="284" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="D5" s="45"/>
     </row>
     <row r="6" spans="1:22" ht="87" x14ac:dyDescent="0.35">
       <c r="A6" s="34"/>
       <c r="C6" s="285" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="D6" s="35"/>
     </row>
     <row r="7" spans="1:22" ht="174" x14ac:dyDescent="0.35">
       <c r="A7" s="34"/>
       <c r="C7" s="285" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="D7" s="35"/>
     </row>
@@ -37160,41 +37163,41 @@
       <c r="A8" s="36"/>
       <c r="B8" s="22"/>
       <c r="C8" s="286" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="D8" s="37"/>
     </row>
     <row r="9" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="10" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A10" s="91" t="s">
+        <v>2174</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>2175</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="C10" s="284" t="s">
         <v>2176</v>
-      </c>
-      <c r="C10" s="284" t="s">
-        <v>2177</v>
       </c>
       <c r="D10" s="45"/>
     </row>
     <row r="11" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A11" s="34"/>
       <c r="C11" s="285" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="D11" s="35"/>
     </row>
     <row r="12" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A12" s="34"/>
       <c r="C12" s="285" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="D12" s="35"/>
     </row>
     <row r="13" spans="1:22" ht="203" x14ac:dyDescent="0.35">
       <c r="A13" s="34"/>
       <c r="C13" s="285" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="D13" s="35"/>
     </row>
@@ -37202,7 +37205,7 @@
       <c r="A14" s="36"/>
       <c r="B14" s="22"/>
       <c r="C14" s="286" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="D14" s="37"/>
     </row>

--- a/2 четверть_3_Программист_Java.xlsx
+++ b/2 четверть_3_Программист_Java.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Machenike\Desktop\Homework_repo\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD91CC7-5217-4270-8E54-38E1BED0B77E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BAD0AC-5114-4FA8-9190-594BE469DEDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18317,12 +18317,6 @@
     </r>
   </si>
   <si>
-    <t>getType(переменная)
-1 a instanceof Double
-2 a.getType() == Double.class
-3 Double.class.isAssignable(a.getTpe())</t>
-  </si>
-  <si>
     <t>Возвращает тип переменной
 Обязательно создание и прописывание своей функции
 public class Program {
@@ -18391,17 +18385,39 @@
       <t>.</t>
     </r>
   </si>
+  <si>
+    <t>.getClass().getSimpleName()
+1 a instanceof Double
+2 a.getType() == Double.class
+3 Double.class.isAssignable(a.getTpe())</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="69" x14ac:knownFonts="1">
+  <fonts count="71" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -19372,9 +19388,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="300">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -19394,32 +19410,32 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="42" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="44" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="45" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="47" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -19443,16 +19459,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -19464,13 +19480,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -19485,10 +19501,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -19500,28 +19516,28 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="48" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="50" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="44" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="46" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -19530,13 +19546,13 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -19548,43 +19564,43 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="48" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="39" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="39" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="46" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -19593,31 +19609,31 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -19625,7 +19641,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -19649,13 +19665,13 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="33" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -19667,7 +19683,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -19676,13 +19692,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="46" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="48" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="48" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="50" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="56" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="58" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -19691,13 +19707,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="33" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="33" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -19716,7 +19732,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="41" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -19734,7 +19750,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -19749,16 +19765,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="48" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="50" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -19770,16 +19786,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -19797,13 +19813,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -19812,7 +19828,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="43" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -19833,22 +19849,22 @@
     <xf numFmtId="49" fontId="0" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="41" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="41" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -19863,22 +19879,22 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -19916,82 +19932,82 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="37" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="43" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="43" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="43" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="43" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="43" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -20006,55 +20022,55 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="57" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="44" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="44" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -20069,7 +20085,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -20081,7 +20097,16 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -20090,138 +20115,135 @@
     <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="11" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="70" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="11" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="68" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -20232,16 +20254,13 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -22099,8 +22118,8 @@
   </sheetPr>
   <dimension ref="A1:AC541"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C267" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G269" sqref="G269"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22321,10 +22340,10 @@
     </row>
     <row r="9" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="19" t="s">
+        <v>2208</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>2209</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>2210</v>
       </c>
       <c r="D9" s="20"/>
       <c r="F9" s="34"/>
@@ -22394,13 +22413,13 @@
         <v>403</v>
       </c>
       <c r="K11" s="21" t="s">
-        <v>2207</v>
+        <v>2211</v>
       </c>
       <c r="L11" s="22" t="s">
         <v>172</v>
       </c>
       <c r="M11" s="297" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="N11" s="37" t="s">
         <v>44</v>
@@ -30619,7 +30638,7 @@
         <v>2025</v>
       </c>
       <c r="I269" s="298" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="K269" s="136"/>
       <c r="L269" s="2" t="s">
@@ -36084,7 +36103,7 @@
       <c r="A459" s="230" t="s">
         <v>1892</v>
       </c>
-      <c r="B459" s="227" t="s">
+      <c r="B459" s="299" t="s">
         <v>1934</v>
       </c>
       <c r="C459" s="227" t="s">

--- a/2 четверть_3_Программист_Java.xlsx
+++ b/2 четверть_3_Программист_Java.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Machenike\Desktop\Homework_repo\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BAD0AC-5114-4FA8-9190-594BE469DEDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE65B6A-E9FD-47B7-AC33-FE8C0FD9D73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3338" uniqueCount="2212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3340" uniqueCount="2214">
   <si>
     <t>Функции</t>
   </si>
@@ -18240,83 +18240,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Удаление элемента</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>int item = qu.remove();</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Возвращает и Удаляет тот элемент, который был добавлен в список (очередь) первым
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>item = queue.poll();</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Возвращает и Удаляет элемент из списка. Eсли в списке не осталось элементов, то не выбрасывает исключение NoSuchElement Excepetion</t>
-    </r>
-  </si>
-  <si>
     <t>Возвращает тип переменной
 Обязательно создание и прописывание своей функции
 public class Program {
@@ -18391,17 +18314,149 @@
 2 a.getType() == Double.class
 3 Double.class.isAssignable(a.getTpe())</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Числа с плавающей точкой</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+никогда не должно сравниваться
+как (a == b)
+Верным будет такой вариант
+сравнения: (Math.abs(a - b)
+&lt; delta), где delta — степень
+точности сравнения
+(погрешность)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Удаление элемента</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tem = qu.remove();</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Возвращает и Удаляет тот элемент, который был добавлен в список (очередь) первым
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>item = queue.poll();</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Возвращает и Удаляет элемент из списка. Eсли в списке не осталось элементов, то не выбрасывает исключение NoSuchElement Excepetion</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">То есть индексов нет. Алгоритм просто перебирует указанное в индексе количество Node и возвращает последнюю
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="71" x14ac:knownFonts="1">
+  <fonts count="72" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -19388,9 +19443,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="300">
+  <cellXfs count="302">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -19410,32 +19465,32 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="44" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="45" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="47" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="48" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -19459,16 +19514,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -19480,13 +19535,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -19501,10 +19556,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -19516,28 +19571,28 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="51" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="46" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="47" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -19546,13 +19601,13 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -19564,43 +19619,43 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="48" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="49" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="40" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -19609,31 +19664,31 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="34" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -19641,7 +19696,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -19665,13 +19720,13 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="34" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -19683,7 +19738,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -19692,13 +19747,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="48" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="49" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="51" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="58" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="59" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -19707,13 +19762,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="34" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="34" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -19732,7 +19787,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="42" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -19750,7 +19805,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -19765,16 +19820,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="51" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -19786,16 +19841,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="32" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -19813,13 +19868,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -19828,7 +19883,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="44" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -19849,22 +19904,22 @@
     <xf numFmtId="49" fontId="0" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="42" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="42" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -19879,22 +19934,22 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -19932,82 +19987,82 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="38" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="44" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="44" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="44" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="44" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="44" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="37" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -20022,55 +20077,55 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="57" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="58" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="45" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="44" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="44" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="45" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="44" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="45" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -20085,7 +20140,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -20097,131 +20152,137 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="11" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="71" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="11" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="70" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -20230,14 +20291,11 @@
     <xf numFmtId="49" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -20248,20 +20306,23 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -21725,6 +21786,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>92364</xdr:colOff>
+      <xdr:row>422</xdr:row>
+      <xdr:rowOff>588818</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1893455</xdr:colOff>
+      <xdr:row>422</xdr:row>
+      <xdr:rowOff>2254089</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Рисунок 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FC35CDC-D40B-F1F7-C53A-AE6078509969}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12746182" y="207148545"/>
+          <a:ext cx="1801091" cy="1665271"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -22118,8 +22223,8 @@
   </sheetPr>
   <dimension ref="A1:AC541"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A410" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D424" sqref="D424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22305,7 +22410,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="2"/>
     </row>
-    <row r="8" spans="1:23" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" ht="116" x14ac:dyDescent="0.35">
       <c r="A8" s="97" t="s">
         <v>25</v>
       </c>
@@ -22317,7 +22422,9 @@
       <c r="F8" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="G8" s="299" t="s">
+        <v>2211</v>
+      </c>
       <c r="H8" s="2" t="s">
         <v>39</v>
       </c>
@@ -22340,10 +22447,10 @@
     </row>
     <row r="9" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="19" t="s">
+        <v>2207</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>2208</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>2209</v>
       </c>
       <c r="D9" s="20"/>
       <c r="F9" s="34"/>
@@ -22413,13 +22520,13 @@
         <v>403</v>
       </c>
       <c r="K11" s="21" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="L11" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="M11" s="297" t="s">
-        <v>2207</v>
+      <c r="M11" s="296" t="s">
+        <v>2206</v>
       </c>
       <c r="N11" s="37" t="s">
         <v>44</v>
@@ -30637,8 +30744,8 @@
       <c r="H269" s="287" t="s">
         <v>2025</v>
       </c>
-      <c r="I269" s="298" t="s">
-        <v>2210</v>
+      <c r="I269" s="297" t="s">
+        <v>2209</v>
       </c>
       <c r="K269" s="136"/>
       <c r="L269" s="2" t="s">
@@ -34936,8 +35043,8 @@
       <c r="G401" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="H401" s="296" t="s">
-        <v>2206</v>
+      <c r="H401" s="300" t="s">
+        <v>2212</v>
       </c>
       <c r="I401" s="35"/>
       <c r="K401" s="34" t="s">
@@ -35495,7 +35602,7 @@
       </c>
       <c r="N422" s="35"/>
     </row>
-    <row r="423" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A423" s="84" t="s">
         <v>1522</v>
       </c>
@@ -35505,7 +35612,9 @@
       <c r="C423" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D423" s="35"/>
+      <c r="D423" s="301" t="s">
+        <v>2213</v>
+      </c>
       <c r="F423" s="34" t="s">
         <v>253</v>
       </c>
@@ -36103,7 +36212,7 @@
       <c r="A459" s="230" t="s">
         <v>1892</v>
       </c>
-      <c r="B459" s="299" t="s">
+      <c r="B459" s="298" t="s">
         <v>1934</v>
       </c>
       <c r="C459" s="227" t="s">
